--- a/golden-harp-manager/HarpConfig.xlsx
+++ b/golden-harp-manager/HarpConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="98" windowWidth="20250" windowHeight="9473" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="19005" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Presets" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="168">
   <si>
     <t>Description</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Chan</t>
   </si>
   <si>
-    <t>E4</t>
-  </si>
-  <si>
     <t>b2</t>
   </si>
   <si>
@@ -507,10 +504,22 @@
     <t>Root note name should be capital letter followed by an optional sharp (#) and a required octave number (e.g. C2, F#3)</t>
   </si>
   <si>
-    <t>Bb-1</t>
-  </si>
-  <si>
     <t>The MIDI channel config on the Presets panel can be left blank (it defaults to channel 1)</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Chromatic</t>
+  </si>
+  <si>
+    <t>Thirds</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>C5</t>
   </si>
 </sst>
 </file>
@@ -854,9 +863,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -875,6 +881,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,2122 +1188,2158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.86328125" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.86328125" style="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.06640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.796875" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" style="77"/>
+    <col min="1" max="1" width="5.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="76"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" style="80" bestFit="1" customWidth="1"/>
-    <col min="10" max="21" width="9.06640625" style="77"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="9" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="75" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="74"/>
       <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="75" t="s">
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-    </row>
-    <row r="2" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+    </row>
+    <row r="2" spans="1:9" s="75" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="74" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="78" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="78">
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="77">
         <v>1</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="79">
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="78">
+        <v>41</v>
+      </c>
+      <c r="I3" s="79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="77">
         <v>2</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="79">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="79">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="78">
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="77">
         <v>3</v>
       </c>
       <c r="B5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="85"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="78">
+      <c r="H5" s="84"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="77">
         <v>4</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="79">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="80">
+      <c r="I6" s="79">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="78">
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="77">
         <v>5</v>
       </c>
       <c r="B7" s="74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="78">
+      <c r="C7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="77">
         <v>6</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="78">
+      <c r="C8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="77">
         <v>7</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="78">
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="77">
         <v>8</v>
       </c>
       <c r="B10" s="74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="78">
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="77">
         <v>9</v>
       </c>
       <c r="B11" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="78">
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="77">
         <v>10</v>
       </c>
       <c r="B12" s="74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="78">
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="77">
         <v>11</v>
       </c>
       <c r="B13" s="74" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="78">
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="77">
         <v>12</v>
       </c>
       <c r="B14" s="74" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="78">
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="77">
         <v>13</v>
       </c>
       <c r="B15" s="74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="78">
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="77">
         <v>14</v>
       </c>
       <c r="B16" s="74" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="78">
+    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="77">
         <v>15</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="78">
+    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="77">
         <v>16</v>
       </c>
       <c r="B18" s="74" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="78">
+    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="77">
         <v>17</v>
       </c>
       <c r="B19" s="74" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="78">
+    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="77">
         <v>18</v>
       </c>
       <c r="B20" s="74" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="78">
+    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A21" s="77">
         <v>19</v>
       </c>
       <c r="B21" s="74" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="78">
+    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="77">
         <v>20</v>
       </c>
       <c r="B22" s="74" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="78">
+    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A23" s="77">
         <v>21</v>
       </c>
       <c r="B23" s="74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="78">
+    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="77">
         <v>22</v>
       </c>
       <c r="B24" s="74" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="78">
+    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="77">
         <v>23</v>
       </c>
       <c r="B25" s="74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="78">
+    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A26" s="77">
         <v>24</v>
       </c>
       <c r="B26" s="74" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="78">
+    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A27" s="77">
         <v>25</v>
       </c>
       <c r="B27" s="74" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="78">
+    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A28" s="77">
         <v>26</v>
       </c>
       <c r="B28" s="74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="78">
+    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="77">
         <v>27</v>
       </c>
       <c r="B29" s="74" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="78">
+    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A30" s="77">
         <v>28</v>
       </c>
       <c r="B30" s="74" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="78">
+    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A31" s="77">
         <v>29</v>
       </c>
       <c r="B31" s="74" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="78">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="77">
         <v>30</v>
       </c>
       <c r="B32" s="74" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="78">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="77">
         <v>31</v>
       </c>
       <c r="B33" s="74" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="78">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="77">
         <v>32</v>
       </c>
       <c r="B34" s="74" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="78">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="77">
         <v>33</v>
       </c>
       <c r="B35" s="74" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="78">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="77">
         <v>34</v>
       </c>
       <c r="B36" s="74" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="78">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="77">
         <v>35</v>
       </c>
       <c r="B37" s="74" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="78">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="77">
         <v>36</v>
       </c>
       <c r="B38" s="74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="78">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="77">
         <v>37</v>
       </c>
       <c r="B39" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="84" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="77" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="78"/>
+    <row r="40" spans="1:9" s="76" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="77"/>
       <c r="B40" s="74"/>
-      <c r="C40" s="83"/>
-      <c r="E40" s="81"/>
-      <c r="G40" s="83"/>
-      <c r="I40" s="81"/>
-    </row>
-    <row r="41" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="78"/>
+      <c r="C40" s="82"/>
+      <c r="E40" s="80"/>
+      <c r="G40" s="82"/>
+      <c r="I40" s="80"/>
+    </row>
+    <row r="41" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="77"/>
       <c r="B41" s="74"/>
-      <c r="C41" s="83"/>
-      <c r="E41" s="81"/>
-      <c r="G41" s="83"/>
-      <c r="I41" s="81"/>
-    </row>
-    <row r="42" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="78"/>
+      <c r="C41" s="82"/>
+      <c r="E41" s="80"/>
+      <c r="G41" s="82"/>
+      <c r="I41" s="80"/>
+    </row>
+    <row r="42" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="77"/>
       <c r="B42" s="74"/>
-      <c r="C42" s="83"/>
-      <c r="E42" s="81"/>
-      <c r="G42" s="83"/>
-      <c r="I42" s="81"/>
-    </row>
-    <row r="43" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="78"/>
+      <c r="C42" s="82"/>
+      <c r="E42" s="80"/>
+      <c r="G42" s="82"/>
+      <c r="I42" s="80"/>
+    </row>
+    <row r="43" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="77"/>
       <c r="B43" s="74"/>
-      <c r="C43" s="83"/>
-      <c r="E43" s="81"/>
-      <c r="G43" s="83"/>
-      <c r="I43" s="81"/>
-    </row>
-    <row r="44" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="78"/>
+      <c r="C43" s="82"/>
+      <c r="E43" s="80"/>
+      <c r="G43" s="82"/>
+      <c r="I43" s="80"/>
+    </row>
+    <row r="44" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="77"/>
       <c r="B44" s="74"/>
-      <c r="C44" s="83"/>
-      <c r="E44" s="81"/>
-      <c r="G44" s="83"/>
-      <c r="I44" s="81"/>
-    </row>
-    <row r="45" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="78"/>
+      <c r="C44" s="82"/>
+      <c r="E44" s="80"/>
+      <c r="G44" s="82"/>
+      <c r="I44" s="80"/>
+    </row>
+    <row r="45" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="77"/>
       <c r="B45" s="74"/>
-      <c r="C45" s="83"/>
-      <c r="E45" s="81"/>
-      <c r="G45" s="83"/>
-      <c r="I45" s="81"/>
-    </row>
-    <row r="46" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="78"/>
+      <c r="C45" s="82"/>
+      <c r="E45" s="80"/>
+      <c r="G45" s="82"/>
+      <c r="I45" s="80"/>
+    </row>
+    <row r="46" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="77"/>
       <c r="B46" s="74"/>
-      <c r="C46" s="83"/>
-      <c r="E46" s="81"/>
-      <c r="G46" s="83"/>
-      <c r="I46" s="81"/>
-    </row>
-    <row r="47" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="78"/>
+      <c r="C46" s="82"/>
+      <c r="E46" s="80"/>
+      <c r="G46" s="82"/>
+      <c r="I46" s="80"/>
+    </row>
+    <row r="47" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="77"/>
       <c r="B47" s="74"/>
-      <c r="C47" s="83"/>
-      <c r="E47" s="81"/>
-      <c r="G47" s="83"/>
-      <c r="I47" s="81"/>
-    </row>
-    <row r="48" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="78"/>
+      <c r="C47" s="82"/>
+      <c r="E47" s="80"/>
+      <c r="G47" s="82"/>
+      <c r="I47" s="80"/>
+    </row>
+    <row r="48" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="77"/>
       <c r="B48" s="74"/>
-      <c r="C48" s="83"/>
-      <c r="E48" s="81"/>
-      <c r="G48" s="83"/>
-      <c r="I48" s="81"/>
-    </row>
-    <row r="49" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="78"/>
+      <c r="C48" s="82"/>
+      <c r="E48" s="80"/>
+      <c r="G48" s="82"/>
+      <c r="I48" s="80"/>
+    </row>
+    <row r="49" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="77"/>
       <c r="B49" s="74"/>
-      <c r="C49" s="83"/>
-      <c r="E49" s="81"/>
-      <c r="G49" s="83"/>
-      <c r="I49" s="81"/>
-    </row>
-    <row r="50" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="78"/>
+      <c r="C49" s="82"/>
+      <c r="E49" s="80"/>
+      <c r="G49" s="82"/>
+      <c r="I49" s="80"/>
+    </row>
+    <row r="50" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="77"/>
       <c r="B50" s="74"/>
-      <c r="C50" s="83"/>
-      <c r="E50" s="81"/>
-      <c r="G50" s="83"/>
-      <c r="I50" s="81"/>
-    </row>
-    <row r="51" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="78"/>
+      <c r="C50" s="82"/>
+      <c r="E50" s="80"/>
+      <c r="G50" s="82"/>
+      <c r="I50" s="80"/>
+    </row>
+    <row r="51" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="77"/>
       <c r="B51" s="74"/>
-      <c r="C51" s="83"/>
-      <c r="E51" s="81"/>
-      <c r="G51" s="83"/>
-      <c r="I51" s="81"/>
-    </row>
-    <row r="52" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="78"/>
+      <c r="C51" s="82"/>
+      <c r="E51" s="80"/>
+      <c r="G51" s="82"/>
+      <c r="I51" s="80"/>
+    </row>
+    <row r="52" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="77"/>
       <c r="B52" s="74"/>
-      <c r="C52" s="83"/>
-      <c r="E52" s="81"/>
-      <c r="G52" s="83"/>
-      <c r="I52" s="81"/>
-    </row>
-    <row r="53" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="78"/>
+      <c r="C52" s="82"/>
+      <c r="E52" s="80"/>
+      <c r="G52" s="82"/>
+      <c r="I52" s="80"/>
+    </row>
+    <row r="53" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="77"/>
       <c r="B53" s="74"/>
-      <c r="C53" s="83"/>
-      <c r="E53" s="81"/>
-      <c r="G53" s="83"/>
-      <c r="I53" s="81"/>
-    </row>
-    <row r="54" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="78"/>
+      <c r="C53" s="82"/>
+      <c r="E53" s="80"/>
+      <c r="G53" s="82"/>
+      <c r="I53" s="80"/>
+    </row>
+    <row r="54" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="77"/>
       <c r="B54" s="74"/>
-      <c r="C54" s="83"/>
-      <c r="E54" s="81"/>
-      <c r="G54" s="83"/>
-      <c r="I54" s="81"/>
-    </row>
-    <row r="55" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="78"/>
+      <c r="C54" s="82"/>
+      <c r="E54" s="80"/>
+      <c r="G54" s="82"/>
+      <c r="I54" s="80"/>
+    </row>
+    <row r="55" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="77"/>
       <c r="B55" s="74"/>
-      <c r="C55" s="83"/>
-      <c r="E55" s="81"/>
-      <c r="G55" s="83"/>
-      <c r="I55" s="81"/>
-    </row>
-    <row r="56" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="78"/>
+      <c r="C55" s="82"/>
+      <c r="E55" s="80"/>
+      <c r="G55" s="82"/>
+      <c r="I55" s="80"/>
+    </row>
+    <row r="56" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="77"/>
       <c r="B56" s="74"/>
-      <c r="C56" s="83"/>
-      <c r="E56" s="81"/>
-      <c r="G56" s="83"/>
-      <c r="I56" s="81"/>
-    </row>
-    <row r="57" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="78"/>
+      <c r="C56" s="82"/>
+      <c r="E56" s="80"/>
+      <c r="G56" s="82"/>
+      <c r="I56" s="80"/>
+    </row>
+    <row r="57" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="77"/>
       <c r="B57" s="74"/>
-      <c r="C57" s="83"/>
-      <c r="E57" s="81"/>
-      <c r="G57" s="83"/>
-      <c r="I57" s="81"/>
-    </row>
-    <row r="58" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="78"/>
+      <c r="C57" s="82"/>
+      <c r="E57" s="80"/>
+      <c r="G57" s="82"/>
+      <c r="I57" s="80"/>
+    </row>
+    <row r="58" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="77"/>
       <c r="B58" s="74"/>
-      <c r="C58" s="83"/>
-      <c r="E58" s="81"/>
-      <c r="G58" s="83"/>
-      <c r="I58" s="81"/>
-    </row>
-    <row r="59" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="78"/>
+      <c r="C58" s="82"/>
+      <c r="E58" s="80"/>
+      <c r="G58" s="82"/>
+      <c r="I58" s="80"/>
+    </row>
+    <row r="59" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="77"/>
       <c r="B59" s="74"/>
-      <c r="C59" s="83"/>
-      <c r="E59" s="81"/>
-      <c r="G59" s="83"/>
-      <c r="I59" s="81"/>
-    </row>
-    <row r="60" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="78"/>
+      <c r="C59" s="82"/>
+      <c r="E59" s="80"/>
+      <c r="G59" s="82"/>
+      <c r="I59" s="80"/>
+    </row>
+    <row r="60" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="77"/>
       <c r="B60" s="74"/>
-      <c r="C60" s="83"/>
-      <c r="E60" s="81"/>
-      <c r="G60" s="83"/>
-      <c r="I60" s="81"/>
-    </row>
-    <row r="61" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="78"/>
+      <c r="C60" s="82"/>
+      <c r="E60" s="80"/>
+      <c r="G60" s="82"/>
+      <c r="I60" s="80"/>
+    </row>
+    <row r="61" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="77"/>
       <c r="B61" s="74"/>
-      <c r="C61" s="83"/>
-      <c r="E61" s="81"/>
-      <c r="G61" s="83"/>
-      <c r="I61" s="81"/>
-    </row>
-    <row r="62" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="78"/>
+      <c r="C61" s="82"/>
+      <c r="E61" s="80"/>
+      <c r="G61" s="82"/>
+      <c r="I61" s="80"/>
+    </row>
+    <row r="62" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="77"/>
       <c r="B62" s="74"/>
-      <c r="C62" s="83"/>
-      <c r="E62" s="81"/>
-      <c r="G62" s="83"/>
-      <c r="I62" s="81"/>
-    </row>
-    <row r="63" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="78"/>
+      <c r="C62" s="82"/>
+      <c r="E62" s="80"/>
+      <c r="G62" s="82"/>
+      <c r="I62" s="80"/>
+    </row>
+    <row r="63" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="77"/>
       <c r="B63" s="74"/>
-      <c r="C63" s="83"/>
-      <c r="E63" s="81"/>
-      <c r="G63" s="83"/>
-      <c r="I63" s="81"/>
-    </row>
-    <row r="64" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="78"/>
+      <c r="C63" s="82"/>
+      <c r="E63" s="80"/>
+      <c r="G63" s="82"/>
+      <c r="I63" s="80"/>
+    </row>
+    <row r="64" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="77"/>
       <c r="B64" s="74"/>
-      <c r="C64" s="83"/>
-      <c r="E64" s="81"/>
-      <c r="G64" s="83"/>
-      <c r="I64" s="81"/>
-    </row>
-    <row r="65" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="78"/>
+      <c r="C64" s="82"/>
+      <c r="E64" s="80"/>
+      <c r="G64" s="82"/>
+      <c r="I64" s="80"/>
+    </row>
+    <row r="65" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="77"/>
       <c r="B65" s="74"/>
-      <c r="C65" s="83"/>
-      <c r="E65" s="81"/>
-      <c r="G65" s="83"/>
-      <c r="I65" s="81"/>
-    </row>
-    <row r="66" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="78"/>
+      <c r="C65" s="82"/>
+      <c r="E65" s="80"/>
+      <c r="G65" s="82"/>
+      <c r="I65" s="80"/>
+    </row>
+    <row r="66" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="77"/>
       <c r="B66" s="74"/>
-      <c r="C66" s="83"/>
-      <c r="E66" s="81"/>
-      <c r="G66" s="83"/>
-      <c r="I66" s="81"/>
-    </row>
-    <row r="67" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="78"/>
+      <c r="C66" s="82"/>
+      <c r="E66" s="80"/>
+      <c r="G66" s="82"/>
+      <c r="I66" s="80"/>
+    </row>
+    <row r="67" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="77"/>
       <c r="B67" s="74"/>
-      <c r="C67" s="83"/>
-      <c r="E67" s="81"/>
-      <c r="G67" s="83"/>
-      <c r="I67" s="81"/>
-    </row>
-    <row r="68" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="78"/>
+      <c r="C67" s="82"/>
+      <c r="E67" s="80"/>
+      <c r="G67" s="82"/>
+      <c r="I67" s="80"/>
+    </row>
+    <row r="68" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="77"/>
       <c r="B68" s="74"/>
-      <c r="C68" s="83"/>
-      <c r="E68" s="81"/>
-      <c r="G68" s="83"/>
-      <c r="I68" s="81"/>
-    </row>
-    <row r="69" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="78"/>
+      <c r="C68" s="82"/>
+      <c r="E68" s="80"/>
+      <c r="G68" s="82"/>
+      <c r="I68" s="80"/>
+    </row>
+    <row r="69" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="77"/>
       <c r="B69" s="74"/>
-      <c r="C69" s="83"/>
-      <c r="E69" s="81"/>
-      <c r="G69" s="83"/>
-      <c r="I69" s="81"/>
-    </row>
-    <row r="70" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="78"/>
+      <c r="C69" s="82"/>
+      <c r="E69" s="80"/>
+      <c r="G69" s="82"/>
+      <c r="I69" s="80"/>
+    </row>
+    <row r="70" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="77"/>
       <c r="B70" s="74"/>
-      <c r="C70" s="83"/>
-      <c r="E70" s="81"/>
-      <c r="G70" s="83"/>
-      <c r="I70" s="81"/>
-    </row>
-    <row r="71" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="78"/>
+      <c r="C70" s="82"/>
+      <c r="E70" s="80"/>
+      <c r="G70" s="82"/>
+      <c r="I70" s="80"/>
+    </row>
+    <row r="71" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="77"/>
       <c r="B71" s="74"/>
-      <c r="C71" s="83"/>
-      <c r="E71" s="81"/>
-      <c r="G71" s="83"/>
-      <c r="I71" s="81"/>
-    </row>
-    <row r="72" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="78"/>
+      <c r="C71" s="82"/>
+      <c r="E71" s="80"/>
+      <c r="G71" s="82"/>
+      <c r="I71" s="80"/>
+    </row>
+    <row r="72" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="77"/>
       <c r="B72" s="74"/>
-      <c r="C72" s="83"/>
-      <c r="E72" s="81"/>
-      <c r="G72" s="83"/>
-      <c r="I72" s="81"/>
-    </row>
-    <row r="73" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="78"/>
+      <c r="C72" s="82"/>
+      <c r="E72" s="80"/>
+      <c r="G72" s="82"/>
+      <c r="I72" s="80"/>
+    </row>
+    <row r="73" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="77"/>
       <c r="B73" s="74"/>
-      <c r="C73" s="83"/>
-      <c r="E73" s="81"/>
-      <c r="G73" s="83"/>
-      <c r="I73" s="81"/>
-    </row>
-    <row r="74" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="78"/>
+      <c r="C73" s="82"/>
+      <c r="E73" s="80"/>
+      <c r="G73" s="82"/>
+      <c r="I73" s="80"/>
+    </row>
+    <row r="74" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="77"/>
       <c r="B74" s="74"/>
-      <c r="C74" s="83"/>
-      <c r="E74" s="81"/>
-      <c r="G74" s="83"/>
-      <c r="I74" s="81"/>
-    </row>
-    <row r="75" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="78"/>
+      <c r="C74" s="82"/>
+      <c r="E74" s="80"/>
+      <c r="G74" s="82"/>
+      <c r="I74" s="80"/>
+    </row>
+    <row r="75" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="77"/>
       <c r="B75" s="74"/>
-      <c r="C75" s="83"/>
-      <c r="E75" s="81"/>
-      <c r="G75" s="83"/>
-      <c r="I75" s="81"/>
-    </row>
-    <row r="76" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="78"/>
+      <c r="C75" s="82"/>
+      <c r="E75" s="80"/>
+      <c r="G75" s="82"/>
+      <c r="I75" s="80"/>
+    </row>
+    <row r="76" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="77"/>
       <c r="B76" s="74"/>
-      <c r="C76" s="83"/>
-      <c r="E76" s="81"/>
-      <c r="G76" s="83"/>
-      <c r="I76" s="81"/>
-    </row>
-    <row r="77" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="78"/>
+      <c r="C76" s="82"/>
+      <c r="E76" s="80"/>
+      <c r="G76" s="82"/>
+      <c r="I76" s="80"/>
+    </row>
+    <row r="77" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="77"/>
       <c r="B77" s="74"/>
-      <c r="C77" s="83"/>
-      <c r="E77" s="81"/>
-      <c r="G77" s="83"/>
-      <c r="I77" s="81"/>
-    </row>
-    <row r="78" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="78"/>
+      <c r="C77" s="82"/>
+      <c r="E77" s="80"/>
+      <c r="G77" s="82"/>
+      <c r="I77" s="80"/>
+    </row>
+    <row r="78" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="77"/>
       <c r="B78" s="74"/>
-      <c r="C78" s="83"/>
-      <c r="E78" s="81"/>
-      <c r="G78" s="83"/>
-      <c r="I78" s="81"/>
-    </row>
-    <row r="79" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="78"/>
+      <c r="C78" s="82"/>
+      <c r="E78" s="80"/>
+      <c r="G78" s="82"/>
+      <c r="I78" s="80"/>
+    </row>
+    <row r="79" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="77"/>
       <c r="B79" s="74"/>
-      <c r="C79" s="83"/>
-      <c r="E79" s="81"/>
-      <c r="G79" s="83"/>
-      <c r="I79" s="81"/>
-    </row>
-    <row r="80" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="78"/>
+      <c r="C79" s="82"/>
+      <c r="E79" s="80"/>
+      <c r="G79" s="82"/>
+      <c r="I79" s="80"/>
+    </row>
+    <row r="80" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="77"/>
       <c r="B80" s="74"/>
-      <c r="C80" s="83"/>
-      <c r="E80" s="81"/>
-      <c r="G80" s="83"/>
-      <c r="I80" s="81"/>
-    </row>
-    <row r="81" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="78"/>
+      <c r="C80" s="82"/>
+      <c r="E80" s="80"/>
+      <c r="G80" s="82"/>
+      <c r="I80" s="80"/>
+    </row>
+    <row r="81" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="77"/>
       <c r="B81" s="74"/>
-      <c r="C81" s="83"/>
-      <c r="E81" s="81"/>
-      <c r="G81" s="83"/>
-      <c r="I81" s="81"/>
-    </row>
-    <row r="82" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="78"/>
+      <c r="C81" s="82"/>
+      <c r="E81" s="80"/>
+      <c r="G81" s="82"/>
+      <c r="I81" s="80"/>
+    </row>
+    <row r="82" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="77"/>
       <c r="B82" s="74"/>
-      <c r="C82" s="83"/>
-      <c r="E82" s="81"/>
-      <c r="G82" s="83"/>
-      <c r="I82" s="81"/>
-    </row>
-    <row r="83" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="78"/>
+      <c r="C82" s="82"/>
+      <c r="E82" s="80"/>
+      <c r="G82" s="82"/>
+      <c r="I82" s="80"/>
+    </row>
+    <row r="83" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="77"/>
       <c r="B83" s="74"/>
-      <c r="C83" s="83"/>
-      <c r="E83" s="81"/>
-      <c r="G83" s="83"/>
-      <c r="I83" s="81"/>
-    </row>
-    <row r="84" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="78"/>
+      <c r="C83" s="82"/>
+      <c r="E83" s="80"/>
+      <c r="G83" s="82"/>
+      <c r="I83" s="80"/>
+    </row>
+    <row r="84" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="77"/>
       <c r="B84" s="74"/>
-      <c r="C84" s="83"/>
-      <c r="E84" s="81"/>
-      <c r="G84" s="83"/>
-      <c r="I84" s="81"/>
-    </row>
-    <row r="85" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="78"/>
+      <c r="C84" s="82"/>
+      <c r="E84" s="80"/>
+      <c r="G84" s="82"/>
+      <c r="I84" s="80"/>
+    </row>
+    <row r="85" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="77"/>
       <c r="B85" s="74"/>
-      <c r="C85" s="83"/>
-      <c r="E85" s="81"/>
-      <c r="G85" s="83"/>
-      <c r="I85" s="81"/>
-    </row>
-    <row r="86" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="78"/>
+      <c r="C85" s="82"/>
+      <c r="E85" s="80"/>
+      <c r="G85" s="82"/>
+      <c r="I85" s="80"/>
+    </row>
+    <row r="86" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="77"/>
       <c r="B86" s="74"/>
-      <c r="C86" s="83"/>
-      <c r="E86" s="81"/>
-      <c r="G86" s="83"/>
-      <c r="I86" s="81"/>
-    </row>
-    <row r="87" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="78"/>
+      <c r="C86" s="82"/>
+      <c r="E86" s="80"/>
+      <c r="G86" s="82"/>
+      <c r="I86" s="80"/>
+    </row>
+    <row r="87" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="77"/>
       <c r="B87" s="74"/>
-      <c r="C87" s="83"/>
-      <c r="E87" s="81"/>
-      <c r="G87" s="83"/>
-      <c r="I87" s="81"/>
-    </row>
-    <row r="88" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="78"/>
+      <c r="C87" s="82"/>
+      <c r="E87" s="80"/>
+      <c r="G87" s="82"/>
+      <c r="I87" s="80"/>
+    </row>
+    <row r="88" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="77"/>
       <c r="B88" s="74"/>
-      <c r="C88" s="83"/>
-      <c r="E88" s="81"/>
-      <c r="G88" s="83"/>
-      <c r="I88" s="81"/>
-    </row>
-    <row r="89" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="78"/>
+      <c r="C88" s="82"/>
+      <c r="E88" s="80"/>
+      <c r="G88" s="82"/>
+      <c r="I88" s="80"/>
+    </row>
+    <row r="89" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="77"/>
       <c r="B89" s="74"/>
-      <c r="C89" s="83"/>
-      <c r="E89" s="81"/>
-      <c r="G89" s="83"/>
-      <c r="I89" s="81"/>
-    </row>
-    <row r="90" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="78"/>
+      <c r="C89" s="82"/>
+      <c r="E89" s="80"/>
+      <c r="G89" s="82"/>
+      <c r="I89" s="80"/>
+    </row>
+    <row r="90" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="77"/>
       <c r="B90" s="74"/>
-      <c r="C90" s="83"/>
-      <c r="E90" s="81"/>
-      <c r="G90" s="83"/>
-      <c r="I90" s="81"/>
-    </row>
-    <row r="91" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="78"/>
+      <c r="C90" s="82"/>
+      <c r="E90" s="80"/>
+      <c r="G90" s="82"/>
+      <c r="I90" s="80"/>
+    </row>
+    <row r="91" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="77"/>
       <c r="B91" s="74"/>
-      <c r="C91" s="83"/>
-      <c r="E91" s="81"/>
-      <c r="G91" s="83"/>
-      <c r="I91" s="81"/>
-    </row>
-    <row r="92" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="78"/>
+      <c r="C91" s="82"/>
+      <c r="E91" s="80"/>
+      <c r="G91" s="82"/>
+      <c r="I91" s="80"/>
+    </row>
+    <row r="92" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="77"/>
       <c r="B92" s="74"/>
-      <c r="C92" s="83"/>
-      <c r="E92" s="81"/>
-      <c r="G92" s="83"/>
-      <c r="I92" s="81"/>
-    </row>
-    <row r="93" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="78"/>
+      <c r="C92" s="82"/>
+      <c r="E92" s="80"/>
+      <c r="G92" s="82"/>
+      <c r="I92" s="80"/>
+    </row>
+    <row r="93" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="77"/>
       <c r="B93" s="74"/>
-      <c r="C93" s="83"/>
-      <c r="E93" s="81"/>
-      <c r="G93" s="83"/>
-      <c r="I93" s="81"/>
-    </row>
-    <row r="94" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="78"/>
+      <c r="C93" s="82"/>
+      <c r="E93" s="80"/>
+      <c r="G93" s="82"/>
+      <c r="I93" s="80"/>
+    </row>
+    <row r="94" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="77"/>
       <c r="B94" s="74"/>
-      <c r="C94" s="83"/>
-      <c r="E94" s="81"/>
-      <c r="G94" s="83"/>
-      <c r="I94" s="81"/>
-    </row>
-    <row r="95" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="78"/>
+      <c r="C94" s="82"/>
+      <c r="E94" s="80"/>
+      <c r="G94" s="82"/>
+      <c r="I94" s="80"/>
+    </row>
+    <row r="95" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="77"/>
       <c r="B95" s="74"/>
-      <c r="C95" s="83"/>
-      <c r="E95" s="81"/>
-      <c r="G95" s="83"/>
-      <c r="I95" s="81"/>
-    </row>
-    <row r="96" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="78"/>
+      <c r="C95" s="82"/>
+      <c r="E95" s="80"/>
+      <c r="G95" s="82"/>
+      <c r="I95" s="80"/>
+    </row>
+    <row r="96" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="77"/>
       <c r="B96" s="74"/>
-      <c r="C96" s="83"/>
-      <c r="E96" s="81"/>
-      <c r="G96" s="83"/>
-      <c r="I96" s="81"/>
-    </row>
-    <row r="97" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="78"/>
+      <c r="C96" s="82"/>
+      <c r="E96" s="80"/>
+      <c r="G96" s="82"/>
+      <c r="I96" s="80"/>
+    </row>
+    <row r="97" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="77"/>
       <c r="B97" s="74"/>
-      <c r="C97" s="83"/>
-      <c r="E97" s="81"/>
-      <c r="G97" s="83"/>
-      <c r="I97" s="81"/>
-    </row>
-    <row r="98" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="78"/>
+      <c r="C97" s="82"/>
+      <c r="E97" s="80"/>
+      <c r="G97" s="82"/>
+      <c r="I97" s="80"/>
+    </row>
+    <row r="98" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="77"/>
       <c r="B98" s="74"/>
-      <c r="C98" s="83"/>
-      <c r="E98" s="81"/>
-      <c r="G98" s="83"/>
-      <c r="I98" s="81"/>
-    </row>
-    <row r="99" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="78"/>
+      <c r="C98" s="82"/>
+      <c r="E98" s="80"/>
+      <c r="G98" s="82"/>
+      <c r="I98" s="80"/>
+    </row>
+    <row r="99" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="77"/>
       <c r="B99" s="74"/>
-      <c r="C99" s="83"/>
-      <c r="E99" s="81"/>
-      <c r="G99" s="83"/>
-      <c r="I99" s="81"/>
-    </row>
-    <row r="100" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="78"/>
+      <c r="C99" s="82"/>
+      <c r="E99" s="80"/>
+      <c r="G99" s="82"/>
+      <c r="I99" s="80"/>
+    </row>
+    <row r="100" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="77"/>
       <c r="B100" s="74"/>
-      <c r="C100" s="83"/>
-      <c r="E100" s="81"/>
-      <c r="G100" s="83"/>
-      <c r="I100" s="81"/>
-    </row>
-    <row r="101" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="78"/>
+      <c r="C100" s="82"/>
+      <c r="E100" s="80"/>
+      <c r="G100" s="82"/>
+      <c r="I100" s="80"/>
+    </row>
+    <row r="101" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="77"/>
       <c r="B101" s="74"/>
-      <c r="C101" s="83"/>
-      <c r="E101" s="81"/>
-      <c r="G101" s="83"/>
-      <c r="I101" s="81"/>
-    </row>
-    <row r="102" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="78"/>
+      <c r="C101" s="82"/>
+      <c r="E101" s="80"/>
+      <c r="G101" s="82"/>
+      <c r="I101" s="80"/>
+    </row>
+    <row r="102" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="77"/>
       <c r="B102" s="74"/>
-      <c r="C102" s="83"/>
-      <c r="E102" s="81"/>
-      <c r="G102" s="83"/>
-      <c r="I102" s="81"/>
-    </row>
-    <row r="103" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="78"/>
+      <c r="C102" s="82"/>
+      <c r="E102" s="80"/>
+      <c r="G102" s="82"/>
+      <c r="I102" s="80"/>
+    </row>
+    <row r="103" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="77"/>
       <c r="B103" s="74"/>
-      <c r="C103" s="83"/>
-      <c r="E103" s="81"/>
-      <c r="G103" s="83"/>
-      <c r="I103" s="81"/>
-    </row>
-    <row r="104" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="78"/>
+      <c r="C103" s="82"/>
+      <c r="E103" s="80"/>
+      <c r="G103" s="82"/>
+      <c r="I103" s="80"/>
+    </row>
+    <row r="104" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="77"/>
       <c r="B104" s="74"/>
-      <c r="C104" s="83"/>
-      <c r="E104" s="81"/>
-      <c r="G104" s="83"/>
-      <c r="I104" s="81"/>
-    </row>
-    <row r="105" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="78"/>
+      <c r="C104" s="82"/>
+      <c r="E104" s="80"/>
+      <c r="G104" s="82"/>
+      <c r="I104" s="80"/>
+    </row>
+    <row r="105" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="77"/>
       <c r="B105" s="74"/>
-      <c r="C105" s="83"/>
-      <c r="E105" s="81"/>
-      <c r="G105" s="83"/>
-      <c r="I105" s="81"/>
-    </row>
-    <row r="106" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="78"/>
+      <c r="C105" s="82"/>
+      <c r="E105" s="80"/>
+      <c r="G105" s="82"/>
+      <c r="I105" s="80"/>
+    </row>
+    <row r="106" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="77"/>
       <c r="B106" s="74"/>
-      <c r="C106" s="83"/>
-      <c r="E106" s="81"/>
-      <c r="G106" s="83"/>
-      <c r="I106" s="81"/>
-    </row>
-    <row r="107" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="78"/>
+      <c r="C106" s="82"/>
+      <c r="E106" s="80"/>
+      <c r="G106" s="82"/>
+      <c r="I106" s="80"/>
+    </row>
+    <row r="107" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="77"/>
       <c r="B107" s="74"/>
-      <c r="C107" s="83"/>
-      <c r="E107" s="81"/>
-      <c r="G107" s="83"/>
-      <c r="I107" s="81"/>
-    </row>
-    <row r="108" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="78"/>
+      <c r="C107" s="82"/>
+      <c r="E107" s="80"/>
+      <c r="G107" s="82"/>
+      <c r="I107" s="80"/>
+    </row>
+    <row r="108" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="77"/>
       <c r="B108" s="74"/>
-      <c r="C108" s="83"/>
-      <c r="E108" s="81"/>
-      <c r="G108" s="83"/>
-      <c r="I108" s="81"/>
-    </row>
-    <row r="109" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="78"/>
+      <c r="C108" s="82"/>
+      <c r="E108" s="80"/>
+      <c r="G108" s="82"/>
+      <c r="I108" s="80"/>
+    </row>
+    <row r="109" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="77"/>
       <c r="B109" s="74"/>
-      <c r="C109" s="83"/>
-      <c r="E109" s="81"/>
-      <c r="G109" s="83"/>
-      <c r="I109" s="81"/>
-    </row>
-    <row r="110" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="78"/>
+      <c r="C109" s="82"/>
+      <c r="E109" s="80"/>
+      <c r="G109" s="82"/>
+      <c r="I109" s="80"/>
+    </row>
+    <row r="110" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="77"/>
       <c r="B110" s="74"/>
-      <c r="C110" s="83"/>
-      <c r="E110" s="81"/>
-      <c r="G110" s="83"/>
-      <c r="I110" s="81"/>
-    </row>
-    <row r="111" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="78"/>
+      <c r="C110" s="82"/>
+      <c r="E110" s="80"/>
+      <c r="G110" s="82"/>
+      <c r="I110" s="80"/>
+    </row>
+    <row r="111" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="77"/>
       <c r="B111" s="74"/>
-      <c r="C111" s="83"/>
-      <c r="E111" s="81"/>
-      <c r="G111" s="83"/>
-      <c r="I111" s="81"/>
-    </row>
-    <row r="112" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="78"/>
+      <c r="C111" s="82"/>
+      <c r="E111" s="80"/>
+      <c r="G111" s="82"/>
+      <c r="I111" s="80"/>
+    </row>
+    <row r="112" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="77"/>
       <c r="B112" s="74"/>
-      <c r="C112" s="83"/>
-      <c r="E112" s="81"/>
-      <c r="G112" s="83"/>
-      <c r="I112" s="81"/>
-    </row>
-    <row r="113" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="78"/>
+      <c r="C112" s="82"/>
+      <c r="E112" s="80"/>
+      <c r="G112" s="82"/>
+      <c r="I112" s="80"/>
+    </row>
+    <row r="113" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="77"/>
       <c r="B113" s="74"/>
-      <c r="C113" s="83"/>
-      <c r="E113" s="81"/>
-      <c r="G113" s="83"/>
-      <c r="I113" s="81"/>
-    </row>
-    <row r="114" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="78"/>
+      <c r="C113" s="82"/>
+      <c r="E113" s="80"/>
+      <c r="G113" s="82"/>
+      <c r="I113" s="80"/>
+    </row>
+    <row r="114" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="77"/>
       <c r="B114" s="74"/>
-      <c r="C114" s="83"/>
-      <c r="E114" s="81"/>
-      <c r="G114" s="83"/>
-      <c r="I114" s="81"/>
-    </row>
-    <row r="115" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="78"/>
+      <c r="C114" s="82"/>
+      <c r="E114" s="80"/>
+      <c r="G114" s="82"/>
+      <c r="I114" s="80"/>
+    </row>
+    <row r="115" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="77"/>
       <c r="B115" s="74"/>
-      <c r="C115" s="83"/>
-      <c r="E115" s="81"/>
-      <c r="G115" s="83"/>
-      <c r="I115" s="81"/>
-    </row>
-    <row r="116" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="78"/>
+      <c r="C115" s="82"/>
+      <c r="E115" s="80"/>
+      <c r="G115" s="82"/>
+      <c r="I115" s="80"/>
+    </row>
+    <row r="116" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="77"/>
       <c r="B116" s="74"/>
-      <c r="C116" s="83"/>
-      <c r="E116" s="81"/>
-      <c r="G116" s="83"/>
-      <c r="I116" s="81"/>
-    </row>
-    <row r="117" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="78"/>
+      <c r="C116" s="82"/>
+      <c r="E116" s="80"/>
+      <c r="G116" s="82"/>
+      <c r="I116" s="80"/>
+    </row>
+    <row r="117" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="77"/>
       <c r="B117" s="74"/>
-      <c r="C117" s="83"/>
-      <c r="E117" s="81"/>
-      <c r="G117" s="83"/>
-      <c r="I117" s="81"/>
-    </row>
-    <row r="118" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="78"/>
+      <c r="C117" s="82"/>
+      <c r="E117" s="80"/>
+      <c r="G117" s="82"/>
+      <c r="I117" s="80"/>
+    </row>
+    <row r="118" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="77"/>
       <c r="B118" s="74"/>
-      <c r="C118" s="83"/>
-      <c r="E118" s="81"/>
-      <c r="G118" s="83"/>
-      <c r="I118" s="81"/>
-    </row>
-    <row r="119" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="78"/>
+      <c r="C118" s="82"/>
+      <c r="E118" s="80"/>
+      <c r="G118" s="82"/>
+      <c r="I118" s="80"/>
+    </row>
+    <row r="119" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="77"/>
       <c r="B119" s="74"/>
-      <c r="C119" s="83"/>
-      <c r="E119" s="81"/>
-      <c r="G119" s="83"/>
-      <c r="I119" s="81"/>
-    </row>
-    <row r="120" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="78"/>
+      <c r="C119" s="82"/>
+      <c r="E119" s="80"/>
+      <c r="G119" s="82"/>
+      <c r="I119" s="80"/>
+    </row>
+    <row r="120" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="77"/>
       <c r="B120" s="74"/>
-      <c r="C120" s="83"/>
-      <c r="E120" s="81"/>
-      <c r="G120" s="83"/>
-      <c r="I120" s="81"/>
-    </row>
-    <row r="121" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="78"/>
+      <c r="C120" s="82"/>
+      <c r="E120" s="80"/>
+      <c r="G120" s="82"/>
+      <c r="I120" s="80"/>
+    </row>
+    <row r="121" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="77"/>
       <c r="B121" s="74"/>
-      <c r="C121" s="83"/>
-      <c r="E121" s="81"/>
-      <c r="G121" s="83"/>
-      <c r="I121" s="81"/>
-    </row>
-    <row r="122" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="78"/>
+      <c r="C121" s="82"/>
+      <c r="E121" s="80"/>
+      <c r="G121" s="82"/>
+      <c r="I121" s="80"/>
+    </row>
+    <row r="122" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="77"/>
       <c r="B122" s="74"/>
-      <c r="C122" s="83"/>
-      <c r="E122" s="81"/>
-      <c r="G122" s="83"/>
-      <c r="I122" s="81"/>
-    </row>
-    <row r="123" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="78"/>
+      <c r="C122" s="82"/>
+      <c r="E122" s="80"/>
+      <c r="G122" s="82"/>
+      <c r="I122" s="80"/>
+    </row>
+    <row r="123" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="77"/>
       <c r="B123" s="74"/>
-      <c r="C123" s="83"/>
-      <c r="E123" s="81"/>
-      <c r="G123" s="83"/>
-      <c r="I123" s="81"/>
-    </row>
-    <row r="124" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="78"/>
+      <c r="C123" s="82"/>
+      <c r="E123" s="80"/>
+      <c r="G123" s="82"/>
+      <c r="I123" s="80"/>
+    </row>
+    <row r="124" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="77"/>
       <c r="B124" s="74"/>
-      <c r="C124" s="83"/>
-      <c r="E124" s="81"/>
-      <c r="G124" s="83"/>
-      <c r="I124" s="81"/>
-    </row>
-    <row r="125" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="78"/>
+      <c r="C124" s="82"/>
+      <c r="E124" s="80"/>
+      <c r="G124" s="82"/>
+      <c r="I124" s="80"/>
+    </row>
+    <row r="125" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="77"/>
       <c r="B125" s="74"/>
-      <c r="C125" s="83"/>
-      <c r="E125" s="81"/>
-      <c r="G125" s="83"/>
-      <c r="I125" s="81"/>
-    </row>
-    <row r="126" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="78"/>
+      <c r="C125" s="82"/>
+      <c r="E125" s="80"/>
+      <c r="G125" s="82"/>
+      <c r="I125" s="80"/>
+    </row>
+    <row r="126" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="77"/>
       <c r="B126" s="74"/>
-      <c r="C126" s="83"/>
-      <c r="E126" s="81"/>
-      <c r="G126" s="83"/>
-      <c r="I126" s="81"/>
-    </row>
-    <row r="127" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="78"/>
+      <c r="C126" s="82"/>
+      <c r="E126" s="80"/>
+      <c r="G126" s="82"/>
+      <c r="I126" s="80"/>
+    </row>
+    <row r="127" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="77"/>
       <c r="B127" s="74"/>
-      <c r="C127" s="83"/>
-      <c r="E127" s="81"/>
-      <c r="G127" s="83"/>
-      <c r="I127" s="81"/>
-    </row>
-    <row r="128" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="78"/>
+      <c r="C127" s="82"/>
+      <c r="E127" s="80"/>
+      <c r="G127" s="82"/>
+      <c r="I127" s="80"/>
+    </row>
+    <row r="128" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="77"/>
       <c r="B128" s="74"/>
-      <c r="C128" s="83"/>
-      <c r="E128" s="81"/>
-      <c r="G128" s="83"/>
-      <c r="I128" s="81"/>
-    </row>
-    <row r="129" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="78"/>
+      <c r="C128" s="82"/>
+      <c r="E128" s="80"/>
+      <c r="G128" s="82"/>
+      <c r="I128" s="80"/>
+    </row>
+    <row r="129" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="77"/>
       <c r="B129" s="74"/>
-      <c r="C129" s="83"/>
-      <c r="E129" s="81"/>
-      <c r="G129" s="83"/>
-      <c r="I129" s="81"/>
-    </row>
-    <row r="130" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="78"/>
+      <c r="C129" s="82"/>
+      <c r="E129" s="80"/>
+      <c r="G129" s="82"/>
+      <c r="I129" s="80"/>
+    </row>
+    <row r="130" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="77"/>
       <c r="B130" s="74"/>
-      <c r="C130" s="83"/>
-      <c r="E130" s="81"/>
-      <c r="G130" s="83"/>
-      <c r="I130" s="81"/>
-    </row>
-    <row r="131" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="78"/>
+      <c r="C130" s="82"/>
+      <c r="E130" s="80"/>
+      <c r="G130" s="82"/>
+      <c r="I130" s="80"/>
+    </row>
+    <row r="131" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="77"/>
       <c r="B131" s="74"/>
-      <c r="C131" s="83"/>
-      <c r="E131" s="81"/>
-      <c r="G131" s="83"/>
-      <c r="I131" s="81"/>
-    </row>
-    <row r="132" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="78"/>
+      <c r="C131" s="82"/>
+      <c r="E131" s="80"/>
+      <c r="G131" s="82"/>
+      <c r="I131" s="80"/>
+    </row>
+    <row r="132" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="77"/>
       <c r="B132" s="74"/>
-      <c r="C132" s="83"/>
-      <c r="E132" s="81"/>
-      <c r="G132" s="83"/>
-      <c r="I132" s="81"/>
-    </row>
-    <row r="133" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="78"/>
+      <c r="C132" s="82"/>
+      <c r="E132" s="80"/>
+      <c r="G132" s="82"/>
+      <c r="I132" s="80"/>
+    </row>
+    <row r="133" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="77"/>
       <c r="B133" s="74"/>
-      <c r="C133" s="83"/>
-      <c r="E133" s="81"/>
-      <c r="G133" s="83"/>
-      <c r="I133" s="81"/>
-    </row>
-    <row r="134" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="78"/>
+      <c r="C133" s="82"/>
+      <c r="E133" s="80"/>
+      <c r="G133" s="82"/>
+      <c r="I133" s="80"/>
+    </row>
+    <row r="134" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="77"/>
       <c r="B134" s="74"/>
-      <c r="C134" s="83"/>
-      <c r="E134" s="81"/>
-      <c r="G134" s="83"/>
-      <c r="I134" s="81"/>
-    </row>
-    <row r="135" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="78"/>
+      <c r="C134" s="82"/>
+      <c r="E134" s="80"/>
+      <c r="G134" s="82"/>
+      <c r="I134" s="80"/>
+    </row>
+    <row r="135" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="77"/>
       <c r="B135" s="74"/>
-      <c r="C135" s="83"/>
-      <c r="E135" s="81"/>
-      <c r="G135" s="83"/>
-      <c r="I135" s="81"/>
-    </row>
-    <row r="136" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="78"/>
+      <c r="C135" s="82"/>
+      <c r="E135" s="80"/>
+      <c r="G135" s="82"/>
+      <c r="I135" s="80"/>
+    </row>
+    <row r="136" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="77"/>
       <c r="B136" s="74"/>
-      <c r="C136" s="83"/>
-      <c r="E136" s="81"/>
-      <c r="G136" s="83"/>
-      <c r="I136" s="81"/>
-    </row>
-    <row r="137" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A137" s="78"/>
+      <c r="C136" s="82"/>
+      <c r="E136" s="80"/>
+      <c r="G136" s="82"/>
+      <c r="I136" s="80"/>
+    </row>
+    <row r="137" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="77"/>
       <c r="B137" s="74"/>
-      <c r="C137" s="83"/>
-      <c r="E137" s="81"/>
-      <c r="G137" s="83"/>
-      <c r="I137" s="81"/>
-    </row>
-    <row r="138" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A138" s="78"/>
+      <c r="C137" s="82"/>
+      <c r="E137" s="80"/>
+      <c r="G137" s="82"/>
+      <c r="I137" s="80"/>
+    </row>
+    <row r="138" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="77"/>
       <c r="B138" s="74"/>
-      <c r="C138" s="83"/>
-      <c r="E138" s="81"/>
-      <c r="G138" s="83"/>
-      <c r="I138" s="81"/>
-    </row>
-    <row r="139" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="78"/>
+      <c r="C138" s="82"/>
+      <c r="E138" s="80"/>
+      <c r="G138" s="82"/>
+      <c r="I138" s="80"/>
+    </row>
+    <row r="139" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="77"/>
       <c r="B139" s="74"/>
-      <c r="C139" s="83"/>
-      <c r="E139" s="81"/>
-      <c r="G139" s="83"/>
-      <c r="I139" s="81"/>
-    </row>
-    <row r="140" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A140" s="78"/>
+      <c r="C139" s="82"/>
+      <c r="E139" s="80"/>
+      <c r="G139" s="82"/>
+      <c r="I139" s="80"/>
+    </row>
+    <row r="140" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="77"/>
       <c r="B140" s="74"/>
-      <c r="C140" s="83"/>
-      <c r="E140" s="81"/>
-      <c r="G140" s="83"/>
-      <c r="I140" s="81"/>
-    </row>
-    <row r="141" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A141" s="78"/>
+      <c r="C140" s="82"/>
+      <c r="E140" s="80"/>
+      <c r="G140" s="82"/>
+      <c r="I140" s="80"/>
+    </row>
+    <row r="141" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="77"/>
       <c r="B141" s="74"/>
-      <c r="C141" s="83"/>
-      <c r="E141" s="81"/>
-      <c r="G141" s="83"/>
-      <c r="I141" s="81"/>
-    </row>
-    <row r="142" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="78"/>
+      <c r="C141" s="82"/>
+      <c r="E141" s="80"/>
+      <c r="G141" s="82"/>
+      <c r="I141" s="80"/>
+    </row>
+    <row r="142" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="77"/>
       <c r="B142" s="74"/>
-      <c r="C142" s="83"/>
-      <c r="E142" s="81"/>
-      <c r="G142" s="83"/>
-      <c r="I142" s="81"/>
-    </row>
-    <row r="143" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A143" s="78"/>
+      <c r="C142" s="82"/>
+      <c r="E142" s="80"/>
+      <c r="G142" s="82"/>
+      <c r="I142" s="80"/>
+    </row>
+    <row r="143" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="77"/>
       <c r="B143" s="74"/>
-      <c r="C143" s="83"/>
-      <c r="E143" s="81"/>
-      <c r="G143" s="83"/>
-      <c r="I143" s="81"/>
-    </row>
-    <row r="144" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A144" s="78"/>
+      <c r="C143" s="82"/>
+      <c r="E143" s="80"/>
+      <c r="G143" s="82"/>
+      <c r="I143" s="80"/>
+    </row>
+    <row r="144" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="77"/>
       <c r="B144" s="74"/>
-      <c r="C144" s="83"/>
-      <c r="E144" s="81"/>
-      <c r="G144" s="83"/>
-      <c r="I144" s="81"/>
-    </row>
-    <row r="145" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A145" s="78"/>
+      <c r="C144" s="82"/>
+      <c r="E144" s="80"/>
+      <c r="G144" s="82"/>
+      <c r="I144" s="80"/>
+    </row>
+    <row r="145" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="77"/>
       <c r="B145" s="74"/>
-      <c r="C145" s="83"/>
-      <c r="E145" s="81"/>
-      <c r="G145" s="83"/>
-      <c r="I145" s="81"/>
-    </row>
-    <row r="146" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A146" s="78"/>
+      <c r="C145" s="82"/>
+      <c r="E145" s="80"/>
+      <c r="G145" s="82"/>
+      <c r="I145" s="80"/>
+    </row>
+    <row r="146" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="77"/>
       <c r="B146" s="74"/>
-      <c r="C146" s="83"/>
-      <c r="E146" s="81"/>
-      <c r="G146" s="83"/>
-      <c r="I146" s="81"/>
-    </row>
-    <row r="147" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A147" s="78"/>
+      <c r="C146" s="82"/>
+      <c r="E146" s="80"/>
+      <c r="G146" s="82"/>
+      <c r="I146" s="80"/>
+    </row>
+    <row r="147" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="77"/>
       <c r="B147" s="74"/>
-      <c r="C147" s="83"/>
-      <c r="E147" s="81"/>
-      <c r="G147" s="83"/>
-      <c r="I147" s="81"/>
-    </row>
-    <row r="148" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="78"/>
+      <c r="C147" s="82"/>
+      <c r="E147" s="80"/>
+      <c r="G147" s="82"/>
+      <c r="I147" s="80"/>
+    </row>
+    <row r="148" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="77"/>
       <c r="B148" s="74"/>
-      <c r="C148" s="83"/>
-      <c r="E148" s="81"/>
-      <c r="G148" s="83"/>
-      <c r="I148" s="81"/>
-    </row>
-    <row r="149" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A149" s="78"/>
+      <c r="C148" s="82"/>
+      <c r="E148" s="80"/>
+      <c r="G148" s="82"/>
+      <c r="I148" s="80"/>
+    </row>
+    <row r="149" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="77"/>
       <c r="B149" s="74"/>
-      <c r="C149" s="83"/>
-      <c r="E149" s="81"/>
-      <c r="G149" s="83"/>
-      <c r="I149" s="81"/>
-    </row>
-    <row r="150" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="78"/>
+      <c r="C149" s="82"/>
+      <c r="E149" s="80"/>
+      <c r="G149" s="82"/>
+      <c r="I149" s="80"/>
+    </row>
+    <row r="150" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="77"/>
       <c r="B150" s="74"/>
-      <c r="C150" s="83"/>
-      <c r="E150" s="81"/>
-      <c r="G150" s="83"/>
-      <c r="I150" s="81"/>
-    </row>
-    <row r="151" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A151" s="78"/>
+      <c r="C150" s="82"/>
+      <c r="E150" s="80"/>
+      <c r="G150" s="82"/>
+      <c r="I150" s="80"/>
+    </row>
+    <row r="151" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="77"/>
       <c r="B151" s="74"/>
-      <c r="C151" s="83"/>
-      <c r="E151" s="81"/>
-      <c r="G151" s="83"/>
-      <c r="I151" s="81"/>
-    </row>
-    <row r="152" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A152" s="78"/>
+      <c r="C151" s="82"/>
+      <c r="E151" s="80"/>
+      <c r="G151" s="82"/>
+      <c r="I151" s="80"/>
+    </row>
+    <row r="152" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="77"/>
       <c r="B152" s="74"/>
-      <c r="C152" s="83"/>
-      <c r="E152" s="81"/>
-      <c r="G152" s="83"/>
-      <c r="I152" s="81"/>
-    </row>
-    <row r="153" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A153" s="78"/>
+      <c r="C152" s="82"/>
+      <c r="E152" s="80"/>
+      <c r="G152" s="82"/>
+      <c r="I152" s="80"/>
+    </row>
+    <row r="153" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="77"/>
       <c r="B153" s="74"/>
-      <c r="C153" s="83"/>
-      <c r="E153" s="81"/>
-      <c r="G153" s="83"/>
-      <c r="I153" s="81"/>
-    </row>
-    <row r="154" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A154" s="78"/>
+      <c r="C153" s="82"/>
+      <c r="E153" s="80"/>
+      <c r="G153" s="82"/>
+      <c r="I153" s="80"/>
+    </row>
+    <row r="154" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="77"/>
       <c r="B154" s="74"/>
-      <c r="C154" s="83"/>
-      <c r="E154" s="81"/>
-      <c r="G154" s="83"/>
-      <c r="I154" s="81"/>
-    </row>
-    <row r="155" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A155" s="78"/>
+      <c r="C154" s="82"/>
+      <c r="E154" s="80"/>
+      <c r="G154" s="82"/>
+      <c r="I154" s="80"/>
+    </row>
+    <row r="155" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="77"/>
       <c r="B155" s="74"/>
-      <c r="C155" s="83"/>
-      <c r="E155" s="81"/>
-      <c r="G155" s="83"/>
-      <c r="I155" s="81"/>
-    </row>
-    <row r="156" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A156" s="78"/>
+      <c r="C155" s="82"/>
+      <c r="E155" s="80"/>
+      <c r="G155" s="82"/>
+      <c r="I155" s="80"/>
+    </row>
+    <row r="156" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="77"/>
       <c r="B156" s="74"/>
-      <c r="C156" s="83"/>
-      <c r="E156" s="81"/>
-      <c r="G156" s="83"/>
-      <c r="I156" s="81"/>
-    </row>
-    <row r="157" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A157" s="78"/>
+      <c r="C156" s="82"/>
+      <c r="E156" s="80"/>
+      <c r="G156" s="82"/>
+      <c r="I156" s="80"/>
+    </row>
+    <row r="157" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="77"/>
       <c r="B157" s="74"/>
-      <c r="C157" s="83"/>
-      <c r="E157" s="81"/>
-      <c r="G157" s="83"/>
-      <c r="I157" s="81"/>
-    </row>
-    <row r="158" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A158" s="78"/>
+      <c r="C157" s="82"/>
+      <c r="E157" s="80"/>
+      <c r="G157" s="82"/>
+      <c r="I157" s="80"/>
+    </row>
+    <row r="158" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="77"/>
       <c r="B158" s="74"/>
-      <c r="C158" s="83"/>
-      <c r="E158" s="81"/>
-      <c r="G158" s="83"/>
-      <c r="I158" s="81"/>
-    </row>
-    <row r="159" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A159" s="78"/>
+      <c r="C158" s="82"/>
+      <c r="E158" s="80"/>
+      <c r="G158" s="82"/>
+      <c r="I158" s="80"/>
+    </row>
+    <row r="159" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="77"/>
       <c r="B159" s="74"/>
-      <c r="C159" s="83"/>
-      <c r="E159" s="81"/>
-      <c r="G159" s="83"/>
-      <c r="I159" s="81"/>
-    </row>
-    <row r="160" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A160" s="78"/>
+      <c r="C159" s="82"/>
+      <c r="E159" s="80"/>
+      <c r="G159" s="82"/>
+      <c r="I159" s="80"/>
+    </row>
+    <row r="160" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="77"/>
       <c r="B160" s="74"/>
-      <c r="C160" s="83"/>
-      <c r="E160" s="81"/>
-      <c r="G160" s="83"/>
-      <c r="I160" s="81"/>
-    </row>
-    <row r="161" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A161" s="78"/>
+      <c r="C160" s="82"/>
+      <c r="E160" s="80"/>
+      <c r="G160" s="82"/>
+      <c r="I160" s="80"/>
+    </row>
+    <row r="161" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="77"/>
       <c r="B161" s="74"/>
-      <c r="C161" s="83"/>
-      <c r="E161" s="81"/>
-      <c r="G161" s="83"/>
-      <c r="I161" s="81"/>
-    </row>
-    <row r="162" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A162" s="78"/>
+      <c r="C161" s="82"/>
+      <c r="E161" s="80"/>
+      <c r="G161" s="82"/>
+      <c r="I161" s="80"/>
+    </row>
+    <row r="162" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="77"/>
       <c r="B162" s="74"/>
-      <c r="C162" s="83"/>
-      <c r="E162" s="81"/>
-      <c r="G162" s="83"/>
-      <c r="I162" s="81"/>
-    </row>
-    <row r="163" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A163" s="78"/>
+      <c r="C162" s="82"/>
+      <c r="E162" s="80"/>
+      <c r="G162" s="82"/>
+      <c r="I162" s="80"/>
+    </row>
+    <row r="163" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="77"/>
       <c r="B163" s="74"/>
-      <c r="C163" s="83"/>
-      <c r="E163" s="81"/>
-      <c r="G163" s="83"/>
-      <c r="I163" s="81"/>
-    </row>
-    <row r="164" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A164" s="78"/>
+      <c r="C163" s="82"/>
+      <c r="E163" s="80"/>
+      <c r="G163" s="82"/>
+      <c r="I163" s="80"/>
+    </row>
+    <row r="164" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="77"/>
       <c r="B164" s="74"/>
-      <c r="C164" s="83"/>
-      <c r="E164" s="81"/>
-      <c r="G164" s="83"/>
-      <c r="I164" s="81"/>
-    </row>
-    <row r="165" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A165" s="78"/>
+      <c r="C164" s="82"/>
+      <c r="E164" s="80"/>
+      <c r="G164" s="82"/>
+      <c r="I164" s="80"/>
+    </row>
+    <row r="165" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="77"/>
       <c r="B165" s="74"/>
-      <c r="C165" s="83"/>
-      <c r="E165" s="81"/>
-      <c r="G165" s="83"/>
-      <c r="I165" s="81"/>
-    </row>
-    <row r="166" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A166" s="78"/>
+      <c r="C165" s="82"/>
+      <c r="E165" s="80"/>
+      <c r="G165" s="82"/>
+      <c r="I165" s="80"/>
+    </row>
+    <row r="166" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="77"/>
       <c r="B166" s="74"/>
-      <c r="C166" s="83"/>
-      <c r="E166" s="81"/>
-      <c r="G166" s="83"/>
-      <c r="I166" s="81"/>
-    </row>
-    <row r="167" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A167" s="78"/>
+      <c r="C166" s="82"/>
+      <c r="E166" s="80"/>
+      <c r="G166" s="82"/>
+      <c r="I166" s="80"/>
+    </row>
+    <row r="167" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="77"/>
       <c r="B167" s="74"/>
-      <c r="C167" s="83"/>
-      <c r="E167" s="81"/>
-      <c r="G167" s="83"/>
-      <c r="I167" s="81"/>
-    </row>
-    <row r="168" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A168" s="78"/>
+      <c r="C167" s="82"/>
+      <c r="E167" s="80"/>
+      <c r="G167" s="82"/>
+      <c r="I167" s="80"/>
+    </row>
+    <row r="168" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="77"/>
       <c r="B168" s="74"/>
-      <c r="C168" s="83"/>
-      <c r="E168" s="81"/>
-      <c r="G168" s="83"/>
-      <c r="I168" s="81"/>
-    </row>
-    <row r="169" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A169" s="78"/>
+      <c r="C168" s="82"/>
+      <c r="E168" s="80"/>
+      <c r="G168" s="82"/>
+      <c r="I168" s="80"/>
+    </row>
+    <row r="169" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="77"/>
       <c r="B169" s="74"/>
-      <c r="C169" s="83"/>
-      <c r="E169" s="81"/>
-      <c r="G169" s="83"/>
-      <c r="I169" s="81"/>
-    </row>
-    <row r="170" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A170" s="78"/>
+      <c r="C169" s="82"/>
+      <c r="E169" s="80"/>
+      <c r="G169" s="82"/>
+      <c r="I169" s="80"/>
+    </row>
+    <row r="170" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="77"/>
       <c r="B170" s="74"/>
-      <c r="C170" s="83"/>
-      <c r="E170" s="81"/>
-      <c r="G170" s="83"/>
-      <c r="I170" s="81"/>
-    </row>
-    <row r="171" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A171" s="78"/>
+      <c r="C170" s="82"/>
+      <c r="E170" s="80"/>
+      <c r="G170" s="82"/>
+      <c r="I170" s="80"/>
+    </row>
+    <row r="171" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="77"/>
       <c r="B171" s="74"/>
-      <c r="C171" s="83"/>
-      <c r="E171" s="81"/>
-      <c r="G171" s="83"/>
-      <c r="I171" s="81"/>
-    </row>
-    <row r="172" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A172" s="78"/>
+      <c r="C171" s="82"/>
+      <c r="E171" s="80"/>
+      <c r="G171" s="82"/>
+      <c r="I171" s="80"/>
+    </row>
+    <row r="172" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="77"/>
       <c r="B172" s="74"/>
-      <c r="C172" s="83"/>
-      <c r="E172" s="81"/>
-      <c r="G172" s="83"/>
-      <c r="I172" s="81"/>
-    </row>
-    <row r="173" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A173" s="78"/>
+      <c r="C172" s="82"/>
+      <c r="E172" s="80"/>
+      <c r="G172" s="82"/>
+      <c r="I172" s="80"/>
+    </row>
+    <row r="173" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="77"/>
       <c r="B173" s="74"/>
-      <c r="C173" s="83"/>
-      <c r="E173" s="81"/>
-      <c r="G173" s="83"/>
-      <c r="I173" s="81"/>
-    </row>
-    <row r="174" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A174" s="78"/>
+      <c r="C173" s="82"/>
+      <c r="E173" s="80"/>
+      <c r="G173" s="82"/>
+      <c r="I173" s="80"/>
+    </row>
+    <row r="174" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="77"/>
       <c r="B174" s="74"/>
-      <c r="C174" s="83"/>
-      <c r="E174" s="81"/>
-      <c r="G174" s="83"/>
-      <c r="I174" s="81"/>
-    </row>
-    <row r="175" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A175" s="78"/>
+      <c r="C174" s="82"/>
+      <c r="E174" s="80"/>
+      <c r="G174" s="82"/>
+      <c r="I174" s="80"/>
+    </row>
+    <row r="175" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="77"/>
       <c r="B175" s="74"/>
-      <c r="C175" s="83"/>
-      <c r="E175" s="81"/>
-      <c r="G175" s="83"/>
-      <c r="I175" s="81"/>
-    </row>
-    <row r="176" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A176" s="78"/>
+      <c r="C175" s="82"/>
+      <c r="E175" s="80"/>
+      <c r="G175" s="82"/>
+      <c r="I175" s="80"/>
+    </row>
+    <row r="176" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="77"/>
       <c r="B176" s="74"/>
-      <c r="C176" s="83"/>
-      <c r="E176" s="81"/>
-      <c r="G176" s="83"/>
-      <c r="I176" s="81"/>
-    </row>
-    <row r="177" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A177" s="78"/>
+      <c r="C176" s="82"/>
+      <c r="E176" s="80"/>
+      <c r="G176" s="82"/>
+      <c r="I176" s="80"/>
+    </row>
+    <row r="177" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="77"/>
       <c r="B177" s="74"/>
-      <c r="C177" s="83"/>
-      <c r="E177" s="81"/>
-      <c r="G177" s="83"/>
-      <c r="I177" s="81"/>
-    </row>
-    <row r="178" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A178" s="78"/>
+      <c r="C177" s="82"/>
+      <c r="E177" s="80"/>
+      <c r="G177" s="82"/>
+      <c r="I177" s="80"/>
+    </row>
+    <row r="178" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="77"/>
       <c r="B178" s="74"/>
-      <c r="C178" s="83"/>
-      <c r="E178" s="81"/>
-      <c r="G178" s="83"/>
-      <c r="I178" s="81"/>
-    </row>
-    <row r="179" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A179" s="78"/>
+      <c r="C178" s="82"/>
+      <c r="E178" s="80"/>
+      <c r="G178" s="82"/>
+      <c r="I178" s="80"/>
+    </row>
+    <row r="179" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="77"/>
       <c r="B179" s="74"/>
-      <c r="C179" s="83"/>
-      <c r="E179" s="81"/>
-      <c r="G179" s="83"/>
-      <c r="I179" s="81"/>
-    </row>
-    <row r="180" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A180" s="78"/>
+      <c r="C179" s="82"/>
+      <c r="E179" s="80"/>
+      <c r="G179" s="82"/>
+      <c r="I179" s="80"/>
+    </row>
+    <row r="180" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="77"/>
       <c r="B180" s="74"/>
-      <c r="C180" s="83"/>
-      <c r="E180" s="81"/>
-      <c r="G180" s="83"/>
-      <c r="I180" s="81"/>
-    </row>
-    <row r="181" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A181" s="78"/>
+      <c r="C180" s="82"/>
+      <c r="E180" s="80"/>
+      <c r="G180" s="82"/>
+      <c r="I180" s="80"/>
+    </row>
+    <row r="181" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="77"/>
       <c r="B181" s="74"/>
-      <c r="C181" s="83"/>
-      <c r="E181" s="81"/>
-      <c r="G181" s="83"/>
-      <c r="I181" s="81"/>
-    </row>
-    <row r="182" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="78"/>
+      <c r="C181" s="82"/>
+      <c r="E181" s="80"/>
+      <c r="G181" s="82"/>
+      <c r="I181" s="80"/>
+    </row>
+    <row r="182" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="77"/>
       <c r="B182" s="74"/>
-      <c r="C182" s="83"/>
-      <c r="E182" s="81"/>
-      <c r="G182" s="83"/>
-      <c r="I182" s="81"/>
-    </row>
-    <row r="183" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A183" s="78"/>
+      <c r="C182" s="82"/>
+      <c r="E182" s="80"/>
+      <c r="G182" s="82"/>
+      <c r="I182" s="80"/>
+    </row>
+    <row r="183" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="77"/>
       <c r="B183" s="74"/>
-      <c r="C183" s="83"/>
-      <c r="E183" s="81"/>
-      <c r="G183" s="83"/>
-      <c r="I183" s="81"/>
-    </row>
-    <row r="184" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A184" s="78"/>
+      <c r="C183" s="82"/>
+      <c r="E183" s="80"/>
+      <c r="G183" s="82"/>
+      <c r="I183" s="80"/>
+    </row>
+    <row r="184" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="77"/>
       <c r="B184" s="74"/>
-      <c r="C184" s="83"/>
-      <c r="E184" s="81"/>
-      <c r="G184" s="83"/>
-      <c r="I184" s="81"/>
-    </row>
-    <row r="185" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A185" s="78"/>
+      <c r="C184" s="82"/>
+      <c r="E184" s="80"/>
+      <c r="G184" s="82"/>
+      <c r="I184" s="80"/>
+    </row>
+    <row r="185" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="77"/>
       <c r="B185" s="74"/>
-      <c r="C185" s="83"/>
-      <c r="E185" s="81"/>
-      <c r="G185" s="83"/>
-      <c r="I185" s="81"/>
-    </row>
-    <row r="186" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A186" s="78"/>
+      <c r="C185" s="82"/>
+      <c r="E185" s="80"/>
+      <c r="G185" s="82"/>
+      <c r="I185" s="80"/>
+    </row>
+    <row r="186" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="77"/>
       <c r="B186" s="74"/>
-      <c r="C186" s="83"/>
-      <c r="E186" s="81"/>
-      <c r="G186" s="83"/>
-      <c r="I186" s="81"/>
-    </row>
-    <row r="187" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A187" s="78"/>
+      <c r="C186" s="82"/>
+      <c r="E186" s="80"/>
+      <c r="G186" s="82"/>
+      <c r="I186" s="80"/>
+    </row>
+    <row r="187" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="77"/>
       <c r="B187" s="74"/>
-      <c r="C187" s="83"/>
-      <c r="E187" s="81"/>
-      <c r="G187" s="83"/>
-      <c r="I187" s="81"/>
-    </row>
-    <row r="188" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A188" s="78"/>
+      <c r="C187" s="82"/>
+      <c r="E187" s="80"/>
+      <c r="G187" s="82"/>
+      <c r="I187" s="80"/>
+    </row>
+    <row r="188" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="77"/>
       <c r="B188" s="74"/>
-      <c r="C188" s="83"/>
-      <c r="E188" s="81"/>
-      <c r="G188" s="83"/>
-      <c r="I188" s="81"/>
-    </row>
-    <row r="189" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A189" s="78"/>
+      <c r="C188" s="82"/>
+      <c r="E188" s="80"/>
+      <c r="G188" s="82"/>
+      <c r="I188" s="80"/>
+    </row>
+    <row r="189" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="77"/>
       <c r="B189" s="74"/>
-      <c r="C189" s="83"/>
-      <c r="E189" s="81"/>
-      <c r="G189" s="83"/>
-      <c r="I189" s="81"/>
-    </row>
-    <row r="190" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A190" s="78"/>
+      <c r="C189" s="82"/>
+      <c r="E189" s="80"/>
+      <c r="G189" s="82"/>
+      <c r="I189" s="80"/>
+    </row>
+    <row r="190" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="77"/>
       <c r="B190" s="74"/>
-      <c r="C190" s="83"/>
-      <c r="E190" s="81"/>
-      <c r="G190" s="83"/>
-      <c r="I190" s="81"/>
-    </row>
-    <row r="191" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A191" s="78"/>
+      <c r="C190" s="82"/>
+      <c r="E190" s="80"/>
+      <c r="G190" s="82"/>
+      <c r="I190" s="80"/>
+    </row>
+    <row r="191" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="77"/>
       <c r="B191" s="74"/>
-      <c r="C191" s="83"/>
-      <c r="E191" s="81"/>
-      <c r="G191" s="83"/>
-      <c r="I191" s="81"/>
-    </row>
-    <row r="192" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A192" s="78"/>
+      <c r="C191" s="82"/>
+      <c r="E191" s="80"/>
+      <c r="G191" s="82"/>
+      <c r="I191" s="80"/>
+    </row>
+    <row r="192" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="77"/>
       <c r="B192" s="74"/>
-      <c r="C192" s="83"/>
-      <c r="E192" s="81"/>
-      <c r="G192" s="83"/>
-      <c r="I192" s="81"/>
-    </row>
-    <row r="193" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A193" s="78"/>
+      <c r="C192" s="82"/>
+      <c r="E192" s="80"/>
+      <c r="G192" s="82"/>
+      <c r="I192" s="80"/>
+    </row>
+    <row r="193" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="77"/>
       <c r="B193" s="74"/>
-      <c r="C193" s="83"/>
-      <c r="E193" s="81"/>
-      <c r="G193" s="83"/>
-      <c r="I193" s="81"/>
-    </row>
-    <row r="194" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A194" s="78"/>
+      <c r="C193" s="82"/>
+      <c r="E193" s="80"/>
+      <c r="G193" s="82"/>
+      <c r="I193" s="80"/>
+    </row>
+    <row r="194" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="77"/>
       <c r="B194" s="74"/>
-      <c r="C194" s="83"/>
-      <c r="E194" s="81"/>
-      <c r="G194" s="83"/>
-      <c r="I194" s="81"/>
-    </row>
-    <row r="195" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A195" s="78"/>
+      <c r="C194" s="82"/>
+      <c r="E194" s="80"/>
+      <c r="G194" s="82"/>
+      <c r="I194" s="80"/>
+    </row>
+    <row r="195" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="77"/>
       <c r="B195" s="74"/>
-      <c r="C195" s="83"/>
-      <c r="E195" s="81"/>
-      <c r="G195" s="83"/>
-      <c r="I195" s="81"/>
-    </row>
-    <row r="196" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A196" s="78"/>
+      <c r="C195" s="82"/>
+      <c r="E195" s="80"/>
+      <c r="G195" s="82"/>
+      <c r="I195" s="80"/>
+    </row>
+    <row r="196" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="77"/>
       <c r="B196" s="74"/>
-      <c r="C196" s="83"/>
-      <c r="E196" s="81"/>
-      <c r="G196" s="83"/>
-      <c r="I196" s="81"/>
-    </row>
-    <row r="197" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A197" s="78"/>
+      <c r="C196" s="82"/>
+      <c r="E196" s="80"/>
+      <c r="G196" s="82"/>
+      <c r="I196" s="80"/>
+    </row>
+    <row r="197" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="77"/>
       <c r="B197" s="74"/>
-      <c r="C197" s="83"/>
-      <c r="E197" s="81"/>
-      <c r="G197" s="83"/>
-      <c r="I197" s="81"/>
-    </row>
-    <row r="198" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="78"/>
+      <c r="C197" s="82"/>
+      <c r="E197" s="80"/>
+      <c r="G197" s="82"/>
+      <c r="I197" s="80"/>
+    </row>
+    <row r="198" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="77"/>
       <c r="B198" s="74"/>
-      <c r="C198" s="83"/>
-      <c r="E198" s="81"/>
-      <c r="G198" s="83"/>
-      <c r="I198" s="81"/>
-    </row>
-    <row r="199" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A199" s="78"/>
+      <c r="C198" s="82"/>
+      <c r="E198" s="80"/>
+      <c r="G198" s="82"/>
+      <c r="I198" s="80"/>
+    </row>
+    <row r="199" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="77"/>
       <c r="B199" s="74"/>
-      <c r="C199" s="83"/>
-      <c r="E199" s="81"/>
-      <c r="G199" s="83"/>
-      <c r="I199" s="81"/>
-    </row>
-    <row r="200" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A200" s="78"/>
+      <c r="C199" s="82"/>
+      <c r="E199" s="80"/>
+      <c r="G199" s="82"/>
+      <c r="I199" s="80"/>
+    </row>
+    <row r="200" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="77"/>
       <c r="B200" s="74"/>
-      <c r="C200" s="83"/>
-      <c r="E200" s="81"/>
-      <c r="G200" s="83"/>
-      <c r="I200" s="81"/>
-    </row>
-    <row r="201" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A201" s="78"/>
+      <c r="C200" s="82"/>
+      <c r="E200" s="80"/>
+      <c r="G200" s="82"/>
+      <c r="I200" s="80"/>
+    </row>
+    <row r="201" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="77"/>
       <c r="B201" s="74"/>
-      <c r="C201" s="83"/>
-      <c r="E201" s="81"/>
-      <c r="G201" s="83"/>
-      <c r="I201" s="81"/>
-    </row>
-    <row r="202" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A202" s="78"/>
+      <c r="C201" s="82"/>
+      <c r="E201" s="80"/>
+      <c r="G201" s="82"/>
+      <c r="I201" s="80"/>
+    </row>
+    <row r="202" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="77"/>
       <c r="B202" s="74"/>
-      <c r="C202" s="83"/>
-      <c r="E202" s="81"/>
-      <c r="G202" s="83"/>
-      <c r="I202" s="81"/>
-    </row>
-    <row r="203" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A203" s="78"/>
+      <c r="C202" s="82"/>
+      <c r="E202" s="80"/>
+      <c r="G202" s="82"/>
+      <c r="I202" s="80"/>
+    </row>
+    <row r="203" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="77"/>
       <c r="B203" s="74"/>
-      <c r="C203" s="83"/>
-      <c r="E203" s="81"/>
-      <c r="G203" s="83"/>
-      <c r="I203" s="81"/>
-    </row>
-    <row r="204" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A204" s="78"/>
+      <c r="C203" s="82"/>
+      <c r="E203" s="80"/>
+      <c r="G203" s="82"/>
+      <c r="I203" s="80"/>
+    </row>
+    <row r="204" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="77"/>
       <c r="B204" s="74"/>
-      <c r="C204" s="83"/>
-      <c r="E204" s="81"/>
-      <c r="G204" s="83"/>
-      <c r="I204" s="81"/>
-    </row>
-    <row r="205" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A205" s="78"/>
+      <c r="C204" s="82"/>
+      <c r="E204" s="80"/>
+      <c r="G204" s="82"/>
+      <c r="I204" s="80"/>
+    </row>
+    <row r="205" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="77"/>
       <c r="B205" s="74"/>
-      <c r="C205" s="83"/>
-      <c r="E205" s="81"/>
-      <c r="G205" s="83"/>
-      <c r="I205" s="81"/>
-    </row>
-    <row r="206" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A206" s="78"/>
+      <c r="C205" s="82"/>
+      <c r="E205" s="80"/>
+      <c r="G205" s="82"/>
+      <c r="I205" s="80"/>
+    </row>
+    <row r="206" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="77"/>
       <c r="B206" s="74"/>
-      <c r="C206" s="83"/>
-      <c r="E206" s="81"/>
-      <c r="G206" s="83"/>
-      <c r="I206" s="81"/>
-    </row>
-    <row r="207" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A207" s="78"/>
+      <c r="C206" s="82"/>
+      <c r="E206" s="80"/>
+      <c r="G206" s="82"/>
+      <c r="I206" s="80"/>
+    </row>
+    <row r="207" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="77"/>
       <c r="B207" s="74"/>
-      <c r="C207" s="83"/>
-      <c r="E207" s="81"/>
-      <c r="G207" s="83"/>
-      <c r="I207" s="81"/>
-    </row>
-    <row r="208" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A208" s="78"/>
+      <c r="C207" s="82"/>
+      <c r="E207" s="80"/>
+      <c r="G207" s="82"/>
+      <c r="I207" s="80"/>
+    </row>
+    <row r="208" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="77"/>
       <c r="B208" s="74"/>
-      <c r="C208" s="83"/>
-      <c r="E208" s="81"/>
-      <c r="G208" s="83"/>
-      <c r="I208" s="81"/>
-    </row>
-    <row r="209" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A209" s="78"/>
+      <c r="C208" s="82"/>
+      <c r="E208" s="80"/>
+      <c r="G208" s="82"/>
+      <c r="I208" s="80"/>
+    </row>
+    <row r="209" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="77"/>
       <c r="B209" s="74"/>
-      <c r="C209" s="83"/>
-      <c r="E209" s="81"/>
-      <c r="G209" s="83"/>
-      <c r="I209" s="81"/>
-    </row>
-    <row r="210" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A210" s="78"/>
+      <c r="C209" s="82"/>
+      <c r="E209" s="80"/>
+      <c r="G209" s="82"/>
+      <c r="I209" s="80"/>
+    </row>
+    <row r="210" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="77"/>
       <c r="B210" s="74"/>
-      <c r="C210" s="83"/>
-      <c r="E210" s="81"/>
-      <c r="G210" s="83"/>
-      <c r="I210" s="81"/>
-    </row>
-    <row r="211" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A211" s="78"/>
+      <c r="C210" s="82"/>
+      <c r="E210" s="80"/>
+      <c r="G210" s="82"/>
+      <c r="I210" s="80"/>
+    </row>
+    <row r="211" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="77"/>
       <c r="B211" s="74"/>
-      <c r="C211" s="83"/>
-      <c r="E211" s="81"/>
-      <c r="G211" s="83"/>
-      <c r="I211" s="81"/>
-    </row>
-    <row r="212" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A212" s="78"/>
+      <c r="C211" s="82"/>
+      <c r="E211" s="80"/>
+      <c r="G211" s="82"/>
+      <c r="I211" s="80"/>
+    </row>
+    <row r="212" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="77"/>
       <c r="B212" s="74"/>
-      <c r="C212" s="83"/>
-      <c r="E212" s="81"/>
-      <c r="G212" s="83"/>
-      <c r="I212" s="81"/>
-    </row>
-    <row r="213" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A213" s="78"/>
+      <c r="C212" s="82"/>
+      <c r="E212" s="80"/>
+      <c r="G212" s="82"/>
+      <c r="I212" s="80"/>
+    </row>
+    <row r="213" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="77"/>
       <c r="B213" s="74"/>
-      <c r="C213" s="83"/>
-      <c r="E213" s="81"/>
-      <c r="G213" s="83"/>
-      <c r="I213" s="81"/>
-    </row>
-    <row r="214" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A214" s="78"/>
+      <c r="C213" s="82"/>
+      <c r="E213" s="80"/>
+      <c r="G213" s="82"/>
+      <c r="I213" s="80"/>
+    </row>
+    <row r="214" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="77"/>
       <c r="B214" s="74"/>
-      <c r="C214" s="83"/>
-      <c r="E214" s="81"/>
-      <c r="G214" s="83"/>
-      <c r="I214" s="81"/>
-    </row>
-    <row r="215" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A215" s="78"/>
+      <c r="C214" s="82"/>
+      <c r="E214" s="80"/>
+      <c r="G214" s="82"/>
+      <c r="I214" s="80"/>
+    </row>
+    <row r="215" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="77"/>
       <c r="B215" s="74"/>
-      <c r="C215" s="83"/>
-      <c r="E215" s="81"/>
-      <c r="G215" s="83"/>
-      <c r="I215" s="81"/>
-    </row>
-    <row r="216" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A216" s="78"/>
+      <c r="C215" s="82"/>
+      <c r="E215" s="80"/>
+      <c r="G215" s="82"/>
+      <c r="I215" s="80"/>
+    </row>
+    <row r="216" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="77"/>
       <c r="B216" s="74"/>
-      <c r="C216" s="83"/>
-      <c r="E216" s="81"/>
-      <c r="G216" s="83"/>
-      <c r="I216" s="81"/>
-    </row>
-    <row r="217" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A217" s="78"/>
+      <c r="C216" s="82"/>
+      <c r="E216" s="80"/>
+      <c r="G216" s="82"/>
+      <c r="I216" s="80"/>
+    </row>
+    <row r="217" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="77"/>
       <c r="B217" s="74"/>
-      <c r="C217" s="83"/>
-      <c r="E217" s="81"/>
-      <c r="G217" s="83"/>
-      <c r="I217" s="81"/>
-    </row>
-    <row r="218" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A218" s="78"/>
+      <c r="C217" s="82"/>
+      <c r="E217" s="80"/>
+      <c r="G217" s="82"/>
+      <c r="I217" s="80"/>
+    </row>
+    <row r="218" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="77"/>
       <c r="B218" s="74"/>
-      <c r="C218" s="83"/>
-      <c r="E218" s="81"/>
-      <c r="G218" s="83"/>
-      <c r="I218" s="81"/>
-    </row>
-    <row r="219" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A219" s="78"/>
+      <c r="C218" s="82"/>
+      <c r="E218" s="80"/>
+      <c r="G218" s="82"/>
+      <c r="I218" s="80"/>
+    </row>
+    <row r="219" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="77"/>
       <c r="B219" s="74"/>
-      <c r="C219" s="83"/>
-      <c r="E219" s="81"/>
-      <c r="G219" s="83"/>
-      <c r="I219" s="81"/>
-    </row>
-    <row r="220" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A220" s="78"/>
+      <c r="C219" s="82"/>
+      <c r="E219" s="80"/>
+      <c r="G219" s="82"/>
+      <c r="I219" s="80"/>
+    </row>
+    <row r="220" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="77"/>
       <c r="B220" s="74"/>
-      <c r="C220" s="83"/>
-      <c r="E220" s="81"/>
-      <c r="G220" s="83"/>
-      <c r="I220" s="81"/>
-    </row>
-    <row r="221" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A221" s="78"/>
+      <c r="C220" s="82"/>
+      <c r="E220" s="80"/>
+      <c r="G220" s="82"/>
+      <c r="I220" s="80"/>
+    </row>
+    <row r="221" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="77"/>
       <c r="B221" s="74"/>
-      <c r="C221" s="83"/>
-      <c r="E221" s="81"/>
-      <c r="G221" s="83"/>
-      <c r="I221" s="81"/>
-    </row>
-    <row r="222" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A222" s="78"/>
+      <c r="C221" s="82"/>
+      <c r="E221" s="80"/>
+      <c r="G221" s="82"/>
+      <c r="I221" s="80"/>
+    </row>
+    <row r="222" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="77"/>
       <c r="B222" s="74"/>
-      <c r="C222" s="83"/>
-      <c r="E222" s="81"/>
-      <c r="G222" s="83"/>
-      <c r="I222" s="81"/>
-    </row>
-    <row r="223" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A223" s="78"/>
+      <c r="C222" s="82"/>
+      <c r="E222" s="80"/>
+      <c r="G222" s="82"/>
+      <c r="I222" s="80"/>
+    </row>
+    <row r="223" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="77"/>
       <c r="B223" s="74"/>
-      <c r="C223" s="83"/>
-      <c r="E223" s="81"/>
-      <c r="G223" s="83"/>
-      <c r="I223" s="81"/>
-    </row>
-    <row r="224" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A224" s="78"/>
+      <c r="C223" s="82"/>
+      <c r="E223" s="80"/>
+      <c r="G223" s="82"/>
+      <c r="I223" s="80"/>
+    </row>
+    <row r="224" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="77"/>
       <c r="B224" s="74"/>
-      <c r="C224" s="83"/>
-      <c r="E224" s="81"/>
-      <c r="G224" s="83"/>
-      <c r="I224" s="81"/>
-    </row>
-    <row r="225" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A225" s="78"/>
+      <c r="C224" s="82"/>
+      <c r="E224" s="80"/>
+      <c r="G224" s="82"/>
+      <c r="I224" s="80"/>
+    </row>
+    <row r="225" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="77"/>
       <c r="B225" s="74"/>
-      <c r="C225" s="83"/>
-      <c r="E225" s="81"/>
-      <c r="G225" s="83"/>
-      <c r="I225" s="81"/>
-    </row>
-    <row r="226" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A226" s="78"/>
+      <c r="C225" s="82"/>
+      <c r="E225" s="80"/>
+      <c r="G225" s="82"/>
+      <c r="I225" s="80"/>
+    </row>
+    <row r="226" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="77"/>
       <c r="B226" s="74"/>
-      <c r="C226" s="83"/>
-      <c r="E226" s="81"/>
-      <c r="G226" s="83"/>
-      <c r="I226" s="81"/>
-    </row>
-    <row r="227" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A227" s="78"/>
+      <c r="C226" s="82"/>
+      <c r="E226" s="80"/>
+      <c r="G226" s="82"/>
+      <c r="I226" s="80"/>
+    </row>
+    <row r="227" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="77"/>
       <c r="B227" s="74"/>
-      <c r="C227" s="83"/>
-      <c r="E227" s="81"/>
-      <c r="G227" s="83"/>
-      <c r="I227" s="81"/>
-    </row>
-    <row r="228" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A228" s="78"/>
+      <c r="C227" s="82"/>
+      <c r="E227" s="80"/>
+      <c r="G227" s="82"/>
+      <c r="I227" s="80"/>
+    </row>
+    <row r="228" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="77"/>
       <c r="B228" s="74"/>
-      <c r="C228" s="83"/>
-      <c r="E228" s="81"/>
-      <c r="G228" s="83"/>
-      <c r="I228" s="81"/>
-    </row>
-    <row r="229" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A229" s="78"/>
+      <c r="C228" s="82"/>
+      <c r="E228" s="80"/>
+      <c r="G228" s="82"/>
+      <c r="I228" s="80"/>
+    </row>
+    <row r="229" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="77"/>
       <c r="B229" s="74"/>
-      <c r="C229" s="83"/>
-      <c r="E229" s="81"/>
-      <c r="G229" s="83"/>
-      <c r="I229" s="81"/>
-    </row>
-    <row r="230" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A230" s="78"/>
+      <c r="C229" s="82"/>
+      <c r="E229" s="80"/>
+      <c r="G229" s="82"/>
+      <c r="I229" s="80"/>
+    </row>
+    <row r="230" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="77"/>
       <c r="B230" s="74"/>
-      <c r="C230" s="83"/>
-      <c r="E230" s="81"/>
-      <c r="G230" s="83"/>
-      <c r="I230" s="81"/>
-    </row>
-    <row r="231" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A231" s="78"/>
+      <c r="C230" s="82"/>
+      <c r="E230" s="80"/>
+      <c r="G230" s="82"/>
+      <c r="I230" s="80"/>
+    </row>
+    <row r="231" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="77"/>
       <c r="B231" s="74"/>
-      <c r="C231" s="83"/>
-      <c r="E231" s="81"/>
-      <c r="G231" s="83"/>
-      <c r="I231" s="81"/>
-    </row>
-    <row r="232" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A232" s="78"/>
+      <c r="C231" s="82"/>
+      <c r="E231" s="80"/>
+      <c r="G231" s="82"/>
+      <c r="I231" s="80"/>
+    </row>
+    <row r="232" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="77"/>
       <c r="B232" s="74"/>
-      <c r="C232" s="83"/>
-      <c r="E232" s="81"/>
-      <c r="G232" s="83"/>
-      <c r="I232" s="81"/>
-    </row>
-    <row r="233" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A233" s="78"/>
+      <c r="C232" s="82"/>
+      <c r="E232" s="80"/>
+      <c r="G232" s="82"/>
+      <c r="I232" s="80"/>
+    </row>
+    <row r="233" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="77"/>
       <c r="B233" s="74"/>
-      <c r="C233" s="83"/>
-      <c r="E233" s="81"/>
-      <c r="G233" s="83"/>
-      <c r="I233" s="81"/>
-    </row>
-    <row r="234" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A234" s="78"/>
+      <c r="C233" s="82"/>
+      <c r="E233" s="80"/>
+      <c r="G233" s="82"/>
+      <c r="I233" s="80"/>
+    </row>
+    <row r="234" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="77"/>
       <c r="B234" s="74"/>
-      <c r="C234" s="83"/>
-      <c r="E234" s="81"/>
-      <c r="G234" s="83"/>
-      <c r="I234" s="81"/>
-    </row>
-    <row r="235" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A235" s="78"/>
+      <c r="C234" s="82"/>
+      <c r="E234" s="80"/>
+      <c r="G234" s="82"/>
+      <c r="I234" s="80"/>
+    </row>
+    <row r="235" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="77"/>
       <c r="B235" s="74"/>
-      <c r="C235" s="83"/>
-      <c r="E235" s="81"/>
-      <c r="G235" s="83"/>
-      <c r="I235" s="81"/>
-    </row>
-    <row r="236" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A236" s="78"/>
+      <c r="C235" s="82"/>
+      <c r="E235" s="80"/>
+      <c r="G235" s="82"/>
+      <c r="I235" s="80"/>
+    </row>
+    <row r="236" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="77"/>
       <c r="B236" s="74"/>
-      <c r="C236" s="83"/>
-      <c r="E236" s="81"/>
-      <c r="G236" s="83"/>
-      <c r="I236" s="81"/>
-    </row>
-    <row r="237" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A237" s="78"/>
+      <c r="C236" s="82"/>
+      <c r="E236" s="80"/>
+      <c r="G236" s="82"/>
+      <c r="I236" s="80"/>
+    </row>
+    <row r="237" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="77"/>
       <c r="B237" s="74"/>
-      <c r="C237" s="83"/>
-      <c r="E237" s="81"/>
-      <c r="G237" s="83"/>
-      <c r="I237" s="81"/>
-    </row>
-    <row r="238" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A238" s="78"/>
+      <c r="C237" s="82"/>
+      <c r="E237" s="80"/>
+      <c r="G237" s="82"/>
+      <c r="I237" s="80"/>
+    </row>
+    <row r="238" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="77"/>
       <c r="B238" s="74"/>
-      <c r="C238" s="83"/>
-      <c r="E238" s="81"/>
-      <c r="G238" s="83"/>
-      <c r="I238" s="81"/>
-    </row>
-    <row r="239" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A239" s="78"/>
+      <c r="C238" s="82"/>
+      <c r="E238" s="80"/>
+      <c r="G238" s="82"/>
+      <c r="I238" s="80"/>
+    </row>
+    <row r="239" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="77"/>
       <c r="B239" s="74"/>
-      <c r="C239" s="83"/>
-      <c r="E239" s="81"/>
-      <c r="G239" s="83"/>
-      <c r="I239" s="81"/>
-    </row>
-    <row r="240" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A240" s="78"/>
+      <c r="C239" s="82"/>
+      <c r="E239" s="80"/>
+      <c r="G239" s="82"/>
+      <c r="I239" s="80"/>
+    </row>
+    <row r="240" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="77"/>
       <c r="B240" s="74"/>
-      <c r="C240" s="83"/>
-      <c r="E240" s="81"/>
-      <c r="G240" s="83"/>
-      <c r="I240" s="81"/>
-    </row>
-    <row r="241" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A241" s="78"/>
+      <c r="C240" s="82"/>
+      <c r="E240" s="80"/>
+      <c r="G240" s="82"/>
+      <c r="I240" s="80"/>
+    </row>
+    <row r="241" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="77"/>
       <c r="B241" s="74"/>
-      <c r="C241" s="83"/>
-      <c r="E241" s="81"/>
-      <c r="G241" s="83"/>
-      <c r="I241" s="81"/>
-    </row>
-    <row r="242" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A242" s="78"/>
+      <c r="C241" s="82"/>
+      <c r="E241" s="80"/>
+      <c r="G241" s="82"/>
+      <c r="I241" s="80"/>
+    </row>
+    <row r="242" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="77"/>
       <c r="B242" s="74"/>
-      <c r="C242" s="83"/>
-      <c r="E242" s="81"/>
-      <c r="G242" s="83"/>
-      <c r="I242" s="81"/>
-    </row>
-    <row r="243" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A243" s="78"/>
+      <c r="C242" s="82"/>
+      <c r="E242" s="80"/>
+      <c r="G242" s="82"/>
+      <c r="I242" s="80"/>
+    </row>
+    <row r="243" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="77"/>
       <c r="B243" s="74"/>
-      <c r="C243" s="83"/>
-      <c r="E243" s="81"/>
-      <c r="G243" s="83"/>
-      <c r="I243" s="81"/>
-    </row>
-    <row r="244" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A244" s="78"/>
+      <c r="C243" s="82"/>
+      <c r="E243" s="80"/>
+      <c r="G243" s="82"/>
+      <c r="I243" s="80"/>
+    </row>
+    <row r="244" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="77"/>
       <c r="B244" s="74"/>
-      <c r="C244" s="83"/>
-      <c r="E244" s="81"/>
-      <c r="G244" s="83"/>
-      <c r="I244" s="81"/>
-    </row>
-    <row r="245" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A245" s="78"/>
+      <c r="C244" s="82"/>
+      <c r="E244" s="80"/>
+      <c r="G244" s="82"/>
+      <c r="I244" s="80"/>
+    </row>
+    <row r="245" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="77"/>
       <c r="B245" s="74"/>
-      <c r="C245" s="83"/>
-      <c r="E245" s="81"/>
-      <c r="G245" s="83"/>
-      <c r="I245" s="81"/>
-    </row>
-    <row r="246" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A246" s="78"/>
+      <c r="C245" s="82"/>
+      <c r="E245" s="80"/>
+      <c r="G245" s="82"/>
+      <c r="I245" s="80"/>
+    </row>
+    <row r="246" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="77"/>
       <c r="B246" s="74"/>
-      <c r="C246" s="83"/>
-      <c r="E246" s="81"/>
-      <c r="G246" s="83"/>
-      <c r="I246" s="81"/>
-    </row>
-    <row r="247" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A247" s="78"/>
+      <c r="C246" s="82"/>
+      <c r="E246" s="80"/>
+      <c r="G246" s="82"/>
+      <c r="I246" s="80"/>
+    </row>
+    <row r="247" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="77"/>
       <c r="B247" s="74"/>
-      <c r="C247" s="83"/>
-      <c r="E247" s="81"/>
-      <c r="G247" s="83"/>
-      <c r="I247" s="81"/>
-    </row>
-    <row r="248" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A248" s="78"/>
+      <c r="C247" s="82"/>
+      <c r="E247" s="80"/>
+      <c r="G247" s="82"/>
+      <c r="I247" s="80"/>
+    </row>
+    <row r="248" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="77"/>
       <c r="B248" s="74"/>
-      <c r="C248" s="83"/>
-      <c r="E248" s="81"/>
-      <c r="G248" s="83"/>
-      <c r="I248" s="81"/>
-    </row>
-    <row r="249" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A249" s="78"/>
+      <c r="C248" s="82"/>
+      <c r="E248" s="80"/>
+      <c r="G248" s="82"/>
+      <c r="I248" s="80"/>
+    </row>
+    <row r="249" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="77"/>
       <c r="B249" s="74"/>
-      <c r="C249" s="83"/>
-      <c r="E249" s="81"/>
-      <c r="G249" s="83"/>
-      <c r="I249" s="81"/>
-    </row>
-    <row r="250" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A250" s="78"/>
+      <c r="C249" s="82"/>
+      <c r="E249" s="80"/>
+      <c r="G249" s="82"/>
+      <c r="I249" s="80"/>
+    </row>
+    <row r="250" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="77"/>
       <c r="B250" s="74"/>
-      <c r="C250" s="83"/>
-      <c r="E250" s="81"/>
-      <c r="G250" s="83"/>
-      <c r="I250" s="81"/>
-    </row>
-    <row r="251" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A251" s="78"/>
+      <c r="C250" s="82"/>
+      <c r="E250" s="80"/>
+      <c r="G250" s="82"/>
+      <c r="I250" s="80"/>
+    </row>
+    <row r="251" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="77"/>
       <c r="B251" s="74"/>
-      <c r="C251" s="83"/>
-      <c r="E251" s="81"/>
-      <c r="G251" s="83"/>
-      <c r="I251" s="81"/>
-    </row>
-    <row r="252" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A252" s="78"/>
+      <c r="C251" s="82"/>
+      <c r="E251" s="80"/>
+      <c r="G251" s="82"/>
+      <c r="I251" s="80"/>
+    </row>
+    <row r="252" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="77"/>
       <c r="B252" s="74"/>
-      <c r="C252" s="83"/>
-      <c r="E252" s="81"/>
-      <c r="G252" s="83"/>
-      <c r="I252" s="81"/>
+      <c r="C252" s="82"/>
+      <c r="E252" s="80"/>
+      <c r="G252" s="82"/>
+      <c r="I252" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3334,1181 +3379,1181 @@
   <dimension ref="A1:Q139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R89" sqref="R89"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.265625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="3.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="3.73046875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="3" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="4" style="2" customWidth="1"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
     <col min="10" max="10" width="4" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.3984375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.73046875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="2.86328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3.1328125" style="66" customWidth="1"/>
-    <col min="15" max="15" width="12.265625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.1328125" style="2"/>
-    <col min="17" max="17" width="42.1328125" style="2" customWidth="1"/>
-    <col min="18" max="256" width="9.1328125" style="2"/>
-    <col min="257" max="257" width="30.1328125" style="2" customWidth="1"/>
-    <col min="258" max="258" width="3.265625" style="2" customWidth="1"/>
-    <col min="259" max="259" width="3.59765625" style="2" customWidth="1"/>
-    <col min="260" max="260" width="3.73046875" style="2" customWidth="1"/>
-    <col min="261" max="261" width="3.86328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="66" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="42.140625" style="2" customWidth="1"/>
+    <col min="18" max="256" width="9.140625" style="2"/>
+    <col min="257" max="257" width="30.140625" style="2" customWidth="1"/>
+    <col min="258" max="258" width="3.28515625" style="2" customWidth="1"/>
+    <col min="259" max="259" width="3.5703125" style="2" customWidth="1"/>
+    <col min="260" max="260" width="3.7109375" style="2" customWidth="1"/>
+    <col min="261" max="261" width="3.85546875" style="2" customWidth="1"/>
     <col min="262" max="262" width="3" style="2" customWidth="1"/>
-    <col min="263" max="263" width="3.59765625" style="2" customWidth="1"/>
+    <col min="263" max="263" width="3.5703125" style="2" customWidth="1"/>
     <col min="264" max="264" width="4" style="2" customWidth="1"/>
     <col min="265" max="265" width="3" style="2" customWidth="1"/>
     <col min="266" max="266" width="4" style="2" customWidth="1"/>
-    <col min="267" max="267" width="3.3984375" style="2" customWidth="1"/>
-    <col min="268" max="268" width="3.73046875" style="2" customWidth="1"/>
-    <col min="269" max="269" width="2.86328125" style="2" customWidth="1"/>
-    <col min="270" max="270" width="3.1328125" style="2" customWidth="1"/>
-    <col min="271" max="271" width="12.265625" style="2" customWidth="1"/>
-    <col min="272" max="272" width="9.1328125" style="2"/>
-    <col min="273" max="273" width="42.1328125" style="2" customWidth="1"/>
-    <col min="274" max="512" width="9.1328125" style="2"/>
-    <col min="513" max="513" width="30.1328125" style="2" customWidth="1"/>
-    <col min="514" max="514" width="3.265625" style="2" customWidth="1"/>
-    <col min="515" max="515" width="3.59765625" style="2" customWidth="1"/>
-    <col min="516" max="516" width="3.73046875" style="2" customWidth="1"/>
-    <col min="517" max="517" width="3.86328125" style="2" customWidth="1"/>
+    <col min="267" max="267" width="3.42578125" style="2" customWidth="1"/>
+    <col min="268" max="268" width="3.7109375" style="2" customWidth="1"/>
+    <col min="269" max="269" width="2.85546875" style="2" customWidth="1"/>
+    <col min="270" max="270" width="3.140625" style="2" customWidth="1"/>
+    <col min="271" max="271" width="12.28515625" style="2" customWidth="1"/>
+    <col min="272" max="272" width="9.140625" style="2"/>
+    <col min="273" max="273" width="42.140625" style="2" customWidth="1"/>
+    <col min="274" max="512" width="9.140625" style="2"/>
+    <col min="513" max="513" width="30.140625" style="2" customWidth="1"/>
+    <col min="514" max="514" width="3.28515625" style="2" customWidth="1"/>
+    <col min="515" max="515" width="3.5703125" style="2" customWidth="1"/>
+    <col min="516" max="516" width="3.7109375" style="2" customWidth="1"/>
+    <col min="517" max="517" width="3.85546875" style="2" customWidth="1"/>
     <col min="518" max="518" width="3" style="2" customWidth="1"/>
-    <col min="519" max="519" width="3.59765625" style="2" customWidth="1"/>
+    <col min="519" max="519" width="3.5703125" style="2" customWidth="1"/>
     <col min="520" max="520" width="4" style="2" customWidth="1"/>
     <col min="521" max="521" width="3" style="2" customWidth="1"/>
     <col min="522" max="522" width="4" style="2" customWidth="1"/>
-    <col min="523" max="523" width="3.3984375" style="2" customWidth="1"/>
-    <col min="524" max="524" width="3.73046875" style="2" customWidth="1"/>
-    <col min="525" max="525" width="2.86328125" style="2" customWidth="1"/>
-    <col min="526" max="526" width="3.1328125" style="2" customWidth="1"/>
-    <col min="527" max="527" width="12.265625" style="2" customWidth="1"/>
-    <col min="528" max="528" width="9.1328125" style="2"/>
-    <col min="529" max="529" width="42.1328125" style="2" customWidth="1"/>
-    <col min="530" max="768" width="9.1328125" style="2"/>
-    <col min="769" max="769" width="30.1328125" style="2" customWidth="1"/>
-    <col min="770" max="770" width="3.265625" style="2" customWidth="1"/>
-    <col min="771" max="771" width="3.59765625" style="2" customWidth="1"/>
-    <col min="772" max="772" width="3.73046875" style="2" customWidth="1"/>
-    <col min="773" max="773" width="3.86328125" style="2" customWidth="1"/>
+    <col min="523" max="523" width="3.42578125" style="2" customWidth="1"/>
+    <col min="524" max="524" width="3.7109375" style="2" customWidth="1"/>
+    <col min="525" max="525" width="2.85546875" style="2" customWidth="1"/>
+    <col min="526" max="526" width="3.140625" style="2" customWidth="1"/>
+    <col min="527" max="527" width="12.28515625" style="2" customWidth="1"/>
+    <col min="528" max="528" width="9.140625" style="2"/>
+    <col min="529" max="529" width="42.140625" style="2" customWidth="1"/>
+    <col min="530" max="768" width="9.140625" style="2"/>
+    <col min="769" max="769" width="30.140625" style="2" customWidth="1"/>
+    <col min="770" max="770" width="3.28515625" style="2" customWidth="1"/>
+    <col min="771" max="771" width="3.5703125" style="2" customWidth="1"/>
+    <col min="772" max="772" width="3.7109375" style="2" customWidth="1"/>
+    <col min="773" max="773" width="3.85546875" style="2" customWidth="1"/>
     <col min="774" max="774" width="3" style="2" customWidth="1"/>
-    <col min="775" max="775" width="3.59765625" style="2" customWidth="1"/>
+    <col min="775" max="775" width="3.5703125" style="2" customWidth="1"/>
     <col min="776" max="776" width="4" style="2" customWidth="1"/>
     <col min="777" max="777" width="3" style="2" customWidth="1"/>
     <col min="778" max="778" width="4" style="2" customWidth="1"/>
-    <col min="779" max="779" width="3.3984375" style="2" customWidth="1"/>
-    <col min="780" max="780" width="3.73046875" style="2" customWidth="1"/>
-    <col min="781" max="781" width="2.86328125" style="2" customWidth="1"/>
-    <col min="782" max="782" width="3.1328125" style="2" customWidth="1"/>
-    <col min="783" max="783" width="12.265625" style="2" customWidth="1"/>
-    <col min="784" max="784" width="9.1328125" style="2"/>
-    <col min="785" max="785" width="42.1328125" style="2" customWidth="1"/>
-    <col min="786" max="1024" width="9.1328125" style="2"/>
-    <col min="1025" max="1025" width="30.1328125" style="2" customWidth="1"/>
-    <col min="1026" max="1026" width="3.265625" style="2" customWidth="1"/>
-    <col min="1027" max="1027" width="3.59765625" style="2" customWidth="1"/>
-    <col min="1028" max="1028" width="3.73046875" style="2" customWidth="1"/>
-    <col min="1029" max="1029" width="3.86328125" style="2" customWidth="1"/>
+    <col min="779" max="779" width="3.42578125" style="2" customWidth="1"/>
+    <col min="780" max="780" width="3.7109375" style="2" customWidth="1"/>
+    <col min="781" max="781" width="2.85546875" style="2" customWidth="1"/>
+    <col min="782" max="782" width="3.140625" style="2" customWidth="1"/>
+    <col min="783" max="783" width="12.28515625" style="2" customWidth="1"/>
+    <col min="784" max="784" width="9.140625" style="2"/>
+    <col min="785" max="785" width="42.140625" style="2" customWidth="1"/>
+    <col min="786" max="1024" width="9.140625" style="2"/>
+    <col min="1025" max="1025" width="30.140625" style="2" customWidth="1"/>
+    <col min="1026" max="1026" width="3.28515625" style="2" customWidth="1"/>
+    <col min="1027" max="1027" width="3.5703125" style="2" customWidth="1"/>
+    <col min="1028" max="1028" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1029" max="1029" width="3.85546875" style="2" customWidth="1"/>
     <col min="1030" max="1030" width="3" style="2" customWidth="1"/>
-    <col min="1031" max="1031" width="3.59765625" style="2" customWidth="1"/>
+    <col min="1031" max="1031" width="3.5703125" style="2" customWidth="1"/>
     <col min="1032" max="1032" width="4" style="2" customWidth="1"/>
     <col min="1033" max="1033" width="3" style="2" customWidth="1"/>
     <col min="1034" max="1034" width="4" style="2" customWidth="1"/>
-    <col min="1035" max="1035" width="3.3984375" style="2" customWidth="1"/>
-    <col min="1036" max="1036" width="3.73046875" style="2" customWidth="1"/>
-    <col min="1037" max="1037" width="2.86328125" style="2" customWidth="1"/>
-    <col min="1038" max="1038" width="3.1328125" style="2" customWidth="1"/>
-    <col min="1039" max="1039" width="12.265625" style="2" customWidth="1"/>
-    <col min="1040" max="1040" width="9.1328125" style="2"/>
-    <col min="1041" max="1041" width="42.1328125" style="2" customWidth="1"/>
-    <col min="1042" max="1280" width="9.1328125" style="2"/>
-    <col min="1281" max="1281" width="30.1328125" style="2" customWidth="1"/>
-    <col min="1282" max="1282" width="3.265625" style="2" customWidth="1"/>
-    <col min="1283" max="1283" width="3.59765625" style="2" customWidth="1"/>
-    <col min="1284" max="1284" width="3.73046875" style="2" customWidth="1"/>
-    <col min="1285" max="1285" width="3.86328125" style="2" customWidth="1"/>
+    <col min="1035" max="1035" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1036" max="1036" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1037" max="1037" width="2.85546875" style="2" customWidth="1"/>
+    <col min="1038" max="1038" width="3.140625" style="2" customWidth="1"/>
+    <col min="1039" max="1039" width="12.28515625" style="2" customWidth="1"/>
+    <col min="1040" max="1040" width="9.140625" style="2"/>
+    <col min="1041" max="1041" width="42.140625" style="2" customWidth="1"/>
+    <col min="1042" max="1280" width="9.140625" style="2"/>
+    <col min="1281" max="1281" width="30.140625" style="2" customWidth="1"/>
+    <col min="1282" max="1282" width="3.28515625" style="2" customWidth="1"/>
+    <col min="1283" max="1283" width="3.5703125" style="2" customWidth="1"/>
+    <col min="1284" max="1284" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1285" max="1285" width="3.85546875" style="2" customWidth="1"/>
     <col min="1286" max="1286" width="3" style="2" customWidth="1"/>
-    <col min="1287" max="1287" width="3.59765625" style="2" customWidth="1"/>
+    <col min="1287" max="1287" width="3.5703125" style="2" customWidth="1"/>
     <col min="1288" max="1288" width="4" style="2" customWidth="1"/>
     <col min="1289" max="1289" width="3" style="2" customWidth="1"/>
     <col min="1290" max="1290" width="4" style="2" customWidth="1"/>
-    <col min="1291" max="1291" width="3.3984375" style="2" customWidth="1"/>
-    <col min="1292" max="1292" width="3.73046875" style="2" customWidth="1"/>
-    <col min="1293" max="1293" width="2.86328125" style="2" customWidth="1"/>
-    <col min="1294" max="1294" width="3.1328125" style="2" customWidth="1"/>
-    <col min="1295" max="1295" width="12.265625" style="2" customWidth="1"/>
-    <col min="1296" max="1296" width="9.1328125" style="2"/>
-    <col min="1297" max="1297" width="42.1328125" style="2" customWidth="1"/>
-    <col min="1298" max="1536" width="9.1328125" style="2"/>
-    <col min="1537" max="1537" width="30.1328125" style="2" customWidth="1"/>
-    <col min="1538" max="1538" width="3.265625" style="2" customWidth="1"/>
-    <col min="1539" max="1539" width="3.59765625" style="2" customWidth="1"/>
-    <col min="1540" max="1540" width="3.73046875" style="2" customWidth="1"/>
-    <col min="1541" max="1541" width="3.86328125" style="2" customWidth="1"/>
+    <col min="1291" max="1291" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1292" max="1292" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1293" max="1293" width="2.85546875" style="2" customWidth="1"/>
+    <col min="1294" max="1294" width="3.140625" style="2" customWidth="1"/>
+    <col min="1295" max="1295" width="12.28515625" style="2" customWidth="1"/>
+    <col min="1296" max="1296" width="9.140625" style="2"/>
+    <col min="1297" max="1297" width="42.140625" style="2" customWidth="1"/>
+    <col min="1298" max="1536" width="9.140625" style="2"/>
+    <col min="1537" max="1537" width="30.140625" style="2" customWidth="1"/>
+    <col min="1538" max="1538" width="3.28515625" style="2" customWidth="1"/>
+    <col min="1539" max="1539" width="3.5703125" style="2" customWidth="1"/>
+    <col min="1540" max="1540" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1541" max="1541" width="3.85546875" style="2" customWidth="1"/>
     <col min="1542" max="1542" width="3" style="2" customWidth="1"/>
-    <col min="1543" max="1543" width="3.59765625" style="2" customWidth="1"/>
+    <col min="1543" max="1543" width="3.5703125" style="2" customWidth="1"/>
     <col min="1544" max="1544" width="4" style="2" customWidth="1"/>
     <col min="1545" max="1545" width="3" style="2" customWidth="1"/>
     <col min="1546" max="1546" width="4" style="2" customWidth="1"/>
-    <col min="1547" max="1547" width="3.3984375" style="2" customWidth="1"/>
-    <col min="1548" max="1548" width="3.73046875" style="2" customWidth="1"/>
-    <col min="1549" max="1549" width="2.86328125" style="2" customWidth="1"/>
-    <col min="1550" max="1550" width="3.1328125" style="2" customWidth="1"/>
-    <col min="1551" max="1551" width="12.265625" style="2" customWidth="1"/>
-    <col min="1552" max="1552" width="9.1328125" style="2"/>
-    <col min="1553" max="1553" width="42.1328125" style="2" customWidth="1"/>
-    <col min="1554" max="1792" width="9.1328125" style="2"/>
-    <col min="1793" max="1793" width="30.1328125" style="2" customWidth="1"/>
-    <col min="1794" max="1794" width="3.265625" style="2" customWidth="1"/>
-    <col min="1795" max="1795" width="3.59765625" style="2" customWidth="1"/>
-    <col min="1796" max="1796" width="3.73046875" style="2" customWidth="1"/>
-    <col min="1797" max="1797" width="3.86328125" style="2" customWidth="1"/>
+    <col min="1547" max="1547" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1548" max="1548" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1549" max="1549" width="2.85546875" style="2" customWidth="1"/>
+    <col min="1550" max="1550" width="3.140625" style="2" customWidth="1"/>
+    <col min="1551" max="1551" width="12.28515625" style="2" customWidth="1"/>
+    <col min="1552" max="1552" width="9.140625" style="2"/>
+    <col min="1553" max="1553" width="42.140625" style="2" customWidth="1"/>
+    <col min="1554" max="1792" width="9.140625" style="2"/>
+    <col min="1793" max="1793" width="30.140625" style="2" customWidth="1"/>
+    <col min="1794" max="1794" width="3.28515625" style="2" customWidth="1"/>
+    <col min="1795" max="1795" width="3.5703125" style="2" customWidth="1"/>
+    <col min="1796" max="1796" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1797" max="1797" width="3.85546875" style="2" customWidth="1"/>
     <col min="1798" max="1798" width="3" style="2" customWidth="1"/>
-    <col min="1799" max="1799" width="3.59765625" style="2" customWidth="1"/>
+    <col min="1799" max="1799" width="3.5703125" style="2" customWidth="1"/>
     <col min="1800" max="1800" width="4" style="2" customWidth="1"/>
     <col min="1801" max="1801" width="3" style="2" customWidth="1"/>
     <col min="1802" max="1802" width="4" style="2" customWidth="1"/>
-    <col min="1803" max="1803" width="3.3984375" style="2" customWidth="1"/>
-    <col min="1804" max="1804" width="3.73046875" style="2" customWidth="1"/>
-    <col min="1805" max="1805" width="2.86328125" style="2" customWidth="1"/>
-    <col min="1806" max="1806" width="3.1328125" style="2" customWidth="1"/>
-    <col min="1807" max="1807" width="12.265625" style="2" customWidth="1"/>
-    <col min="1808" max="1808" width="9.1328125" style="2"/>
-    <col min="1809" max="1809" width="42.1328125" style="2" customWidth="1"/>
-    <col min="1810" max="2048" width="9.1328125" style="2"/>
-    <col min="2049" max="2049" width="30.1328125" style="2" customWidth="1"/>
-    <col min="2050" max="2050" width="3.265625" style="2" customWidth="1"/>
-    <col min="2051" max="2051" width="3.59765625" style="2" customWidth="1"/>
-    <col min="2052" max="2052" width="3.73046875" style="2" customWidth="1"/>
-    <col min="2053" max="2053" width="3.86328125" style="2" customWidth="1"/>
+    <col min="1803" max="1803" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1804" max="1804" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1805" max="1805" width="2.85546875" style="2" customWidth="1"/>
+    <col min="1806" max="1806" width="3.140625" style="2" customWidth="1"/>
+    <col min="1807" max="1807" width="12.28515625" style="2" customWidth="1"/>
+    <col min="1808" max="1808" width="9.140625" style="2"/>
+    <col min="1809" max="1809" width="42.140625" style="2" customWidth="1"/>
+    <col min="1810" max="2048" width="9.140625" style="2"/>
+    <col min="2049" max="2049" width="30.140625" style="2" customWidth="1"/>
+    <col min="2050" max="2050" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2051" max="2051" width="3.5703125" style="2" customWidth="1"/>
+    <col min="2052" max="2052" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2053" max="2053" width="3.85546875" style="2" customWidth="1"/>
     <col min="2054" max="2054" width="3" style="2" customWidth="1"/>
-    <col min="2055" max="2055" width="3.59765625" style="2" customWidth="1"/>
+    <col min="2055" max="2055" width="3.5703125" style="2" customWidth="1"/>
     <col min="2056" max="2056" width="4" style="2" customWidth="1"/>
     <col min="2057" max="2057" width="3" style="2" customWidth="1"/>
     <col min="2058" max="2058" width="4" style="2" customWidth="1"/>
-    <col min="2059" max="2059" width="3.3984375" style="2" customWidth="1"/>
-    <col min="2060" max="2060" width="3.73046875" style="2" customWidth="1"/>
-    <col min="2061" max="2061" width="2.86328125" style="2" customWidth="1"/>
-    <col min="2062" max="2062" width="3.1328125" style="2" customWidth="1"/>
-    <col min="2063" max="2063" width="12.265625" style="2" customWidth="1"/>
-    <col min="2064" max="2064" width="9.1328125" style="2"/>
-    <col min="2065" max="2065" width="42.1328125" style="2" customWidth="1"/>
-    <col min="2066" max="2304" width="9.1328125" style="2"/>
-    <col min="2305" max="2305" width="30.1328125" style="2" customWidth="1"/>
-    <col min="2306" max="2306" width="3.265625" style="2" customWidth="1"/>
-    <col min="2307" max="2307" width="3.59765625" style="2" customWidth="1"/>
-    <col min="2308" max="2308" width="3.73046875" style="2" customWidth="1"/>
-    <col min="2309" max="2309" width="3.86328125" style="2" customWidth="1"/>
+    <col min="2059" max="2059" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2060" max="2060" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2061" max="2061" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2062" max="2062" width="3.140625" style="2" customWidth="1"/>
+    <col min="2063" max="2063" width="12.28515625" style="2" customWidth="1"/>
+    <col min="2064" max="2064" width="9.140625" style="2"/>
+    <col min="2065" max="2065" width="42.140625" style="2" customWidth="1"/>
+    <col min="2066" max="2304" width="9.140625" style="2"/>
+    <col min="2305" max="2305" width="30.140625" style="2" customWidth="1"/>
+    <col min="2306" max="2306" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2307" max="2307" width="3.5703125" style="2" customWidth="1"/>
+    <col min="2308" max="2308" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2309" max="2309" width="3.85546875" style="2" customWidth="1"/>
     <col min="2310" max="2310" width="3" style="2" customWidth="1"/>
-    <col min="2311" max="2311" width="3.59765625" style="2" customWidth="1"/>
+    <col min="2311" max="2311" width="3.5703125" style="2" customWidth="1"/>
     <col min="2312" max="2312" width="4" style="2" customWidth="1"/>
     <col min="2313" max="2313" width="3" style="2" customWidth="1"/>
     <col min="2314" max="2314" width="4" style="2" customWidth="1"/>
-    <col min="2315" max="2315" width="3.3984375" style="2" customWidth="1"/>
-    <col min="2316" max="2316" width="3.73046875" style="2" customWidth="1"/>
-    <col min="2317" max="2317" width="2.86328125" style="2" customWidth="1"/>
-    <col min="2318" max="2318" width="3.1328125" style="2" customWidth="1"/>
-    <col min="2319" max="2319" width="12.265625" style="2" customWidth="1"/>
-    <col min="2320" max="2320" width="9.1328125" style="2"/>
-    <col min="2321" max="2321" width="42.1328125" style="2" customWidth="1"/>
-    <col min="2322" max="2560" width="9.1328125" style="2"/>
-    <col min="2561" max="2561" width="30.1328125" style="2" customWidth="1"/>
-    <col min="2562" max="2562" width="3.265625" style="2" customWidth="1"/>
-    <col min="2563" max="2563" width="3.59765625" style="2" customWidth="1"/>
-    <col min="2564" max="2564" width="3.73046875" style="2" customWidth="1"/>
-    <col min="2565" max="2565" width="3.86328125" style="2" customWidth="1"/>
+    <col min="2315" max="2315" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2316" max="2316" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2317" max="2317" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2318" max="2318" width="3.140625" style="2" customWidth="1"/>
+    <col min="2319" max="2319" width="12.28515625" style="2" customWidth="1"/>
+    <col min="2320" max="2320" width="9.140625" style="2"/>
+    <col min="2321" max="2321" width="42.140625" style="2" customWidth="1"/>
+    <col min="2322" max="2560" width="9.140625" style="2"/>
+    <col min="2561" max="2561" width="30.140625" style="2" customWidth="1"/>
+    <col min="2562" max="2562" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2563" max="2563" width="3.5703125" style="2" customWidth="1"/>
+    <col min="2564" max="2564" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2565" max="2565" width="3.85546875" style="2" customWidth="1"/>
     <col min="2566" max="2566" width="3" style="2" customWidth="1"/>
-    <col min="2567" max="2567" width="3.59765625" style="2" customWidth="1"/>
+    <col min="2567" max="2567" width="3.5703125" style="2" customWidth="1"/>
     <col min="2568" max="2568" width="4" style="2" customWidth="1"/>
     <col min="2569" max="2569" width="3" style="2" customWidth="1"/>
     <col min="2570" max="2570" width="4" style="2" customWidth="1"/>
-    <col min="2571" max="2571" width="3.3984375" style="2" customWidth="1"/>
-    <col min="2572" max="2572" width="3.73046875" style="2" customWidth="1"/>
-    <col min="2573" max="2573" width="2.86328125" style="2" customWidth="1"/>
-    <col min="2574" max="2574" width="3.1328125" style="2" customWidth="1"/>
-    <col min="2575" max="2575" width="12.265625" style="2" customWidth="1"/>
-    <col min="2576" max="2576" width="9.1328125" style="2"/>
-    <col min="2577" max="2577" width="42.1328125" style="2" customWidth="1"/>
-    <col min="2578" max="2816" width="9.1328125" style="2"/>
-    <col min="2817" max="2817" width="30.1328125" style="2" customWidth="1"/>
-    <col min="2818" max="2818" width="3.265625" style="2" customWidth="1"/>
-    <col min="2819" max="2819" width="3.59765625" style="2" customWidth="1"/>
-    <col min="2820" max="2820" width="3.73046875" style="2" customWidth="1"/>
-    <col min="2821" max="2821" width="3.86328125" style="2" customWidth="1"/>
+    <col min="2571" max="2571" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2572" max="2572" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2573" max="2573" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2574" max="2574" width="3.140625" style="2" customWidth="1"/>
+    <col min="2575" max="2575" width="12.28515625" style="2" customWidth="1"/>
+    <col min="2576" max="2576" width="9.140625" style="2"/>
+    <col min="2577" max="2577" width="42.140625" style="2" customWidth="1"/>
+    <col min="2578" max="2816" width="9.140625" style="2"/>
+    <col min="2817" max="2817" width="30.140625" style="2" customWidth="1"/>
+    <col min="2818" max="2818" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2819" max="2819" width="3.5703125" style="2" customWidth="1"/>
+    <col min="2820" max="2820" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2821" max="2821" width="3.85546875" style="2" customWidth="1"/>
     <col min="2822" max="2822" width="3" style="2" customWidth="1"/>
-    <col min="2823" max="2823" width="3.59765625" style="2" customWidth="1"/>
+    <col min="2823" max="2823" width="3.5703125" style="2" customWidth="1"/>
     <col min="2824" max="2824" width="4" style="2" customWidth="1"/>
     <col min="2825" max="2825" width="3" style="2" customWidth="1"/>
     <col min="2826" max="2826" width="4" style="2" customWidth="1"/>
-    <col min="2827" max="2827" width="3.3984375" style="2" customWidth="1"/>
-    <col min="2828" max="2828" width="3.73046875" style="2" customWidth="1"/>
-    <col min="2829" max="2829" width="2.86328125" style="2" customWidth="1"/>
-    <col min="2830" max="2830" width="3.1328125" style="2" customWidth="1"/>
-    <col min="2831" max="2831" width="12.265625" style="2" customWidth="1"/>
-    <col min="2832" max="2832" width="9.1328125" style="2"/>
-    <col min="2833" max="2833" width="42.1328125" style="2" customWidth="1"/>
-    <col min="2834" max="3072" width="9.1328125" style="2"/>
-    <col min="3073" max="3073" width="30.1328125" style="2" customWidth="1"/>
-    <col min="3074" max="3074" width="3.265625" style="2" customWidth="1"/>
-    <col min="3075" max="3075" width="3.59765625" style="2" customWidth="1"/>
-    <col min="3076" max="3076" width="3.73046875" style="2" customWidth="1"/>
-    <col min="3077" max="3077" width="3.86328125" style="2" customWidth="1"/>
+    <col min="2827" max="2827" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2828" max="2828" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2829" max="2829" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2830" max="2830" width="3.140625" style="2" customWidth="1"/>
+    <col min="2831" max="2831" width="12.28515625" style="2" customWidth="1"/>
+    <col min="2832" max="2832" width="9.140625" style="2"/>
+    <col min="2833" max="2833" width="42.140625" style="2" customWidth="1"/>
+    <col min="2834" max="3072" width="9.140625" style="2"/>
+    <col min="3073" max="3073" width="30.140625" style="2" customWidth="1"/>
+    <col min="3074" max="3074" width="3.28515625" style="2" customWidth="1"/>
+    <col min="3075" max="3075" width="3.5703125" style="2" customWidth="1"/>
+    <col min="3076" max="3076" width="3.7109375" style="2" customWidth="1"/>
+    <col min="3077" max="3077" width="3.85546875" style="2" customWidth="1"/>
     <col min="3078" max="3078" width="3" style="2" customWidth="1"/>
-    <col min="3079" max="3079" width="3.59765625" style="2" customWidth="1"/>
+    <col min="3079" max="3079" width="3.5703125" style="2" customWidth="1"/>
     <col min="3080" max="3080" width="4" style="2" customWidth="1"/>
     <col min="3081" max="3081" width="3" style="2" customWidth="1"/>
     <col min="3082" max="3082" width="4" style="2" customWidth="1"/>
-    <col min="3083" max="3083" width="3.3984375" style="2" customWidth="1"/>
-    <col min="3084" max="3084" width="3.73046875" style="2" customWidth="1"/>
-    <col min="3085" max="3085" width="2.86328125" style="2" customWidth="1"/>
-    <col min="3086" max="3086" width="3.1328125" style="2" customWidth="1"/>
-    <col min="3087" max="3087" width="12.265625" style="2" customWidth="1"/>
-    <col min="3088" max="3088" width="9.1328125" style="2"/>
-    <col min="3089" max="3089" width="42.1328125" style="2" customWidth="1"/>
-    <col min="3090" max="3328" width="9.1328125" style="2"/>
-    <col min="3329" max="3329" width="30.1328125" style="2" customWidth="1"/>
-    <col min="3330" max="3330" width="3.265625" style="2" customWidth="1"/>
-    <col min="3331" max="3331" width="3.59765625" style="2" customWidth="1"/>
-    <col min="3332" max="3332" width="3.73046875" style="2" customWidth="1"/>
-    <col min="3333" max="3333" width="3.86328125" style="2" customWidth="1"/>
+    <col min="3083" max="3083" width="3.42578125" style="2" customWidth="1"/>
+    <col min="3084" max="3084" width="3.7109375" style="2" customWidth="1"/>
+    <col min="3085" max="3085" width="2.85546875" style="2" customWidth="1"/>
+    <col min="3086" max="3086" width="3.140625" style="2" customWidth="1"/>
+    <col min="3087" max="3087" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3088" max="3088" width="9.140625" style="2"/>
+    <col min="3089" max="3089" width="42.140625" style="2" customWidth="1"/>
+    <col min="3090" max="3328" width="9.140625" style="2"/>
+    <col min="3329" max="3329" width="30.140625" style="2" customWidth="1"/>
+    <col min="3330" max="3330" width="3.28515625" style="2" customWidth="1"/>
+    <col min="3331" max="3331" width="3.5703125" style="2" customWidth="1"/>
+    <col min="3332" max="3332" width="3.7109375" style="2" customWidth="1"/>
+    <col min="3333" max="3333" width="3.85546875" style="2" customWidth="1"/>
     <col min="3334" max="3334" width="3" style="2" customWidth="1"/>
-    <col min="3335" max="3335" width="3.59765625" style="2" customWidth="1"/>
+    <col min="3335" max="3335" width="3.5703125" style="2" customWidth="1"/>
     <col min="3336" max="3336" width="4" style="2" customWidth="1"/>
     <col min="3337" max="3337" width="3" style="2" customWidth="1"/>
     <col min="3338" max="3338" width="4" style="2" customWidth="1"/>
-    <col min="3339" max="3339" width="3.3984375" style="2" customWidth="1"/>
-    <col min="3340" max="3340" width="3.73046875" style="2" customWidth="1"/>
-    <col min="3341" max="3341" width="2.86328125" style="2" customWidth="1"/>
-    <col min="3342" max="3342" width="3.1328125" style="2" customWidth="1"/>
-    <col min="3343" max="3343" width="12.265625" style="2" customWidth="1"/>
-    <col min="3344" max="3344" width="9.1328125" style="2"/>
-    <col min="3345" max="3345" width="42.1328125" style="2" customWidth="1"/>
-    <col min="3346" max="3584" width="9.1328125" style="2"/>
-    <col min="3585" max="3585" width="30.1328125" style="2" customWidth="1"/>
-    <col min="3586" max="3586" width="3.265625" style="2" customWidth="1"/>
-    <col min="3587" max="3587" width="3.59765625" style="2" customWidth="1"/>
-    <col min="3588" max="3588" width="3.73046875" style="2" customWidth="1"/>
-    <col min="3589" max="3589" width="3.86328125" style="2" customWidth="1"/>
+    <col min="3339" max="3339" width="3.42578125" style="2" customWidth="1"/>
+    <col min="3340" max="3340" width="3.7109375" style="2" customWidth="1"/>
+    <col min="3341" max="3341" width="2.85546875" style="2" customWidth="1"/>
+    <col min="3342" max="3342" width="3.140625" style="2" customWidth="1"/>
+    <col min="3343" max="3343" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3344" max="3344" width="9.140625" style="2"/>
+    <col min="3345" max="3345" width="42.140625" style="2" customWidth="1"/>
+    <col min="3346" max="3584" width="9.140625" style="2"/>
+    <col min="3585" max="3585" width="30.140625" style="2" customWidth="1"/>
+    <col min="3586" max="3586" width="3.28515625" style="2" customWidth="1"/>
+    <col min="3587" max="3587" width="3.5703125" style="2" customWidth="1"/>
+    <col min="3588" max="3588" width="3.7109375" style="2" customWidth="1"/>
+    <col min="3589" max="3589" width="3.85546875" style="2" customWidth="1"/>
     <col min="3590" max="3590" width="3" style="2" customWidth="1"/>
-    <col min="3591" max="3591" width="3.59765625" style="2" customWidth="1"/>
+    <col min="3591" max="3591" width="3.5703125" style="2" customWidth="1"/>
     <col min="3592" max="3592" width="4" style="2" customWidth="1"/>
     <col min="3593" max="3593" width="3" style="2" customWidth="1"/>
     <col min="3594" max="3594" width="4" style="2" customWidth="1"/>
-    <col min="3595" max="3595" width="3.3984375" style="2" customWidth="1"/>
-    <col min="3596" max="3596" width="3.73046875" style="2" customWidth="1"/>
-    <col min="3597" max="3597" width="2.86328125" style="2" customWidth="1"/>
-    <col min="3598" max="3598" width="3.1328125" style="2" customWidth="1"/>
-    <col min="3599" max="3599" width="12.265625" style="2" customWidth="1"/>
-    <col min="3600" max="3600" width="9.1328125" style="2"/>
-    <col min="3601" max="3601" width="42.1328125" style="2" customWidth="1"/>
-    <col min="3602" max="3840" width="9.1328125" style="2"/>
-    <col min="3841" max="3841" width="30.1328125" style="2" customWidth="1"/>
-    <col min="3842" max="3842" width="3.265625" style="2" customWidth="1"/>
-    <col min="3843" max="3843" width="3.59765625" style="2" customWidth="1"/>
-    <col min="3844" max="3844" width="3.73046875" style="2" customWidth="1"/>
-    <col min="3845" max="3845" width="3.86328125" style="2" customWidth="1"/>
+    <col min="3595" max="3595" width="3.42578125" style="2" customWidth="1"/>
+    <col min="3596" max="3596" width="3.7109375" style="2" customWidth="1"/>
+    <col min="3597" max="3597" width="2.85546875" style="2" customWidth="1"/>
+    <col min="3598" max="3598" width="3.140625" style="2" customWidth="1"/>
+    <col min="3599" max="3599" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3600" max="3600" width="9.140625" style="2"/>
+    <col min="3601" max="3601" width="42.140625" style="2" customWidth="1"/>
+    <col min="3602" max="3840" width="9.140625" style="2"/>
+    <col min="3841" max="3841" width="30.140625" style="2" customWidth="1"/>
+    <col min="3842" max="3842" width="3.28515625" style="2" customWidth="1"/>
+    <col min="3843" max="3843" width="3.5703125" style="2" customWidth="1"/>
+    <col min="3844" max="3844" width="3.7109375" style="2" customWidth="1"/>
+    <col min="3845" max="3845" width="3.85546875" style="2" customWidth="1"/>
     <col min="3846" max="3846" width="3" style="2" customWidth="1"/>
-    <col min="3847" max="3847" width="3.59765625" style="2" customWidth="1"/>
+    <col min="3847" max="3847" width="3.5703125" style="2" customWidth="1"/>
     <col min="3848" max="3848" width="4" style="2" customWidth="1"/>
     <col min="3849" max="3849" width="3" style="2" customWidth="1"/>
     <col min="3850" max="3850" width="4" style="2" customWidth="1"/>
-    <col min="3851" max="3851" width="3.3984375" style="2" customWidth="1"/>
-    <col min="3852" max="3852" width="3.73046875" style="2" customWidth="1"/>
-    <col min="3853" max="3853" width="2.86328125" style="2" customWidth="1"/>
-    <col min="3854" max="3854" width="3.1328125" style="2" customWidth="1"/>
-    <col min="3855" max="3855" width="12.265625" style="2" customWidth="1"/>
-    <col min="3856" max="3856" width="9.1328125" style="2"/>
-    <col min="3857" max="3857" width="42.1328125" style="2" customWidth="1"/>
-    <col min="3858" max="4096" width="9.1328125" style="2"/>
-    <col min="4097" max="4097" width="30.1328125" style="2" customWidth="1"/>
-    <col min="4098" max="4098" width="3.265625" style="2" customWidth="1"/>
-    <col min="4099" max="4099" width="3.59765625" style="2" customWidth="1"/>
-    <col min="4100" max="4100" width="3.73046875" style="2" customWidth="1"/>
-    <col min="4101" max="4101" width="3.86328125" style="2" customWidth="1"/>
+    <col min="3851" max="3851" width="3.42578125" style="2" customWidth="1"/>
+    <col min="3852" max="3852" width="3.7109375" style="2" customWidth="1"/>
+    <col min="3853" max="3853" width="2.85546875" style="2" customWidth="1"/>
+    <col min="3854" max="3854" width="3.140625" style="2" customWidth="1"/>
+    <col min="3855" max="3855" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3856" max="3856" width="9.140625" style="2"/>
+    <col min="3857" max="3857" width="42.140625" style="2" customWidth="1"/>
+    <col min="3858" max="4096" width="9.140625" style="2"/>
+    <col min="4097" max="4097" width="30.140625" style="2" customWidth="1"/>
+    <col min="4098" max="4098" width="3.28515625" style="2" customWidth="1"/>
+    <col min="4099" max="4099" width="3.5703125" style="2" customWidth="1"/>
+    <col min="4100" max="4100" width="3.7109375" style="2" customWidth="1"/>
+    <col min="4101" max="4101" width="3.85546875" style="2" customWidth="1"/>
     <col min="4102" max="4102" width="3" style="2" customWidth="1"/>
-    <col min="4103" max="4103" width="3.59765625" style="2" customWidth="1"/>
+    <col min="4103" max="4103" width="3.5703125" style="2" customWidth="1"/>
     <col min="4104" max="4104" width="4" style="2" customWidth="1"/>
     <col min="4105" max="4105" width="3" style="2" customWidth="1"/>
     <col min="4106" max="4106" width="4" style="2" customWidth="1"/>
-    <col min="4107" max="4107" width="3.3984375" style="2" customWidth="1"/>
-    <col min="4108" max="4108" width="3.73046875" style="2" customWidth="1"/>
-    <col min="4109" max="4109" width="2.86328125" style="2" customWidth="1"/>
-    <col min="4110" max="4110" width="3.1328125" style="2" customWidth="1"/>
-    <col min="4111" max="4111" width="12.265625" style="2" customWidth="1"/>
-    <col min="4112" max="4112" width="9.1328125" style="2"/>
-    <col min="4113" max="4113" width="42.1328125" style="2" customWidth="1"/>
-    <col min="4114" max="4352" width="9.1328125" style="2"/>
-    <col min="4353" max="4353" width="30.1328125" style="2" customWidth="1"/>
-    <col min="4354" max="4354" width="3.265625" style="2" customWidth="1"/>
-    <col min="4355" max="4355" width="3.59765625" style="2" customWidth="1"/>
-    <col min="4356" max="4356" width="3.73046875" style="2" customWidth="1"/>
-    <col min="4357" max="4357" width="3.86328125" style="2" customWidth="1"/>
+    <col min="4107" max="4107" width="3.42578125" style="2" customWidth="1"/>
+    <col min="4108" max="4108" width="3.7109375" style="2" customWidth="1"/>
+    <col min="4109" max="4109" width="2.85546875" style="2" customWidth="1"/>
+    <col min="4110" max="4110" width="3.140625" style="2" customWidth="1"/>
+    <col min="4111" max="4111" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4112" max="4112" width="9.140625" style="2"/>
+    <col min="4113" max="4113" width="42.140625" style="2" customWidth="1"/>
+    <col min="4114" max="4352" width="9.140625" style="2"/>
+    <col min="4353" max="4353" width="30.140625" style="2" customWidth="1"/>
+    <col min="4354" max="4354" width="3.28515625" style="2" customWidth="1"/>
+    <col min="4355" max="4355" width="3.5703125" style="2" customWidth="1"/>
+    <col min="4356" max="4356" width="3.7109375" style="2" customWidth="1"/>
+    <col min="4357" max="4357" width="3.85546875" style="2" customWidth="1"/>
     <col min="4358" max="4358" width="3" style="2" customWidth="1"/>
-    <col min="4359" max="4359" width="3.59765625" style="2" customWidth="1"/>
+    <col min="4359" max="4359" width="3.5703125" style="2" customWidth="1"/>
     <col min="4360" max="4360" width="4" style="2" customWidth="1"/>
     <col min="4361" max="4361" width="3" style="2" customWidth="1"/>
     <col min="4362" max="4362" width="4" style="2" customWidth="1"/>
-    <col min="4363" max="4363" width="3.3984375" style="2" customWidth="1"/>
-    <col min="4364" max="4364" width="3.73046875" style="2" customWidth="1"/>
-    <col min="4365" max="4365" width="2.86328125" style="2" customWidth="1"/>
-    <col min="4366" max="4366" width="3.1328125" style="2" customWidth="1"/>
-    <col min="4367" max="4367" width="12.265625" style="2" customWidth="1"/>
-    <col min="4368" max="4368" width="9.1328125" style="2"/>
-    <col min="4369" max="4369" width="42.1328125" style="2" customWidth="1"/>
-    <col min="4370" max="4608" width="9.1328125" style="2"/>
-    <col min="4609" max="4609" width="30.1328125" style="2" customWidth="1"/>
-    <col min="4610" max="4610" width="3.265625" style="2" customWidth="1"/>
-    <col min="4611" max="4611" width="3.59765625" style="2" customWidth="1"/>
-    <col min="4612" max="4612" width="3.73046875" style="2" customWidth="1"/>
-    <col min="4613" max="4613" width="3.86328125" style="2" customWidth="1"/>
+    <col min="4363" max="4363" width="3.42578125" style="2" customWidth="1"/>
+    <col min="4364" max="4364" width="3.7109375" style="2" customWidth="1"/>
+    <col min="4365" max="4365" width="2.85546875" style="2" customWidth="1"/>
+    <col min="4366" max="4366" width="3.140625" style="2" customWidth="1"/>
+    <col min="4367" max="4367" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4368" max="4368" width="9.140625" style="2"/>
+    <col min="4369" max="4369" width="42.140625" style="2" customWidth="1"/>
+    <col min="4370" max="4608" width="9.140625" style="2"/>
+    <col min="4609" max="4609" width="30.140625" style="2" customWidth="1"/>
+    <col min="4610" max="4610" width="3.28515625" style="2" customWidth="1"/>
+    <col min="4611" max="4611" width="3.5703125" style="2" customWidth="1"/>
+    <col min="4612" max="4612" width="3.7109375" style="2" customWidth="1"/>
+    <col min="4613" max="4613" width="3.85546875" style="2" customWidth="1"/>
     <col min="4614" max="4614" width="3" style="2" customWidth="1"/>
-    <col min="4615" max="4615" width="3.59765625" style="2" customWidth="1"/>
+    <col min="4615" max="4615" width="3.5703125" style="2" customWidth="1"/>
     <col min="4616" max="4616" width="4" style="2" customWidth="1"/>
     <col min="4617" max="4617" width="3" style="2" customWidth="1"/>
     <col min="4618" max="4618" width="4" style="2" customWidth="1"/>
-    <col min="4619" max="4619" width="3.3984375" style="2" customWidth="1"/>
-    <col min="4620" max="4620" width="3.73046875" style="2" customWidth="1"/>
-    <col min="4621" max="4621" width="2.86328125" style="2" customWidth="1"/>
-    <col min="4622" max="4622" width="3.1328125" style="2" customWidth="1"/>
-    <col min="4623" max="4623" width="12.265625" style="2" customWidth="1"/>
-    <col min="4624" max="4624" width="9.1328125" style="2"/>
-    <col min="4625" max="4625" width="42.1328125" style="2" customWidth="1"/>
-    <col min="4626" max="4864" width="9.1328125" style="2"/>
-    <col min="4865" max="4865" width="30.1328125" style="2" customWidth="1"/>
-    <col min="4866" max="4866" width="3.265625" style="2" customWidth="1"/>
-    <col min="4867" max="4867" width="3.59765625" style="2" customWidth="1"/>
-    <col min="4868" max="4868" width="3.73046875" style="2" customWidth="1"/>
-    <col min="4869" max="4869" width="3.86328125" style="2" customWidth="1"/>
+    <col min="4619" max="4619" width="3.42578125" style="2" customWidth="1"/>
+    <col min="4620" max="4620" width="3.7109375" style="2" customWidth="1"/>
+    <col min="4621" max="4621" width="2.85546875" style="2" customWidth="1"/>
+    <col min="4622" max="4622" width="3.140625" style="2" customWidth="1"/>
+    <col min="4623" max="4623" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4624" max="4624" width="9.140625" style="2"/>
+    <col min="4625" max="4625" width="42.140625" style="2" customWidth="1"/>
+    <col min="4626" max="4864" width="9.140625" style="2"/>
+    <col min="4865" max="4865" width="30.140625" style="2" customWidth="1"/>
+    <col min="4866" max="4866" width="3.28515625" style="2" customWidth="1"/>
+    <col min="4867" max="4867" width="3.5703125" style="2" customWidth="1"/>
+    <col min="4868" max="4868" width="3.7109375" style="2" customWidth="1"/>
+    <col min="4869" max="4869" width="3.85546875" style="2" customWidth="1"/>
     <col min="4870" max="4870" width="3" style="2" customWidth="1"/>
-    <col min="4871" max="4871" width="3.59765625" style="2" customWidth="1"/>
+    <col min="4871" max="4871" width="3.5703125" style="2" customWidth="1"/>
     <col min="4872" max="4872" width="4" style="2" customWidth="1"/>
     <col min="4873" max="4873" width="3" style="2" customWidth="1"/>
     <col min="4874" max="4874" width="4" style="2" customWidth="1"/>
-    <col min="4875" max="4875" width="3.3984375" style="2" customWidth="1"/>
-    <col min="4876" max="4876" width="3.73046875" style="2" customWidth="1"/>
-    <col min="4877" max="4877" width="2.86328125" style="2" customWidth="1"/>
-    <col min="4878" max="4878" width="3.1328125" style="2" customWidth="1"/>
-    <col min="4879" max="4879" width="12.265625" style="2" customWidth="1"/>
-    <col min="4880" max="4880" width="9.1328125" style="2"/>
-    <col min="4881" max="4881" width="42.1328125" style="2" customWidth="1"/>
-    <col min="4882" max="5120" width="9.1328125" style="2"/>
-    <col min="5121" max="5121" width="30.1328125" style="2" customWidth="1"/>
-    <col min="5122" max="5122" width="3.265625" style="2" customWidth="1"/>
-    <col min="5123" max="5123" width="3.59765625" style="2" customWidth="1"/>
-    <col min="5124" max="5124" width="3.73046875" style="2" customWidth="1"/>
-    <col min="5125" max="5125" width="3.86328125" style="2" customWidth="1"/>
+    <col min="4875" max="4875" width="3.42578125" style="2" customWidth="1"/>
+    <col min="4876" max="4876" width="3.7109375" style="2" customWidth="1"/>
+    <col min="4877" max="4877" width="2.85546875" style="2" customWidth="1"/>
+    <col min="4878" max="4878" width="3.140625" style="2" customWidth="1"/>
+    <col min="4879" max="4879" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4880" max="4880" width="9.140625" style="2"/>
+    <col min="4881" max="4881" width="42.140625" style="2" customWidth="1"/>
+    <col min="4882" max="5120" width="9.140625" style="2"/>
+    <col min="5121" max="5121" width="30.140625" style="2" customWidth="1"/>
+    <col min="5122" max="5122" width="3.28515625" style="2" customWidth="1"/>
+    <col min="5123" max="5123" width="3.5703125" style="2" customWidth="1"/>
+    <col min="5124" max="5124" width="3.7109375" style="2" customWidth="1"/>
+    <col min="5125" max="5125" width="3.85546875" style="2" customWidth="1"/>
     <col min="5126" max="5126" width="3" style="2" customWidth="1"/>
-    <col min="5127" max="5127" width="3.59765625" style="2" customWidth="1"/>
+    <col min="5127" max="5127" width="3.5703125" style="2" customWidth="1"/>
     <col min="5128" max="5128" width="4" style="2" customWidth="1"/>
     <col min="5129" max="5129" width="3" style="2" customWidth="1"/>
     <col min="5130" max="5130" width="4" style="2" customWidth="1"/>
-    <col min="5131" max="5131" width="3.3984375" style="2" customWidth="1"/>
-    <col min="5132" max="5132" width="3.73046875" style="2" customWidth="1"/>
-    <col min="5133" max="5133" width="2.86328125" style="2" customWidth="1"/>
-    <col min="5134" max="5134" width="3.1328125" style="2" customWidth="1"/>
-    <col min="5135" max="5135" width="12.265625" style="2" customWidth="1"/>
-    <col min="5136" max="5136" width="9.1328125" style="2"/>
-    <col min="5137" max="5137" width="42.1328125" style="2" customWidth="1"/>
-    <col min="5138" max="5376" width="9.1328125" style="2"/>
-    <col min="5377" max="5377" width="30.1328125" style="2" customWidth="1"/>
-    <col min="5378" max="5378" width="3.265625" style="2" customWidth="1"/>
-    <col min="5379" max="5379" width="3.59765625" style="2" customWidth="1"/>
-    <col min="5380" max="5380" width="3.73046875" style="2" customWidth="1"/>
-    <col min="5381" max="5381" width="3.86328125" style="2" customWidth="1"/>
+    <col min="5131" max="5131" width="3.42578125" style="2" customWidth="1"/>
+    <col min="5132" max="5132" width="3.7109375" style="2" customWidth="1"/>
+    <col min="5133" max="5133" width="2.85546875" style="2" customWidth="1"/>
+    <col min="5134" max="5134" width="3.140625" style="2" customWidth="1"/>
+    <col min="5135" max="5135" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5136" max="5136" width="9.140625" style="2"/>
+    <col min="5137" max="5137" width="42.140625" style="2" customWidth="1"/>
+    <col min="5138" max="5376" width="9.140625" style="2"/>
+    <col min="5377" max="5377" width="30.140625" style="2" customWidth="1"/>
+    <col min="5378" max="5378" width="3.28515625" style="2" customWidth="1"/>
+    <col min="5379" max="5379" width="3.5703125" style="2" customWidth="1"/>
+    <col min="5380" max="5380" width="3.7109375" style="2" customWidth="1"/>
+    <col min="5381" max="5381" width="3.85546875" style="2" customWidth="1"/>
     <col min="5382" max="5382" width="3" style="2" customWidth="1"/>
-    <col min="5383" max="5383" width="3.59765625" style="2" customWidth="1"/>
+    <col min="5383" max="5383" width="3.5703125" style="2" customWidth="1"/>
     <col min="5384" max="5384" width="4" style="2" customWidth="1"/>
     <col min="5385" max="5385" width="3" style="2" customWidth="1"/>
     <col min="5386" max="5386" width="4" style="2" customWidth="1"/>
-    <col min="5387" max="5387" width="3.3984375" style="2" customWidth="1"/>
-    <col min="5388" max="5388" width="3.73046875" style="2" customWidth="1"/>
-    <col min="5389" max="5389" width="2.86328125" style="2" customWidth="1"/>
-    <col min="5390" max="5390" width="3.1328125" style="2" customWidth="1"/>
-    <col min="5391" max="5391" width="12.265625" style="2" customWidth="1"/>
-    <col min="5392" max="5392" width="9.1328125" style="2"/>
-    <col min="5393" max="5393" width="42.1328125" style="2" customWidth="1"/>
-    <col min="5394" max="5632" width="9.1328125" style="2"/>
-    <col min="5633" max="5633" width="30.1328125" style="2" customWidth="1"/>
-    <col min="5634" max="5634" width="3.265625" style="2" customWidth="1"/>
-    <col min="5635" max="5635" width="3.59765625" style="2" customWidth="1"/>
-    <col min="5636" max="5636" width="3.73046875" style="2" customWidth="1"/>
-    <col min="5637" max="5637" width="3.86328125" style="2" customWidth="1"/>
+    <col min="5387" max="5387" width="3.42578125" style="2" customWidth="1"/>
+    <col min="5388" max="5388" width="3.7109375" style="2" customWidth="1"/>
+    <col min="5389" max="5389" width="2.85546875" style="2" customWidth="1"/>
+    <col min="5390" max="5390" width="3.140625" style="2" customWidth="1"/>
+    <col min="5391" max="5391" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5392" max="5392" width="9.140625" style="2"/>
+    <col min="5393" max="5393" width="42.140625" style="2" customWidth="1"/>
+    <col min="5394" max="5632" width="9.140625" style="2"/>
+    <col min="5633" max="5633" width="30.140625" style="2" customWidth="1"/>
+    <col min="5634" max="5634" width="3.28515625" style="2" customWidth="1"/>
+    <col min="5635" max="5635" width="3.5703125" style="2" customWidth="1"/>
+    <col min="5636" max="5636" width="3.7109375" style="2" customWidth="1"/>
+    <col min="5637" max="5637" width="3.85546875" style="2" customWidth="1"/>
     <col min="5638" max="5638" width="3" style="2" customWidth="1"/>
-    <col min="5639" max="5639" width="3.59765625" style="2" customWidth="1"/>
+    <col min="5639" max="5639" width="3.5703125" style="2" customWidth="1"/>
     <col min="5640" max="5640" width="4" style="2" customWidth="1"/>
     <col min="5641" max="5641" width="3" style="2" customWidth="1"/>
     <col min="5642" max="5642" width="4" style="2" customWidth="1"/>
-    <col min="5643" max="5643" width="3.3984375" style="2" customWidth="1"/>
-    <col min="5644" max="5644" width="3.73046875" style="2" customWidth="1"/>
-    <col min="5645" max="5645" width="2.86328125" style="2" customWidth="1"/>
-    <col min="5646" max="5646" width="3.1328125" style="2" customWidth="1"/>
-    <col min="5647" max="5647" width="12.265625" style="2" customWidth="1"/>
-    <col min="5648" max="5648" width="9.1328125" style="2"/>
-    <col min="5649" max="5649" width="42.1328125" style="2" customWidth="1"/>
-    <col min="5650" max="5888" width="9.1328125" style="2"/>
-    <col min="5889" max="5889" width="30.1328125" style="2" customWidth="1"/>
-    <col min="5890" max="5890" width="3.265625" style="2" customWidth="1"/>
-    <col min="5891" max="5891" width="3.59765625" style="2" customWidth="1"/>
-    <col min="5892" max="5892" width="3.73046875" style="2" customWidth="1"/>
-    <col min="5893" max="5893" width="3.86328125" style="2" customWidth="1"/>
+    <col min="5643" max="5643" width="3.42578125" style="2" customWidth="1"/>
+    <col min="5644" max="5644" width="3.7109375" style="2" customWidth="1"/>
+    <col min="5645" max="5645" width="2.85546875" style="2" customWidth="1"/>
+    <col min="5646" max="5646" width="3.140625" style="2" customWidth="1"/>
+    <col min="5647" max="5647" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5648" max="5648" width="9.140625" style="2"/>
+    <col min="5649" max="5649" width="42.140625" style="2" customWidth="1"/>
+    <col min="5650" max="5888" width="9.140625" style="2"/>
+    <col min="5889" max="5889" width="30.140625" style="2" customWidth="1"/>
+    <col min="5890" max="5890" width="3.28515625" style="2" customWidth="1"/>
+    <col min="5891" max="5891" width="3.5703125" style="2" customWidth="1"/>
+    <col min="5892" max="5892" width="3.7109375" style="2" customWidth="1"/>
+    <col min="5893" max="5893" width="3.85546875" style="2" customWidth="1"/>
     <col min="5894" max="5894" width="3" style="2" customWidth="1"/>
-    <col min="5895" max="5895" width="3.59765625" style="2" customWidth="1"/>
+    <col min="5895" max="5895" width="3.5703125" style="2" customWidth="1"/>
     <col min="5896" max="5896" width="4" style="2" customWidth="1"/>
     <col min="5897" max="5897" width="3" style="2" customWidth="1"/>
     <col min="5898" max="5898" width="4" style="2" customWidth="1"/>
-    <col min="5899" max="5899" width="3.3984375" style="2" customWidth="1"/>
-    <col min="5900" max="5900" width="3.73046875" style="2" customWidth="1"/>
-    <col min="5901" max="5901" width="2.86328125" style="2" customWidth="1"/>
-    <col min="5902" max="5902" width="3.1328125" style="2" customWidth="1"/>
-    <col min="5903" max="5903" width="12.265625" style="2" customWidth="1"/>
-    <col min="5904" max="5904" width="9.1328125" style="2"/>
-    <col min="5905" max="5905" width="42.1328125" style="2" customWidth="1"/>
-    <col min="5906" max="6144" width="9.1328125" style="2"/>
-    <col min="6145" max="6145" width="30.1328125" style="2" customWidth="1"/>
-    <col min="6146" max="6146" width="3.265625" style="2" customWidth="1"/>
-    <col min="6147" max="6147" width="3.59765625" style="2" customWidth="1"/>
-    <col min="6148" max="6148" width="3.73046875" style="2" customWidth="1"/>
-    <col min="6149" max="6149" width="3.86328125" style="2" customWidth="1"/>
+    <col min="5899" max="5899" width="3.42578125" style="2" customWidth="1"/>
+    <col min="5900" max="5900" width="3.7109375" style="2" customWidth="1"/>
+    <col min="5901" max="5901" width="2.85546875" style="2" customWidth="1"/>
+    <col min="5902" max="5902" width="3.140625" style="2" customWidth="1"/>
+    <col min="5903" max="5903" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5904" max="5904" width="9.140625" style="2"/>
+    <col min="5905" max="5905" width="42.140625" style="2" customWidth="1"/>
+    <col min="5906" max="6144" width="9.140625" style="2"/>
+    <col min="6145" max="6145" width="30.140625" style="2" customWidth="1"/>
+    <col min="6146" max="6146" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6147" max="6147" width="3.5703125" style="2" customWidth="1"/>
+    <col min="6148" max="6148" width="3.7109375" style="2" customWidth="1"/>
+    <col min="6149" max="6149" width="3.85546875" style="2" customWidth="1"/>
     <col min="6150" max="6150" width="3" style="2" customWidth="1"/>
-    <col min="6151" max="6151" width="3.59765625" style="2" customWidth="1"/>
+    <col min="6151" max="6151" width="3.5703125" style="2" customWidth="1"/>
     <col min="6152" max="6152" width="4" style="2" customWidth="1"/>
     <col min="6153" max="6153" width="3" style="2" customWidth="1"/>
     <col min="6154" max="6154" width="4" style="2" customWidth="1"/>
-    <col min="6155" max="6155" width="3.3984375" style="2" customWidth="1"/>
-    <col min="6156" max="6156" width="3.73046875" style="2" customWidth="1"/>
-    <col min="6157" max="6157" width="2.86328125" style="2" customWidth="1"/>
-    <col min="6158" max="6158" width="3.1328125" style="2" customWidth="1"/>
-    <col min="6159" max="6159" width="12.265625" style="2" customWidth="1"/>
-    <col min="6160" max="6160" width="9.1328125" style="2"/>
-    <col min="6161" max="6161" width="42.1328125" style="2" customWidth="1"/>
-    <col min="6162" max="6400" width="9.1328125" style="2"/>
-    <col min="6401" max="6401" width="30.1328125" style="2" customWidth="1"/>
-    <col min="6402" max="6402" width="3.265625" style="2" customWidth="1"/>
-    <col min="6403" max="6403" width="3.59765625" style="2" customWidth="1"/>
-    <col min="6404" max="6404" width="3.73046875" style="2" customWidth="1"/>
-    <col min="6405" max="6405" width="3.86328125" style="2" customWidth="1"/>
+    <col min="6155" max="6155" width="3.42578125" style="2" customWidth="1"/>
+    <col min="6156" max="6156" width="3.7109375" style="2" customWidth="1"/>
+    <col min="6157" max="6157" width="2.85546875" style="2" customWidth="1"/>
+    <col min="6158" max="6158" width="3.140625" style="2" customWidth="1"/>
+    <col min="6159" max="6159" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6160" max="6160" width="9.140625" style="2"/>
+    <col min="6161" max="6161" width="42.140625" style="2" customWidth="1"/>
+    <col min="6162" max="6400" width="9.140625" style="2"/>
+    <col min="6401" max="6401" width="30.140625" style="2" customWidth="1"/>
+    <col min="6402" max="6402" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6403" max="6403" width="3.5703125" style="2" customWidth="1"/>
+    <col min="6404" max="6404" width="3.7109375" style="2" customWidth="1"/>
+    <col min="6405" max="6405" width="3.85546875" style="2" customWidth="1"/>
     <col min="6406" max="6406" width="3" style="2" customWidth="1"/>
-    <col min="6407" max="6407" width="3.59765625" style="2" customWidth="1"/>
+    <col min="6407" max="6407" width="3.5703125" style="2" customWidth="1"/>
     <col min="6408" max="6408" width="4" style="2" customWidth="1"/>
     <col min="6409" max="6409" width="3" style="2" customWidth="1"/>
     <col min="6410" max="6410" width="4" style="2" customWidth="1"/>
-    <col min="6411" max="6411" width="3.3984375" style="2" customWidth="1"/>
-    <col min="6412" max="6412" width="3.73046875" style="2" customWidth="1"/>
-    <col min="6413" max="6413" width="2.86328125" style="2" customWidth="1"/>
-    <col min="6414" max="6414" width="3.1328125" style="2" customWidth="1"/>
-    <col min="6415" max="6415" width="12.265625" style="2" customWidth="1"/>
-    <col min="6416" max="6416" width="9.1328125" style="2"/>
-    <col min="6417" max="6417" width="42.1328125" style="2" customWidth="1"/>
-    <col min="6418" max="6656" width="9.1328125" style="2"/>
-    <col min="6657" max="6657" width="30.1328125" style="2" customWidth="1"/>
-    <col min="6658" max="6658" width="3.265625" style="2" customWidth="1"/>
-    <col min="6659" max="6659" width="3.59765625" style="2" customWidth="1"/>
-    <col min="6660" max="6660" width="3.73046875" style="2" customWidth="1"/>
-    <col min="6661" max="6661" width="3.86328125" style="2" customWidth="1"/>
+    <col min="6411" max="6411" width="3.42578125" style="2" customWidth="1"/>
+    <col min="6412" max="6412" width="3.7109375" style="2" customWidth="1"/>
+    <col min="6413" max="6413" width="2.85546875" style="2" customWidth="1"/>
+    <col min="6414" max="6414" width="3.140625" style="2" customWidth="1"/>
+    <col min="6415" max="6415" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6416" max="6416" width="9.140625" style="2"/>
+    <col min="6417" max="6417" width="42.140625" style="2" customWidth="1"/>
+    <col min="6418" max="6656" width="9.140625" style="2"/>
+    <col min="6657" max="6657" width="30.140625" style="2" customWidth="1"/>
+    <col min="6658" max="6658" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6659" max="6659" width="3.5703125" style="2" customWidth="1"/>
+    <col min="6660" max="6660" width="3.7109375" style="2" customWidth="1"/>
+    <col min="6661" max="6661" width="3.85546875" style="2" customWidth="1"/>
     <col min="6662" max="6662" width="3" style="2" customWidth="1"/>
-    <col min="6663" max="6663" width="3.59765625" style="2" customWidth="1"/>
+    <col min="6663" max="6663" width="3.5703125" style="2" customWidth="1"/>
     <col min="6664" max="6664" width="4" style="2" customWidth="1"/>
     <col min="6665" max="6665" width="3" style="2" customWidth="1"/>
     <col min="6666" max="6666" width="4" style="2" customWidth="1"/>
-    <col min="6667" max="6667" width="3.3984375" style="2" customWidth="1"/>
-    <col min="6668" max="6668" width="3.73046875" style="2" customWidth="1"/>
-    <col min="6669" max="6669" width="2.86328125" style="2" customWidth="1"/>
-    <col min="6670" max="6670" width="3.1328125" style="2" customWidth="1"/>
-    <col min="6671" max="6671" width="12.265625" style="2" customWidth="1"/>
-    <col min="6672" max="6672" width="9.1328125" style="2"/>
-    <col min="6673" max="6673" width="42.1328125" style="2" customWidth="1"/>
-    <col min="6674" max="6912" width="9.1328125" style="2"/>
-    <col min="6913" max="6913" width="30.1328125" style="2" customWidth="1"/>
-    <col min="6914" max="6914" width="3.265625" style="2" customWidth="1"/>
-    <col min="6915" max="6915" width="3.59765625" style="2" customWidth="1"/>
-    <col min="6916" max="6916" width="3.73046875" style="2" customWidth="1"/>
-    <col min="6917" max="6917" width="3.86328125" style="2" customWidth="1"/>
+    <col min="6667" max="6667" width="3.42578125" style="2" customWidth="1"/>
+    <col min="6668" max="6668" width="3.7109375" style="2" customWidth="1"/>
+    <col min="6669" max="6669" width="2.85546875" style="2" customWidth="1"/>
+    <col min="6670" max="6670" width="3.140625" style="2" customWidth="1"/>
+    <col min="6671" max="6671" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6672" max="6672" width="9.140625" style="2"/>
+    <col min="6673" max="6673" width="42.140625" style="2" customWidth="1"/>
+    <col min="6674" max="6912" width="9.140625" style="2"/>
+    <col min="6913" max="6913" width="30.140625" style="2" customWidth="1"/>
+    <col min="6914" max="6914" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6915" max="6915" width="3.5703125" style="2" customWidth="1"/>
+    <col min="6916" max="6916" width="3.7109375" style="2" customWidth="1"/>
+    <col min="6917" max="6917" width="3.85546875" style="2" customWidth="1"/>
     <col min="6918" max="6918" width="3" style="2" customWidth="1"/>
-    <col min="6919" max="6919" width="3.59765625" style="2" customWidth="1"/>
+    <col min="6919" max="6919" width="3.5703125" style="2" customWidth="1"/>
     <col min="6920" max="6920" width="4" style="2" customWidth="1"/>
     <col min="6921" max="6921" width="3" style="2" customWidth="1"/>
     <col min="6922" max="6922" width="4" style="2" customWidth="1"/>
-    <col min="6923" max="6923" width="3.3984375" style="2" customWidth="1"/>
-    <col min="6924" max="6924" width="3.73046875" style="2" customWidth="1"/>
-    <col min="6925" max="6925" width="2.86328125" style="2" customWidth="1"/>
-    <col min="6926" max="6926" width="3.1328125" style="2" customWidth="1"/>
-    <col min="6927" max="6927" width="12.265625" style="2" customWidth="1"/>
-    <col min="6928" max="6928" width="9.1328125" style="2"/>
-    <col min="6929" max="6929" width="42.1328125" style="2" customWidth="1"/>
-    <col min="6930" max="7168" width="9.1328125" style="2"/>
-    <col min="7169" max="7169" width="30.1328125" style="2" customWidth="1"/>
-    <col min="7170" max="7170" width="3.265625" style="2" customWidth="1"/>
-    <col min="7171" max="7171" width="3.59765625" style="2" customWidth="1"/>
-    <col min="7172" max="7172" width="3.73046875" style="2" customWidth="1"/>
-    <col min="7173" max="7173" width="3.86328125" style="2" customWidth="1"/>
+    <col min="6923" max="6923" width="3.42578125" style="2" customWidth="1"/>
+    <col min="6924" max="6924" width="3.7109375" style="2" customWidth="1"/>
+    <col min="6925" max="6925" width="2.85546875" style="2" customWidth="1"/>
+    <col min="6926" max="6926" width="3.140625" style="2" customWidth="1"/>
+    <col min="6927" max="6927" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6928" max="6928" width="9.140625" style="2"/>
+    <col min="6929" max="6929" width="42.140625" style="2" customWidth="1"/>
+    <col min="6930" max="7168" width="9.140625" style="2"/>
+    <col min="7169" max="7169" width="30.140625" style="2" customWidth="1"/>
+    <col min="7170" max="7170" width="3.28515625" style="2" customWidth="1"/>
+    <col min="7171" max="7171" width="3.5703125" style="2" customWidth="1"/>
+    <col min="7172" max="7172" width="3.7109375" style="2" customWidth="1"/>
+    <col min="7173" max="7173" width="3.85546875" style="2" customWidth="1"/>
     <col min="7174" max="7174" width="3" style="2" customWidth="1"/>
-    <col min="7175" max="7175" width="3.59765625" style="2" customWidth="1"/>
+    <col min="7175" max="7175" width="3.5703125" style="2" customWidth="1"/>
     <col min="7176" max="7176" width="4" style="2" customWidth="1"/>
     <col min="7177" max="7177" width="3" style="2" customWidth="1"/>
     <col min="7178" max="7178" width="4" style="2" customWidth="1"/>
-    <col min="7179" max="7179" width="3.3984375" style="2" customWidth="1"/>
-    <col min="7180" max="7180" width="3.73046875" style="2" customWidth="1"/>
-    <col min="7181" max="7181" width="2.86328125" style="2" customWidth="1"/>
-    <col min="7182" max="7182" width="3.1328125" style="2" customWidth="1"/>
-    <col min="7183" max="7183" width="12.265625" style="2" customWidth="1"/>
-    <col min="7184" max="7184" width="9.1328125" style="2"/>
-    <col min="7185" max="7185" width="42.1328125" style="2" customWidth="1"/>
-    <col min="7186" max="7424" width="9.1328125" style="2"/>
-    <col min="7425" max="7425" width="30.1328125" style="2" customWidth="1"/>
-    <col min="7426" max="7426" width="3.265625" style="2" customWidth="1"/>
-    <col min="7427" max="7427" width="3.59765625" style="2" customWidth="1"/>
-    <col min="7428" max="7428" width="3.73046875" style="2" customWidth="1"/>
-    <col min="7429" max="7429" width="3.86328125" style="2" customWidth="1"/>
+    <col min="7179" max="7179" width="3.42578125" style="2" customWidth="1"/>
+    <col min="7180" max="7180" width="3.7109375" style="2" customWidth="1"/>
+    <col min="7181" max="7181" width="2.85546875" style="2" customWidth="1"/>
+    <col min="7182" max="7182" width="3.140625" style="2" customWidth="1"/>
+    <col min="7183" max="7183" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7184" max="7184" width="9.140625" style="2"/>
+    <col min="7185" max="7185" width="42.140625" style="2" customWidth="1"/>
+    <col min="7186" max="7424" width="9.140625" style="2"/>
+    <col min="7425" max="7425" width="30.140625" style="2" customWidth="1"/>
+    <col min="7426" max="7426" width="3.28515625" style="2" customWidth="1"/>
+    <col min="7427" max="7427" width="3.5703125" style="2" customWidth="1"/>
+    <col min="7428" max="7428" width="3.7109375" style="2" customWidth="1"/>
+    <col min="7429" max="7429" width="3.85546875" style="2" customWidth="1"/>
     <col min="7430" max="7430" width="3" style="2" customWidth="1"/>
-    <col min="7431" max="7431" width="3.59765625" style="2" customWidth="1"/>
+    <col min="7431" max="7431" width="3.5703125" style="2" customWidth="1"/>
     <col min="7432" max="7432" width="4" style="2" customWidth="1"/>
     <col min="7433" max="7433" width="3" style="2" customWidth="1"/>
     <col min="7434" max="7434" width="4" style="2" customWidth="1"/>
-    <col min="7435" max="7435" width="3.3984375" style="2" customWidth="1"/>
-    <col min="7436" max="7436" width="3.73046875" style="2" customWidth="1"/>
-    <col min="7437" max="7437" width="2.86328125" style="2" customWidth="1"/>
-    <col min="7438" max="7438" width="3.1328125" style="2" customWidth="1"/>
-    <col min="7439" max="7439" width="12.265625" style="2" customWidth="1"/>
-    <col min="7440" max="7440" width="9.1328125" style="2"/>
-    <col min="7441" max="7441" width="42.1328125" style="2" customWidth="1"/>
-    <col min="7442" max="7680" width="9.1328125" style="2"/>
-    <col min="7681" max="7681" width="30.1328125" style="2" customWidth="1"/>
-    <col min="7682" max="7682" width="3.265625" style="2" customWidth="1"/>
-    <col min="7683" max="7683" width="3.59765625" style="2" customWidth="1"/>
-    <col min="7684" max="7684" width="3.73046875" style="2" customWidth="1"/>
-    <col min="7685" max="7685" width="3.86328125" style="2" customWidth="1"/>
+    <col min="7435" max="7435" width="3.42578125" style="2" customWidth="1"/>
+    <col min="7436" max="7436" width="3.7109375" style="2" customWidth="1"/>
+    <col min="7437" max="7437" width="2.85546875" style="2" customWidth="1"/>
+    <col min="7438" max="7438" width="3.140625" style="2" customWidth="1"/>
+    <col min="7439" max="7439" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7440" max="7440" width="9.140625" style="2"/>
+    <col min="7441" max="7441" width="42.140625" style="2" customWidth="1"/>
+    <col min="7442" max="7680" width="9.140625" style="2"/>
+    <col min="7681" max="7681" width="30.140625" style="2" customWidth="1"/>
+    <col min="7682" max="7682" width="3.28515625" style="2" customWidth="1"/>
+    <col min="7683" max="7683" width="3.5703125" style="2" customWidth="1"/>
+    <col min="7684" max="7684" width="3.7109375" style="2" customWidth="1"/>
+    <col min="7685" max="7685" width="3.85546875" style="2" customWidth="1"/>
     <col min="7686" max="7686" width="3" style="2" customWidth="1"/>
-    <col min="7687" max="7687" width="3.59765625" style="2" customWidth="1"/>
+    <col min="7687" max="7687" width="3.5703125" style="2" customWidth="1"/>
     <col min="7688" max="7688" width="4" style="2" customWidth="1"/>
     <col min="7689" max="7689" width="3" style="2" customWidth="1"/>
     <col min="7690" max="7690" width="4" style="2" customWidth="1"/>
-    <col min="7691" max="7691" width="3.3984375" style="2" customWidth="1"/>
-    <col min="7692" max="7692" width="3.73046875" style="2" customWidth="1"/>
-    <col min="7693" max="7693" width="2.86328125" style="2" customWidth="1"/>
-    <col min="7694" max="7694" width="3.1328125" style="2" customWidth="1"/>
-    <col min="7695" max="7695" width="12.265625" style="2" customWidth="1"/>
-    <col min="7696" max="7696" width="9.1328125" style="2"/>
-    <col min="7697" max="7697" width="42.1328125" style="2" customWidth="1"/>
-    <col min="7698" max="7936" width="9.1328125" style="2"/>
-    <col min="7937" max="7937" width="30.1328125" style="2" customWidth="1"/>
-    <col min="7938" max="7938" width="3.265625" style="2" customWidth="1"/>
-    <col min="7939" max="7939" width="3.59765625" style="2" customWidth="1"/>
-    <col min="7940" max="7940" width="3.73046875" style="2" customWidth="1"/>
-    <col min="7941" max="7941" width="3.86328125" style="2" customWidth="1"/>
+    <col min="7691" max="7691" width="3.42578125" style="2" customWidth="1"/>
+    <col min="7692" max="7692" width="3.7109375" style="2" customWidth="1"/>
+    <col min="7693" max="7693" width="2.85546875" style="2" customWidth="1"/>
+    <col min="7694" max="7694" width="3.140625" style="2" customWidth="1"/>
+    <col min="7695" max="7695" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7696" max="7696" width="9.140625" style="2"/>
+    <col min="7697" max="7697" width="42.140625" style="2" customWidth="1"/>
+    <col min="7698" max="7936" width="9.140625" style="2"/>
+    <col min="7937" max="7937" width="30.140625" style="2" customWidth="1"/>
+    <col min="7938" max="7938" width="3.28515625" style="2" customWidth="1"/>
+    <col min="7939" max="7939" width="3.5703125" style="2" customWidth="1"/>
+    <col min="7940" max="7940" width="3.7109375" style="2" customWidth="1"/>
+    <col min="7941" max="7941" width="3.85546875" style="2" customWidth="1"/>
     <col min="7942" max="7942" width="3" style="2" customWidth="1"/>
-    <col min="7943" max="7943" width="3.59765625" style="2" customWidth="1"/>
+    <col min="7943" max="7943" width="3.5703125" style="2" customWidth="1"/>
     <col min="7944" max="7944" width="4" style="2" customWidth="1"/>
     <col min="7945" max="7945" width="3" style="2" customWidth="1"/>
     <col min="7946" max="7946" width="4" style="2" customWidth="1"/>
-    <col min="7947" max="7947" width="3.3984375" style="2" customWidth="1"/>
-    <col min="7948" max="7948" width="3.73046875" style="2" customWidth="1"/>
-    <col min="7949" max="7949" width="2.86328125" style="2" customWidth="1"/>
-    <col min="7950" max="7950" width="3.1328125" style="2" customWidth="1"/>
-    <col min="7951" max="7951" width="12.265625" style="2" customWidth="1"/>
-    <col min="7952" max="7952" width="9.1328125" style="2"/>
-    <col min="7953" max="7953" width="42.1328125" style="2" customWidth="1"/>
-    <col min="7954" max="8192" width="9.1328125" style="2"/>
-    <col min="8193" max="8193" width="30.1328125" style="2" customWidth="1"/>
-    <col min="8194" max="8194" width="3.265625" style="2" customWidth="1"/>
-    <col min="8195" max="8195" width="3.59765625" style="2" customWidth="1"/>
-    <col min="8196" max="8196" width="3.73046875" style="2" customWidth="1"/>
-    <col min="8197" max="8197" width="3.86328125" style="2" customWidth="1"/>
+    <col min="7947" max="7947" width="3.42578125" style="2" customWidth="1"/>
+    <col min="7948" max="7948" width="3.7109375" style="2" customWidth="1"/>
+    <col min="7949" max="7949" width="2.85546875" style="2" customWidth="1"/>
+    <col min="7950" max="7950" width="3.140625" style="2" customWidth="1"/>
+    <col min="7951" max="7951" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7952" max="7952" width="9.140625" style="2"/>
+    <col min="7953" max="7953" width="42.140625" style="2" customWidth="1"/>
+    <col min="7954" max="8192" width="9.140625" style="2"/>
+    <col min="8193" max="8193" width="30.140625" style="2" customWidth="1"/>
+    <col min="8194" max="8194" width="3.28515625" style="2" customWidth="1"/>
+    <col min="8195" max="8195" width="3.5703125" style="2" customWidth="1"/>
+    <col min="8196" max="8196" width="3.7109375" style="2" customWidth="1"/>
+    <col min="8197" max="8197" width="3.85546875" style="2" customWidth="1"/>
     <col min="8198" max="8198" width="3" style="2" customWidth="1"/>
-    <col min="8199" max="8199" width="3.59765625" style="2" customWidth="1"/>
+    <col min="8199" max="8199" width="3.5703125" style="2" customWidth="1"/>
     <col min="8200" max="8200" width="4" style="2" customWidth="1"/>
     <col min="8201" max="8201" width="3" style="2" customWidth="1"/>
     <col min="8202" max="8202" width="4" style="2" customWidth="1"/>
-    <col min="8203" max="8203" width="3.3984375" style="2" customWidth="1"/>
-    <col min="8204" max="8204" width="3.73046875" style="2" customWidth="1"/>
-    <col min="8205" max="8205" width="2.86328125" style="2" customWidth="1"/>
-    <col min="8206" max="8206" width="3.1328125" style="2" customWidth="1"/>
-    <col min="8207" max="8207" width="12.265625" style="2" customWidth="1"/>
-    <col min="8208" max="8208" width="9.1328125" style="2"/>
-    <col min="8209" max="8209" width="42.1328125" style="2" customWidth="1"/>
-    <col min="8210" max="8448" width="9.1328125" style="2"/>
-    <col min="8449" max="8449" width="30.1328125" style="2" customWidth="1"/>
-    <col min="8450" max="8450" width="3.265625" style="2" customWidth="1"/>
-    <col min="8451" max="8451" width="3.59765625" style="2" customWidth="1"/>
-    <col min="8452" max="8452" width="3.73046875" style="2" customWidth="1"/>
-    <col min="8453" max="8453" width="3.86328125" style="2" customWidth="1"/>
+    <col min="8203" max="8203" width="3.42578125" style="2" customWidth="1"/>
+    <col min="8204" max="8204" width="3.7109375" style="2" customWidth="1"/>
+    <col min="8205" max="8205" width="2.85546875" style="2" customWidth="1"/>
+    <col min="8206" max="8206" width="3.140625" style="2" customWidth="1"/>
+    <col min="8207" max="8207" width="12.28515625" style="2" customWidth="1"/>
+    <col min="8208" max="8208" width="9.140625" style="2"/>
+    <col min="8209" max="8209" width="42.140625" style="2" customWidth="1"/>
+    <col min="8210" max="8448" width="9.140625" style="2"/>
+    <col min="8449" max="8449" width="30.140625" style="2" customWidth="1"/>
+    <col min="8450" max="8450" width="3.28515625" style="2" customWidth="1"/>
+    <col min="8451" max="8451" width="3.5703125" style="2" customWidth="1"/>
+    <col min="8452" max="8452" width="3.7109375" style="2" customWidth="1"/>
+    <col min="8453" max="8453" width="3.85546875" style="2" customWidth="1"/>
     <col min="8454" max="8454" width="3" style="2" customWidth="1"/>
-    <col min="8455" max="8455" width="3.59765625" style="2" customWidth="1"/>
+    <col min="8455" max="8455" width="3.5703125" style="2" customWidth="1"/>
     <col min="8456" max="8456" width="4" style="2" customWidth="1"/>
     <col min="8457" max="8457" width="3" style="2" customWidth="1"/>
     <col min="8458" max="8458" width="4" style="2" customWidth="1"/>
-    <col min="8459" max="8459" width="3.3984375" style="2" customWidth="1"/>
-    <col min="8460" max="8460" width="3.73046875" style="2" customWidth="1"/>
-    <col min="8461" max="8461" width="2.86328125" style="2" customWidth="1"/>
-    <col min="8462" max="8462" width="3.1328125" style="2" customWidth="1"/>
-    <col min="8463" max="8463" width="12.265625" style="2" customWidth="1"/>
-    <col min="8464" max="8464" width="9.1328125" style="2"/>
-    <col min="8465" max="8465" width="42.1328125" style="2" customWidth="1"/>
-    <col min="8466" max="8704" width="9.1328125" style="2"/>
-    <col min="8705" max="8705" width="30.1328125" style="2" customWidth="1"/>
-    <col min="8706" max="8706" width="3.265625" style="2" customWidth="1"/>
-    <col min="8707" max="8707" width="3.59765625" style="2" customWidth="1"/>
-    <col min="8708" max="8708" width="3.73046875" style="2" customWidth="1"/>
-    <col min="8709" max="8709" width="3.86328125" style="2" customWidth="1"/>
+    <col min="8459" max="8459" width="3.42578125" style="2" customWidth="1"/>
+    <col min="8460" max="8460" width="3.7109375" style="2" customWidth="1"/>
+    <col min="8461" max="8461" width="2.85546875" style="2" customWidth="1"/>
+    <col min="8462" max="8462" width="3.140625" style="2" customWidth="1"/>
+    <col min="8463" max="8463" width="12.28515625" style="2" customWidth="1"/>
+    <col min="8464" max="8464" width="9.140625" style="2"/>
+    <col min="8465" max="8465" width="42.140625" style="2" customWidth="1"/>
+    <col min="8466" max="8704" width="9.140625" style="2"/>
+    <col min="8705" max="8705" width="30.140625" style="2" customWidth="1"/>
+    <col min="8706" max="8706" width="3.28515625" style="2" customWidth="1"/>
+    <col min="8707" max="8707" width="3.5703125" style="2" customWidth="1"/>
+    <col min="8708" max="8708" width="3.7109375" style="2" customWidth="1"/>
+    <col min="8709" max="8709" width="3.85546875" style="2" customWidth="1"/>
     <col min="8710" max="8710" width="3" style="2" customWidth="1"/>
-    <col min="8711" max="8711" width="3.59765625" style="2" customWidth="1"/>
+    <col min="8711" max="8711" width="3.5703125" style="2" customWidth="1"/>
     <col min="8712" max="8712" width="4" style="2" customWidth="1"/>
     <col min="8713" max="8713" width="3" style="2" customWidth="1"/>
     <col min="8714" max="8714" width="4" style="2" customWidth="1"/>
-    <col min="8715" max="8715" width="3.3984375" style="2" customWidth="1"/>
-    <col min="8716" max="8716" width="3.73046875" style="2" customWidth="1"/>
-    <col min="8717" max="8717" width="2.86328125" style="2" customWidth="1"/>
-    <col min="8718" max="8718" width="3.1328125" style="2" customWidth="1"/>
-    <col min="8719" max="8719" width="12.265625" style="2" customWidth="1"/>
-    <col min="8720" max="8720" width="9.1328125" style="2"/>
-    <col min="8721" max="8721" width="42.1328125" style="2" customWidth="1"/>
-    <col min="8722" max="8960" width="9.1328125" style="2"/>
-    <col min="8961" max="8961" width="30.1328125" style="2" customWidth="1"/>
-    <col min="8962" max="8962" width="3.265625" style="2" customWidth="1"/>
-    <col min="8963" max="8963" width="3.59765625" style="2" customWidth="1"/>
-    <col min="8964" max="8964" width="3.73046875" style="2" customWidth="1"/>
-    <col min="8965" max="8965" width="3.86328125" style="2" customWidth="1"/>
+    <col min="8715" max="8715" width="3.42578125" style="2" customWidth="1"/>
+    <col min="8716" max="8716" width="3.7109375" style="2" customWidth="1"/>
+    <col min="8717" max="8717" width="2.85546875" style="2" customWidth="1"/>
+    <col min="8718" max="8718" width="3.140625" style="2" customWidth="1"/>
+    <col min="8719" max="8719" width="12.28515625" style="2" customWidth="1"/>
+    <col min="8720" max="8720" width="9.140625" style="2"/>
+    <col min="8721" max="8721" width="42.140625" style="2" customWidth="1"/>
+    <col min="8722" max="8960" width="9.140625" style="2"/>
+    <col min="8961" max="8961" width="30.140625" style="2" customWidth="1"/>
+    <col min="8962" max="8962" width="3.28515625" style="2" customWidth="1"/>
+    <col min="8963" max="8963" width="3.5703125" style="2" customWidth="1"/>
+    <col min="8964" max="8964" width="3.7109375" style="2" customWidth="1"/>
+    <col min="8965" max="8965" width="3.85546875" style="2" customWidth="1"/>
     <col min="8966" max="8966" width="3" style="2" customWidth="1"/>
-    <col min="8967" max="8967" width="3.59765625" style="2" customWidth="1"/>
+    <col min="8967" max="8967" width="3.5703125" style="2" customWidth="1"/>
     <col min="8968" max="8968" width="4" style="2" customWidth="1"/>
     <col min="8969" max="8969" width="3" style="2" customWidth="1"/>
     <col min="8970" max="8970" width="4" style="2" customWidth="1"/>
-    <col min="8971" max="8971" width="3.3984375" style="2" customWidth="1"/>
-    <col min="8972" max="8972" width="3.73046875" style="2" customWidth="1"/>
-    <col min="8973" max="8973" width="2.86328125" style="2" customWidth="1"/>
-    <col min="8974" max="8974" width="3.1328125" style="2" customWidth="1"/>
-    <col min="8975" max="8975" width="12.265625" style="2" customWidth="1"/>
-    <col min="8976" max="8976" width="9.1328125" style="2"/>
-    <col min="8977" max="8977" width="42.1328125" style="2" customWidth="1"/>
-    <col min="8978" max="9216" width="9.1328125" style="2"/>
-    <col min="9217" max="9217" width="30.1328125" style="2" customWidth="1"/>
-    <col min="9218" max="9218" width="3.265625" style="2" customWidth="1"/>
-    <col min="9219" max="9219" width="3.59765625" style="2" customWidth="1"/>
-    <col min="9220" max="9220" width="3.73046875" style="2" customWidth="1"/>
-    <col min="9221" max="9221" width="3.86328125" style="2" customWidth="1"/>
+    <col min="8971" max="8971" width="3.42578125" style="2" customWidth="1"/>
+    <col min="8972" max="8972" width="3.7109375" style="2" customWidth="1"/>
+    <col min="8973" max="8973" width="2.85546875" style="2" customWidth="1"/>
+    <col min="8974" max="8974" width="3.140625" style="2" customWidth="1"/>
+    <col min="8975" max="8975" width="12.28515625" style="2" customWidth="1"/>
+    <col min="8976" max="8976" width="9.140625" style="2"/>
+    <col min="8977" max="8977" width="42.140625" style="2" customWidth="1"/>
+    <col min="8978" max="9216" width="9.140625" style="2"/>
+    <col min="9217" max="9217" width="30.140625" style="2" customWidth="1"/>
+    <col min="9218" max="9218" width="3.28515625" style="2" customWidth="1"/>
+    <col min="9219" max="9219" width="3.5703125" style="2" customWidth="1"/>
+    <col min="9220" max="9220" width="3.7109375" style="2" customWidth="1"/>
+    <col min="9221" max="9221" width="3.85546875" style="2" customWidth="1"/>
     <col min="9222" max="9222" width="3" style="2" customWidth="1"/>
-    <col min="9223" max="9223" width="3.59765625" style="2" customWidth="1"/>
+    <col min="9223" max="9223" width="3.5703125" style="2" customWidth="1"/>
     <col min="9224" max="9224" width="4" style="2" customWidth="1"/>
     <col min="9225" max="9225" width="3" style="2" customWidth="1"/>
     <col min="9226" max="9226" width="4" style="2" customWidth="1"/>
-    <col min="9227" max="9227" width="3.3984375" style="2" customWidth="1"/>
-    <col min="9228" max="9228" width="3.73046875" style="2" customWidth="1"/>
-    <col min="9229" max="9229" width="2.86328125" style="2" customWidth="1"/>
-    <col min="9230" max="9230" width="3.1328125" style="2" customWidth="1"/>
-    <col min="9231" max="9231" width="12.265625" style="2" customWidth="1"/>
-    <col min="9232" max="9232" width="9.1328125" style="2"/>
-    <col min="9233" max="9233" width="42.1328125" style="2" customWidth="1"/>
-    <col min="9234" max="9472" width="9.1328125" style="2"/>
-    <col min="9473" max="9473" width="30.1328125" style="2" customWidth="1"/>
-    <col min="9474" max="9474" width="3.265625" style="2" customWidth="1"/>
-    <col min="9475" max="9475" width="3.59765625" style="2" customWidth="1"/>
-    <col min="9476" max="9476" width="3.73046875" style="2" customWidth="1"/>
-    <col min="9477" max="9477" width="3.86328125" style="2" customWidth="1"/>
+    <col min="9227" max="9227" width="3.42578125" style="2" customWidth="1"/>
+    <col min="9228" max="9228" width="3.7109375" style="2" customWidth="1"/>
+    <col min="9229" max="9229" width="2.85546875" style="2" customWidth="1"/>
+    <col min="9230" max="9230" width="3.140625" style="2" customWidth="1"/>
+    <col min="9231" max="9231" width="12.28515625" style="2" customWidth="1"/>
+    <col min="9232" max="9232" width="9.140625" style="2"/>
+    <col min="9233" max="9233" width="42.140625" style="2" customWidth="1"/>
+    <col min="9234" max="9472" width="9.140625" style="2"/>
+    <col min="9473" max="9473" width="30.140625" style="2" customWidth="1"/>
+    <col min="9474" max="9474" width="3.28515625" style="2" customWidth="1"/>
+    <col min="9475" max="9475" width="3.5703125" style="2" customWidth="1"/>
+    <col min="9476" max="9476" width="3.7109375" style="2" customWidth="1"/>
+    <col min="9477" max="9477" width="3.85546875" style="2" customWidth="1"/>
     <col min="9478" max="9478" width="3" style="2" customWidth="1"/>
-    <col min="9479" max="9479" width="3.59765625" style="2" customWidth="1"/>
+    <col min="9479" max="9479" width="3.5703125" style="2" customWidth="1"/>
     <col min="9480" max="9480" width="4" style="2" customWidth="1"/>
     <col min="9481" max="9481" width="3" style="2" customWidth="1"/>
     <col min="9482" max="9482" width="4" style="2" customWidth="1"/>
-    <col min="9483" max="9483" width="3.3984375" style="2" customWidth="1"/>
-    <col min="9484" max="9484" width="3.73046875" style="2" customWidth="1"/>
-    <col min="9485" max="9485" width="2.86328125" style="2" customWidth="1"/>
-    <col min="9486" max="9486" width="3.1328125" style="2" customWidth="1"/>
-    <col min="9487" max="9487" width="12.265625" style="2" customWidth="1"/>
-    <col min="9488" max="9488" width="9.1328125" style="2"/>
-    <col min="9489" max="9489" width="42.1328125" style="2" customWidth="1"/>
-    <col min="9490" max="9728" width="9.1328125" style="2"/>
-    <col min="9729" max="9729" width="30.1328125" style="2" customWidth="1"/>
-    <col min="9730" max="9730" width="3.265625" style="2" customWidth="1"/>
-    <col min="9731" max="9731" width="3.59765625" style="2" customWidth="1"/>
-    <col min="9732" max="9732" width="3.73046875" style="2" customWidth="1"/>
-    <col min="9733" max="9733" width="3.86328125" style="2" customWidth="1"/>
+    <col min="9483" max="9483" width="3.42578125" style="2" customWidth="1"/>
+    <col min="9484" max="9484" width="3.7109375" style="2" customWidth="1"/>
+    <col min="9485" max="9485" width="2.85546875" style="2" customWidth="1"/>
+    <col min="9486" max="9486" width="3.140625" style="2" customWidth="1"/>
+    <col min="9487" max="9487" width="12.28515625" style="2" customWidth="1"/>
+    <col min="9488" max="9488" width="9.140625" style="2"/>
+    <col min="9489" max="9489" width="42.140625" style="2" customWidth="1"/>
+    <col min="9490" max="9728" width="9.140625" style="2"/>
+    <col min="9729" max="9729" width="30.140625" style="2" customWidth="1"/>
+    <col min="9730" max="9730" width="3.28515625" style="2" customWidth="1"/>
+    <col min="9731" max="9731" width="3.5703125" style="2" customWidth="1"/>
+    <col min="9732" max="9732" width="3.7109375" style="2" customWidth="1"/>
+    <col min="9733" max="9733" width="3.85546875" style="2" customWidth="1"/>
     <col min="9734" max="9734" width="3" style="2" customWidth="1"/>
-    <col min="9735" max="9735" width="3.59765625" style="2" customWidth="1"/>
+    <col min="9735" max="9735" width="3.5703125" style="2" customWidth="1"/>
     <col min="9736" max="9736" width="4" style="2" customWidth="1"/>
     <col min="9737" max="9737" width="3" style="2" customWidth="1"/>
     <col min="9738" max="9738" width="4" style="2" customWidth="1"/>
-    <col min="9739" max="9739" width="3.3984375" style="2" customWidth="1"/>
-    <col min="9740" max="9740" width="3.73046875" style="2" customWidth="1"/>
-    <col min="9741" max="9741" width="2.86328125" style="2" customWidth="1"/>
-    <col min="9742" max="9742" width="3.1328125" style="2" customWidth="1"/>
-    <col min="9743" max="9743" width="12.265625" style="2" customWidth="1"/>
-    <col min="9744" max="9744" width="9.1328125" style="2"/>
-    <col min="9745" max="9745" width="42.1328125" style="2" customWidth="1"/>
-    <col min="9746" max="9984" width="9.1328125" style="2"/>
-    <col min="9985" max="9985" width="30.1328125" style="2" customWidth="1"/>
-    <col min="9986" max="9986" width="3.265625" style="2" customWidth="1"/>
-    <col min="9987" max="9987" width="3.59765625" style="2" customWidth="1"/>
-    <col min="9988" max="9988" width="3.73046875" style="2" customWidth="1"/>
-    <col min="9989" max="9989" width="3.86328125" style="2" customWidth="1"/>
+    <col min="9739" max="9739" width="3.42578125" style="2" customWidth="1"/>
+    <col min="9740" max="9740" width="3.7109375" style="2" customWidth="1"/>
+    <col min="9741" max="9741" width="2.85546875" style="2" customWidth="1"/>
+    <col min="9742" max="9742" width="3.140625" style="2" customWidth="1"/>
+    <col min="9743" max="9743" width="12.28515625" style="2" customWidth="1"/>
+    <col min="9744" max="9744" width="9.140625" style="2"/>
+    <col min="9745" max="9745" width="42.140625" style="2" customWidth="1"/>
+    <col min="9746" max="9984" width="9.140625" style="2"/>
+    <col min="9985" max="9985" width="30.140625" style="2" customWidth="1"/>
+    <col min="9986" max="9986" width="3.28515625" style="2" customWidth="1"/>
+    <col min="9987" max="9987" width="3.5703125" style="2" customWidth="1"/>
+    <col min="9988" max="9988" width="3.7109375" style="2" customWidth="1"/>
+    <col min="9989" max="9989" width="3.85546875" style="2" customWidth="1"/>
     <col min="9990" max="9990" width="3" style="2" customWidth="1"/>
-    <col min="9991" max="9991" width="3.59765625" style="2" customWidth="1"/>
+    <col min="9991" max="9991" width="3.5703125" style="2" customWidth="1"/>
     <col min="9992" max="9992" width="4" style="2" customWidth="1"/>
     <col min="9993" max="9993" width="3" style="2" customWidth="1"/>
     <col min="9994" max="9994" width="4" style="2" customWidth="1"/>
-    <col min="9995" max="9995" width="3.3984375" style="2" customWidth="1"/>
-    <col min="9996" max="9996" width="3.73046875" style="2" customWidth="1"/>
-    <col min="9997" max="9997" width="2.86328125" style="2" customWidth="1"/>
-    <col min="9998" max="9998" width="3.1328125" style="2" customWidth="1"/>
-    <col min="9999" max="9999" width="12.265625" style="2" customWidth="1"/>
-    <col min="10000" max="10000" width="9.1328125" style="2"/>
-    <col min="10001" max="10001" width="42.1328125" style="2" customWidth="1"/>
-    <col min="10002" max="10240" width="9.1328125" style="2"/>
-    <col min="10241" max="10241" width="30.1328125" style="2" customWidth="1"/>
-    <col min="10242" max="10242" width="3.265625" style="2" customWidth="1"/>
-    <col min="10243" max="10243" width="3.59765625" style="2" customWidth="1"/>
-    <col min="10244" max="10244" width="3.73046875" style="2" customWidth="1"/>
-    <col min="10245" max="10245" width="3.86328125" style="2" customWidth="1"/>
+    <col min="9995" max="9995" width="3.42578125" style="2" customWidth="1"/>
+    <col min="9996" max="9996" width="3.7109375" style="2" customWidth="1"/>
+    <col min="9997" max="9997" width="2.85546875" style="2" customWidth="1"/>
+    <col min="9998" max="9998" width="3.140625" style="2" customWidth="1"/>
+    <col min="9999" max="9999" width="12.28515625" style="2" customWidth="1"/>
+    <col min="10000" max="10000" width="9.140625" style="2"/>
+    <col min="10001" max="10001" width="42.140625" style="2" customWidth="1"/>
+    <col min="10002" max="10240" width="9.140625" style="2"/>
+    <col min="10241" max="10241" width="30.140625" style="2" customWidth="1"/>
+    <col min="10242" max="10242" width="3.28515625" style="2" customWidth="1"/>
+    <col min="10243" max="10243" width="3.5703125" style="2" customWidth="1"/>
+    <col min="10244" max="10244" width="3.7109375" style="2" customWidth="1"/>
+    <col min="10245" max="10245" width="3.85546875" style="2" customWidth="1"/>
     <col min="10246" max="10246" width="3" style="2" customWidth="1"/>
-    <col min="10247" max="10247" width="3.59765625" style="2" customWidth="1"/>
+    <col min="10247" max="10247" width="3.5703125" style="2" customWidth="1"/>
     <col min="10248" max="10248" width="4" style="2" customWidth="1"/>
     <col min="10249" max="10249" width="3" style="2" customWidth="1"/>
     <col min="10250" max="10250" width="4" style="2" customWidth="1"/>
-    <col min="10251" max="10251" width="3.3984375" style="2" customWidth="1"/>
-    <col min="10252" max="10252" width="3.73046875" style="2" customWidth="1"/>
-    <col min="10253" max="10253" width="2.86328125" style="2" customWidth="1"/>
-    <col min="10254" max="10254" width="3.1328125" style="2" customWidth="1"/>
-    <col min="10255" max="10255" width="12.265625" style="2" customWidth="1"/>
-    <col min="10256" max="10256" width="9.1328125" style="2"/>
-    <col min="10257" max="10257" width="42.1328125" style="2" customWidth="1"/>
-    <col min="10258" max="10496" width="9.1328125" style="2"/>
-    <col min="10497" max="10497" width="30.1328125" style="2" customWidth="1"/>
-    <col min="10498" max="10498" width="3.265625" style="2" customWidth="1"/>
-    <col min="10499" max="10499" width="3.59765625" style="2" customWidth="1"/>
-    <col min="10500" max="10500" width="3.73046875" style="2" customWidth="1"/>
-    <col min="10501" max="10501" width="3.86328125" style="2" customWidth="1"/>
+    <col min="10251" max="10251" width="3.42578125" style="2" customWidth="1"/>
+    <col min="10252" max="10252" width="3.7109375" style="2" customWidth="1"/>
+    <col min="10253" max="10253" width="2.85546875" style="2" customWidth="1"/>
+    <col min="10254" max="10254" width="3.140625" style="2" customWidth="1"/>
+    <col min="10255" max="10255" width="12.28515625" style="2" customWidth="1"/>
+    <col min="10256" max="10256" width="9.140625" style="2"/>
+    <col min="10257" max="10257" width="42.140625" style="2" customWidth="1"/>
+    <col min="10258" max="10496" width="9.140625" style="2"/>
+    <col min="10497" max="10497" width="30.140625" style="2" customWidth="1"/>
+    <col min="10498" max="10498" width="3.28515625" style="2" customWidth="1"/>
+    <col min="10499" max="10499" width="3.5703125" style="2" customWidth="1"/>
+    <col min="10500" max="10500" width="3.7109375" style="2" customWidth="1"/>
+    <col min="10501" max="10501" width="3.85546875" style="2" customWidth="1"/>
     <col min="10502" max="10502" width="3" style="2" customWidth="1"/>
-    <col min="10503" max="10503" width="3.59765625" style="2" customWidth="1"/>
+    <col min="10503" max="10503" width="3.5703125" style="2" customWidth="1"/>
     <col min="10504" max="10504" width="4" style="2" customWidth="1"/>
     <col min="10505" max="10505" width="3" style="2" customWidth="1"/>
     <col min="10506" max="10506" width="4" style="2" customWidth="1"/>
-    <col min="10507" max="10507" width="3.3984375" style="2" customWidth="1"/>
-    <col min="10508" max="10508" width="3.73046875" style="2" customWidth="1"/>
-    <col min="10509" max="10509" width="2.86328125" style="2" customWidth="1"/>
-    <col min="10510" max="10510" width="3.1328125" style="2" customWidth="1"/>
-    <col min="10511" max="10511" width="12.265625" style="2" customWidth="1"/>
-    <col min="10512" max="10512" width="9.1328125" style="2"/>
-    <col min="10513" max="10513" width="42.1328125" style="2" customWidth="1"/>
-    <col min="10514" max="10752" width="9.1328125" style="2"/>
-    <col min="10753" max="10753" width="30.1328125" style="2" customWidth="1"/>
-    <col min="10754" max="10754" width="3.265625" style="2" customWidth="1"/>
-    <col min="10755" max="10755" width="3.59765625" style="2" customWidth="1"/>
-    <col min="10756" max="10756" width="3.73046875" style="2" customWidth="1"/>
-    <col min="10757" max="10757" width="3.86328125" style="2" customWidth="1"/>
+    <col min="10507" max="10507" width="3.42578125" style="2" customWidth="1"/>
+    <col min="10508" max="10508" width="3.7109375" style="2" customWidth="1"/>
+    <col min="10509" max="10509" width="2.85546875" style="2" customWidth="1"/>
+    <col min="10510" max="10510" width="3.140625" style="2" customWidth="1"/>
+    <col min="10511" max="10511" width="12.28515625" style="2" customWidth="1"/>
+    <col min="10512" max="10512" width="9.140625" style="2"/>
+    <col min="10513" max="10513" width="42.140625" style="2" customWidth="1"/>
+    <col min="10514" max="10752" width="9.140625" style="2"/>
+    <col min="10753" max="10753" width="30.140625" style="2" customWidth="1"/>
+    <col min="10754" max="10754" width="3.28515625" style="2" customWidth="1"/>
+    <col min="10755" max="10755" width="3.5703125" style="2" customWidth="1"/>
+    <col min="10756" max="10756" width="3.7109375" style="2" customWidth="1"/>
+    <col min="10757" max="10757" width="3.85546875" style="2" customWidth="1"/>
     <col min="10758" max="10758" width="3" style="2" customWidth="1"/>
-    <col min="10759" max="10759" width="3.59765625" style="2" customWidth="1"/>
+    <col min="10759" max="10759" width="3.5703125" style="2" customWidth="1"/>
     <col min="10760" max="10760" width="4" style="2" customWidth="1"/>
     <col min="10761" max="10761" width="3" style="2" customWidth="1"/>
     <col min="10762" max="10762" width="4" style="2" customWidth="1"/>
-    <col min="10763" max="10763" width="3.3984375" style="2" customWidth="1"/>
-    <col min="10764" max="10764" width="3.73046875" style="2" customWidth="1"/>
-    <col min="10765" max="10765" width="2.86328125" style="2" customWidth="1"/>
-    <col min="10766" max="10766" width="3.1328125" style="2" customWidth="1"/>
-    <col min="10767" max="10767" width="12.265625" style="2" customWidth="1"/>
-    <col min="10768" max="10768" width="9.1328125" style="2"/>
-    <col min="10769" max="10769" width="42.1328125" style="2" customWidth="1"/>
-    <col min="10770" max="11008" width="9.1328125" style="2"/>
-    <col min="11009" max="11009" width="30.1328125" style="2" customWidth="1"/>
-    <col min="11010" max="11010" width="3.265625" style="2" customWidth="1"/>
-    <col min="11011" max="11011" width="3.59765625" style="2" customWidth="1"/>
-    <col min="11012" max="11012" width="3.73046875" style="2" customWidth="1"/>
-    <col min="11013" max="11013" width="3.86328125" style="2" customWidth="1"/>
+    <col min="10763" max="10763" width="3.42578125" style="2" customWidth="1"/>
+    <col min="10764" max="10764" width="3.7109375" style="2" customWidth="1"/>
+    <col min="10765" max="10765" width="2.85546875" style="2" customWidth="1"/>
+    <col min="10766" max="10766" width="3.140625" style="2" customWidth="1"/>
+    <col min="10767" max="10767" width="12.28515625" style="2" customWidth="1"/>
+    <col min="10768" max="10768" width="9.140625" style="2"/>
+    <col min="10769" max="10769" width="42.140625" style="2" customWidth="1"/>
+    <col min="10770" max="11008" width="9.140625" style="2"/>
+    <col min="11009" max="11009" width="30.140625" style="2" customWidth="1"/>
+    <col min="11010" max="11010" width="3.28515625" style="2" customWidth="1"/>
+    <col min="11011" max="11011" width="3.5703125" style="2" customWidth="1"/>
+    <col min="11012" max="11012" width="3.7109375" style="2" customWidth="1"/>
+    <col min="11013" max="11013" width="3.85546875" style="2" customWidth="1"/>
     <col min="11014" max="11014" width="3" style="2" customWidth="1"/>
-    <col min="11015" max="11015" width="3.59765625" style="2" customWidth="1"/>
+    <col min="11015" max="11015" width="3.5703125" style="2" customWidth="1"/>
     <col min="11016" max="11016" width="4" style="2" customWidth="1"/>
     <col min="11017" max="11017" width="3" style="2" customWidth="1"/>
     <col min="11018" max="11018" width="4" style="2" customWidth="1"/>
-    <col min="11019" max="11019" width="3.3984375" style="2" customWidth="1"/>
-    <col min="11020" max="11020" width="3.73046875" style="2" customWidth="1"/>
-    <col min="11021" max="11021" width="2.86328125" style="2" customWidth="1"/>
-    <col min="11022" max="11022" width="3.1328125" style="2" customWidth="1"/>
-    <col min="11023" max="11023" width="12.265625" style="2" customWidth="1"/>
-    <col min="11024" max="11024" width="9.1328125" style="2"/>
-    <col min="11025" max="11025" width="42.1328125" style="2" customWidth="1"/>
-    <col min="11026" max="11264" width="9.1328125" style="2"/>
-    <col min="11265" max="11265" width="30.1328125" style="2" customWidth="1"/>
-    <col min="11266" max="11266" width="3.265625" style="2" customWidth="1"/>
-    <col min="11267" max="11267" width="3.59765625" style="2" customWidth="1"/>
-    <col min="11268" max="11268" width="3.73046875" style="2" customWidth="1"/>
-    <col min="11269" max="11269" width="3.86328125" style="2" customWidth="1"/>
+    <col min="11019" max="11019" width="3.42578125" style="2" customWidth="1"/>
+    <col min="11020" max="11020" width="3.7109375" style="2" customWidth="1"/>
+    <col min="11021" max="11021" width="2.85546875" style="2" customWidth="1"/>
+    <col min="11022" max="11022" width="3.140625" style="2" customWidth="1"/>
+    <col min="11023" max="11023" width="12.28515625" style="2" customWidth="1"/>
+    <col min="11024" max="11024" width="9.140625" style="2"/>
+    <col min="11025" max="11025" width="42.140625" style="2" customWidth="1"/>
+    <col min="11026" max="11264" width="9.140625" style="2"/>
+    <col min="11265" max="11265" width="30.140625" style="2" customWidth="1"/>
+    <col min="11266" max="11266" width="3.28515625" style="2" customWidth="1"/>
+    <col min="11267" max="11267" width="3.5703125" style="2" customWidth="1"/>
+    <col min="11268" max="11268" width="3.7109375" style="2" customWidth="1"/>
+    <col min="11269" max="11269" width="3.85546875" style="2" customWidth="1"/>
     <col min="11270" max="11270" width="3" style="2" customWidth="1"/>
-    <col min="11271" max="11271" width="3.59765625" style="2" customWidth="1"/>
+    <col min="11271" max="11271" width="3.5703125" style="2" customWidth="1"/>
     <col min="11272" max="11272" width="4" style="2" customWidth="1"/>
     <col min="11273" max="11273" width="3" style="2" customWidth="1"/>
     <col min="11274" max="11274" width="4" style="2" customWidth="1"/>
-    <col min="11275" max="11275" width="3.3984375" style="2" customWidth="1"/>
-    <col min="11276" max="11276" width="3.73046875" style="2" customWidth="1"/>
-    <col min="11277" max="11277" width="2.86328125" style="2" customWidth="1"/>
-    <col min="11278" max="11278" width="3.1328125" style="2" customWidth="1"/>
-    <col min="11279" max="11279" width="12.265625" style="2" customWidth="1"/>
-    <col min="11280" max="11280" width="9.1328125" style="2"/>
-    <col min="11281" max="11281" width="42.1328125" style="2" customWidth="1"/>
-    <col min="11282" max="11520" width="9.1328125" style="2"/>
-    <col min="11521" max="11521" width="30.1328125" style="2" customWidth="1"/>
-    <col min="11522" max="11522" width="3.265625" style="2" customWidth="1"/>
-    <col min="11523" max="11523" width="3.59765625" style="2" customWidth="1"/>
-    <col min="11524" max="11524" width="3.73046875" style="2" customWidth="1"/>
-    <col min="11525" max="11525" width="3.86328125" style="2" customWidth="1"/>
+    <col min="11275" max="11275" width="3.42578125" style="2" customWidth="1"/>
+    <col min="11276" max="11276" width="3.7109375" style="2" customWidth="1"/>
+    <col min="11277" max="11277" width="2.85546875" style="2" customWidth="1"/>
+    <col min="11278" max="11278" width="3.140625" style="2" customWidth="1"/>
+    <col min="11279" max="11279" width="12.28515625" style="2" customWidth="1"/>
+    <col min="11280" max="11280" width="9.140625" style="2"/>
+    <col min="11281" max="11281" width="42.140625" style="2" customWidth="1"/>
+    <col min="11282" max="11520" width="9.140625" style="2"/>
+    <col min="11521" max="11521" width="30.140625" style="2" customWidth="1"/>
+    <col min="11522" max="11522" width="3.28515625" style="2" customWidth="1"/>
+    <col min="11523" max="11523" width="3.5703125" style="2" customWidth="1"/>
+    <col min="11524" max="11524" width="3.7109375" style="2" customWidth="1"/>
+    <col min="11525" max="11525" width="3.85546875" style="2" customWidth="1"/>
     <col min="11526" max="11526" width="3" style="2" customWidth="1"/>
-    <col min="11527" max="11527" width="3.59765625" style="2" customWidth="1"/>
+    <col min="11527" max="11527" width="3.5703125" style="2" customWidth="1"/>
     <col min="11528" max="11528" width="4" style="2" customWidth="1"/>
     <col min="11529" max="11529" width="3" style="2" customWidth="1"/>
     <col min="11530" max="11530" width="4" style="2" customWidth="1"/>
-    <col min="11531" max="11531" width="3.3984375" style="2" customWidth="1"/>
-    <col min="11532" max="11532" width="3.73046875" style="2" customWidth="1"/>
-    <col min="11533" max="11533" width="2.86328125" style="2" customWidth="1"/>
-    <col min="11534" max="11534" width="3.1328125" style="2" customWidth="1"/>
-    <col min="11535" max="11535" width="12.265625" style="2" customWidth="1"/>
-    <col min="11536" max="11536" width="9.1328125" style="2"/>
-    <col min="11537" max="11537" width="42.1328125" style="2" customWidth="1"/>
-    <col min="11538" max="11776" width="9.1328125" style="2"/>
-    <col min="11777" max="11777" width="30.1328125" style="2" customWidth="1"/>
-    <col min="11778" max="11778" width="3.265625" style="2" customWidth="1"/>
-    <col min="11779" max="11779" width="3.59765625" style="2" customWidth="1"/>
-    <col min="11780" max="11780" width="3.73046875" style="2" customWidth="1"/>
-    <col min="11781" max="11781" width="3.86328125" style="2" customWidth="1"/>
+    <col min="11531" max="11531" width="3.42578125" style="2" customWidth="1"/>
+    <col min="11532" max="11532" width="3.7109375" style="2" customWidth="1"/>
+    <col min="11533" max="11533" width="2.85546875" style="2" customWidth="1"/>
+    <col min="11534" max="11534" width="3.140625" style="2" customWidth="1"/>
+    <col min="11535" max="11535" width="12.28515625" style="2" customWidth="1"/>
+    <col min="11536" max="11536" width="9.140625" style="2"/>
+    <col min="11537" max="11537" width="42.140625" style="2" customWidth="1"/>
+    <col min="11538" max="11776" width="9.140625" style="2"/>
+    <col min="11777" max="11777" width="30.140625" style="2" customWidth="1"/>
+    <col min="11778" max="11778" width="3.28515625" style="2" customWidth="1"/>
+    <col min="11779" max="11779" width="3.5703125" style="2" customWidth="1"/>
+    <col min="11780" max="11780" width="3.7109375" style="2" customWidth="1"/>
+    <col min="11781" max="11781" width="3.85546875" style="2" customWidth="1"/>
     <col min="11782" max="11782" width="3" style="2" customWidth="1"/>
-    <col min="11783" max="11783" width="3.59765625" style="2" customWidth="1"/>
+    <col min="11783" max="11783" width="3.5703125" style="2" customWidth="1"/>
     <col min="11784" max="11784" width="4" style="2" customWidth="1"/>
     <col min="11785" max="11785" width="3" style="2" customWidth="1"/>
     <col min="11786" max="11786" width="4" style="2" customWidth="1"/>
-    <col min="11787" max="11787" width="3.3984375" style="2" customWidth="1"/>
-    <col min="11788" max="11788" width="3.73046875" style="2" customWidth="1"/>
-    <col min="11789" max="11789" width="2.86328125" style="2" customWidth="1"/>
-    <col min="11790" max="11790" width="3.1328125" style="2" customWidth="1"/>
-    <col min="11791" max="11791" width="12.265625" style="2" customWidth="1"/>
-    <col min="11792" max="11792" width="9.1328125" style="2"/>
-    <col min="11793" max="11793" width="42.1328125" style="2" customWidth="1"/>
-    <col min="11794" max="12032" width="9.1328125" style="2"/>
-    <col min="12033" max="12033" width="30.1328125" style="2" customWidth="1"/>
-    <col min="12034" max="12034" width="3.265625" style="2" customWidth="1"/>
-    <col min="12035" max="12035" width="3.59765625" style="2" customWidth="1"/>
-    <col min="12036" max="12036" width="3.73046875" style="2" customWidth="1"/>
-    <col min="12037" max="12037" width="3.86328125" style="2" customWidth="1"/>
+    <col min="11787" max="11787" width="3.42578125" style="2" customWidth="1"/>
+    <col min="11788" max="11788" width="3.7109375" style="2" customWidth="1"/>
+    <col min="11789" max="11789" width="2.85546875" style="2" customWidth="1"/>
+    <col min="11790" max="11790" width="3.140625" style="2" customWidth="1"/>
+    <col min="11791" max="11791" width="12.28515625" style="2" customWidth="1"/>
+    <col min="11792" max="11792" width="9.140625" style="2"/>
+    <col min="11793" max="11793" width="42.140625" style="2" customWidth="1"/>
+    <col min="11794" max="12032" width="9.140625" style="2"/>
+    <col min="12033" max="12033" width="30.140625" style="2" customWidth="1"/>
+    <col min="12034" max="12034" width="3.28515625" style="2" customWidth="1"/>
+    <col min="12035" max="12035" width="3.5703125" style="2" customWidth="1"/>
+    <col min="12036" max="12036" width="3.7109375" style="2" customWidth="1"/>
+    <col min="12037" max="12037" width="3.85546875" style="2" customWidth="1"/>
     <col min="12038" max="12038" width="3" style="2" customWidth="1"/>
-    <col min="12039" max="12039" width="3.59765625" style="2" customWidth="1"/>
+    <col min="12039" max="12039" width="3.5703125" style="2" customWidth="1"/>
     <col min="12040" max="12040" width="4" style="2" customWidth="1"/>
     <col min="12041" max="12041" width="3" style="2" customWidth="1"/>
     <col min="12042" max="12042" width="4" style="2" customWidth="1"/>
-    <col min="12043" max="12043" width="3.3984375" style="2" customWidth="1"/>
-    <col min="12044" max="12044" width="3.73046875" style="2" customWidth="1"/>
-    <col min="12045" max="12045" width="2.86328125" style="2" customWidth="1"/>
-    <col min="12046" max="12046" width="3.1328125" style="2" customWidth="1"/>
-    <col min="12047" max="12047" width="12.265625" style="2" customWidth="1"/>
-    <col min="12048" max="12048" width="9.1328125" style="2"/>
-    <col min="12049" max="12049" width="42.1328125" style="2" customWidth="1"/>
-    <col min="12050" max="12288" width="9.1328125" style="2"/>
-    <col min="12289" max="12289" width="30.1328125" style="2" customWidth="1"/>
-    <col min="12290" max="12290" width="3.265625" style="2" customWidth="1"/>
-    <col min="12291" max="12291" width="3.59765625" style="2" customWidth="1"/>
-    <col min="12292" max="12292" width="3.73046875" style="2" customWidth="1"/>
-    <col min="12293" max="12293" width="3.86328125" style="2" customWidth="1"/>
+    <col min="12043" max="12043" width="3.42578125" style="2" customWidth="1"/>
+    <col min="12044" max="12044" width="3.7109375" style="2" customWidth="1"/>
+    <col min="12045" max="12045" width="2.85546875" style="2" customWidth="1"/>
+    <col min="12046" max="12046" width="3.140625" style="2" customWidth="1"/>
+    <col min="12047" max="12047" width="12.28515625" style="2" customWidth="1"/>
+    <col min="12048" max="12048" width="9.140625" style="2"/>
+    <col min="12049" max="12049" width="42.140625" style="2" customWidth="1"/>
+    <col min="12050" max="12288" width="9.140625" style="2"/>
+    <col min="12289" max="12289" width="30.140625" style="2" customWidth="1"/>
+    <col min="12290" max="12290" width="3.28515625" style="2" customWidth="1"/>
+    <col min="12291" max="12291" width="3.5703125" style="2" customWidth="1"/>
+    <col min="12292" max="12292" width="3.7109375" style="2" customWidth="1"/>
+    <col min="12293" max="12293" width="3.85546875" style="2" customWidth="1"/>
     <col min="12294" max="12294" width="3" style="2" customWidth="1"/>
-    <col min="12295" max="12295" width="3.59765625" style="2" customWidth="1"/>
+    <col min="12295" max="12295" width="3.5703125" style="2" customWidth="1"/>
     <col min="12296" max="12296" width="4" style="2" customWidth="1"/>
     <col min="12297" max="12297" width="3" style="2" customWidth="1"/>
     <col min="12298" max="12298" width="4" style="2" customWidth="1"/>
-    <col min="12299" max="12299" width="3.3984375" style="2" customWidth="1"/>
-    <col min="12300" max="12300" width="3.73046875" style="2" customWidth="1"/>
-    <col min="12301" max="12301" width="2.86328125" style="2" customWidth="1"/>
-    <col min="12302" max="12302" width="3.1328125" style="2" customWidth="1"/>
-    <col min="12303" max="12303" width="12.265625" style="2" customWidth="1"/>
-    <col min="12304" max="12304" width="9.1328125" style="2"/>
-    <col min="12305" max="12305" width="42.1328125" style="2" customWidth="1"/>
-    <col min="12306" max="12544" width="9.1328125" style="2"/>
-    <col min="12545" max="12545" width="30.1328125" style="2" customWidth="1"/>
-    <col min="12546" max="12546" width="3.265625" style="2" customWidth="1"/>
-    <col min="12547" max="12547" width="3.59765625" style="2" customWidth="1"/>
-    <col min="12548" max="12548" width="3.73046875" style="2" customWidth="1"/>
-    <col min="12549" max="12549" width="3.86328125" style="2" customWidth="1"/>
+    <col min="12299" max="12299" width="3.42578125" style="2" customWidth="1"/>
+    <col min="12300" max="12300" width="3.7109375" style="2" customWidth="1"/>
+    <col min="12301" max="12301" width="2.85546875" style="2" customWidth="1"/>
+    <col min="12302" max="12302" width="3.140625" style="2" customWidth="1"/>
+    <col min="12303" max="12303" width="12.28515625" style="2" customWidth="1"/>
+    <col min="12304" max="12304" width="9.140625" style="2"/>
+    <col min="12305" max="12305" width="42.140625" style="2" customWidth="1"/>
+    <col min="12306" max="12544" width="9.140625" style="2"/>
+    <col min="12545" max="12545" width="30.140625" style="2" customWidth="1"/>
+    <col min="12546" max="12546" width="3.28515625" style="2" customWidth="1"/>
+    <col min="12547" max="12547" width="3.5703125" style="2" customWidth="1"/>
+    <col min="12548" max="12548" width="3.7109375" style="2" customWidth="1"/>
+    <col min="12549" max="12549" width="3.85546875" style="2" customWidth="1"/>
     <col min="12550" max="12550" width="3" style="2" customWidth="1"/>
-    <col min="12551" max="12551" width="3.59765625" style="2" customWidth="1"/>
+    <col min="12551" max="12551" width="3.5703125" style="2" customWidth="1"/>
     <col min="12552" max="12552" width="4" style="2" customWidth="1"/>
     <col min="12553" max="12553" width="3" style="2" customWidth="1"/>
     <col min="12554" max="12554" width="4" style="2" customWidth="1"/>
-    <col min="12555" max="12555" width="3.3984375" style="2" customWidth="1"/>
-    <col min="12556" max="12556" width="3.73046875" style="2" customWidth="1"/>
-    <col min="12557" max="12557" width="2.86328125" style="2" customWidth="1"/>
-    <col min="12558" max="12558" width="3.1328125" style="2" customWidth="1"/>
-    <col min="12559" max="12559" width="12.265625" style="2" customWidth="1"/>
-    <col min="12560" max="12560" width="9.1328125" style="2"/>
-    <col min="12561" max="12561" width="42.1328125" style="2" customWidth="1"/>
-    <col min="12562" max="12800" width="9.1328125" style="2"/>
-    <col min="12801" max="12801" width="30.1328125" style="2" customWidth="1"/>
-    <col min="12802" max="12802" width="3.265625" style="2" customWidth="1"/>
-    <col min="12803" max="12803" width="3.59765625" style="2" customWidth="1"/>
-    <col min="12804" max="12804" width="3.73046875" style="2" customWidth="1"/>
-    <col min="12805" max="12805" width="3.86328125" style="2" customWidth="1"/>
+    <col min="12555" max="12555" width="3.42578125" style="2" customWidth="1"/>
+    <col min="12556" max="12556" width="3.7109375" style="2" customWidth="1"/>
+    <col min="12557" max="12557" width="2.85546875" style="2" customWidth="1"/>
+    <col min="12558" max="12558" width="3.140625" style="2" customWidth="1"/>
+    <col min="12559" max="12559" width="12.28515625" style="2" customWidth="1"/>
+    <col min="12560" max="12560" width="9.140625" style="2"/>
+    <col min="12561" max="12561" width="42.140625" style="2" customWidth="1"/>
+    <col min="12562" max="12800" width="9.140625" style="2"/>
+    <col min="12801" max="12801" width="30.140625" style="2" customWidth="1"/>
+    <col min="12802" max="12802" width="3.28515625" style="2" customWidth="1"/>
+    <col min="12803" max="12803" width="3.5703125" style="2" customWidth="1"/>
+    <col min="12804" max="12804" width="3.7109375" style="2" customWidth="1"/>
+    <col min="12805" max="12805" width="3.85546875" style="2" customWidth="1"/>
     <col min="12806" max="12806" width="3" style="2" customWidth="1"/>
-    <col min="12807" max="12807" width="3.59765625" style="2" customWidth="1"/>
+    <col min="12807" max="12807" width="3.5703125" style="2" customWidth="1"/>
     <col min="12808" max="12808" width="4" style="2" customWidth="1"/>
     <col min="12809" max="12809" width="3" style="2" customWidth="1"/>
     <col min="12810" max="12810" width="4" style="2" customWidth="1"/>
-    <col min="12811" max="12811" width="3.3984375" style="2" customWidth="1"/>
-    <col min="12812" max="12812" width="3.73046875" style="2" customWidth="1"/>
-    <col min="12813" max="12813" width="2.86328125" style="2" customWidth="1"/>
-    <col min="12814" max="12814" width="3.1328125" style="2" customWidth="1"/>
-    <col min="12815" max="12815" width="12.265625" style="2" customWidth="1"/>
-    <col min="12816" max="12816" width="9.1328125" style="2"/>
-    <col min="12817" max="12817" width="42.1328125" style="2" customWidth="1"/>
-    <col min="12818" max="13056" width="9.1328125" style="2"/>
-    <col min="13057" max="13057" width="30.1328125" style="2" customWidth="1"/>
-    <col min="13058" max="13058" width="3.265625" style="2" customWidth="1"/>
-    <col min="13059" max="13059" width="3.59765625" style="2" customWidth="1"/>
-    <col min="13060" max="13060" width="3.73046875" style="2" customWidth="1"/>
-    <col min="13061" max="13061" width="3.86328125" style="2" customWidth="1"/>
+    <col min="12811" max="12811" width="3.42578125" style="2" customWidth="1"/>
+    <col min="12812" max="12812" width="3.7109375" style="2" customWidth="1"/>
+    <col min="12813" max="12813" width="2.85546875" style="2" customWidth="1"/>
+    <col min="12814" max="12814" width="3.140625" style="2" customWidth="1"/>
+    <col min="12815" max="12815" width="12.28515625" style="2" customWidth="1"/>
+    <col min="12816" max="12816" width="9.140625" style="2"/>
+    <col min="12817" max="12817" width="42.140625" style="2" customWidth="1"/>
+    <col min="12818" max="13056" width="9.140625" style="2"/>
+    <col min="13057" max="13057" width="30.140625" style="2" customWidth="1"/>
+    <col min="13058" max="13058" width="3.28515625" style="2" customWidth="1"/>
+    <col min="13059" max="13059" width="3.5703125" style="2" customWidth="1"/>
+    <col min="13060" max="13060" width="3.7109375" style="2" customWidth="1"/>
+    <col min="13061" max="13061" width="3.85546875" style="2" customWidth="1"/>
     <col min="13062" max="13062" width="3" style="2" customWidth="1"/>
-    <col min="13063" max="13063" width="3.59765625" style="2" customWidth="1"/>
+    <col min="13063" max="13063" width="3.5703125" style="2" customWidth="1"/>
     <col min="13064" max="13064" width="4" style="2" customWidth="1"/>
     <col min="13065" max="13065" width="3" style="2" customWidth="1"/>
     <col min="13066" max="13066" width="4" style="2" customWidth="1"/>
-    <col min="13067" max="13067" width="3.3984375" style="2" customWidth="1"/>
-    <col min="13068" max="13068" width="3.73046875" style="2" customWidth="1"/>
-    <col min="13069" max="13069" width="2.86328125" style="2" customWidth="1"/>
-    <col min="13070" max="13070" width="3.1328125" style="2" customWidth="1"/>
-    <col min="13071" max="13071" width="12.265625" style="2" customWidth="1"/>
-    <col min="13072" max="13072" width="9.1328125" style="2"/>
-    <col min="13073" max="13073" width="42.1328125" style="2" customWidth="1"/>
-    <col min="13074" max="13312" width="9.1328125" style="2"/>
-    <col min="13313" max="13313" width="30.1328125" style="2" customWidth="1"/>
-    <col min="13314" max="13314" width="3.265625" style="2" customWidth="1"/>
-    <col min="13315" max="13315" width="3.59765625" style="2" customWidth="1"/>
-    <col min="13316" max="13316" width="3.73046875" style="2" customWidth="1"/>
-    <col min="13317" max="13317" width="3.86328125" style="2" customWidth="1"/>
+    <col min="13067" max="13067" width="3.42578125" style="2" customWidth="1"/>
+    <col min="13068" max="13068" width="3.7109375" style="2" customWidth="1"/>
+    <col min="13069" max="13069" width="2.85546875" style="2" customWidth="1"/>
+    <col min="13070" max="13070" width="3.140625" style="2" customWidth="1"/>
+    <col min="13071" max="13071" width="12.28515625" style="2" customWidth="1"/>
+    <col min="13072" max="13072" width="9.140625" style="2"/>
+    <col min="13073" max="13073" width="42.140625" style="2" customWidth="1"/>
+    <col min="13074" max="13312" width="9.140625" style="2"/>
+    <col min="13313" max="13313" width="30.140625" style="2" customWidth="1"/>
+    <col min="13314" max="13314" width="3.28515625" style="2" customWidth="1"/>
+    <col min="13315" max="13315" width="3.5703125" style="2" customWidth="1"/>
+    <col min="13316" max="13316" width="3.7109375" style="2" customWidth="1"/>
+    <col min="13317" max="13317" width="3.85546875" style="2" customWidth="1"/>
     <col min="13318" max="13318" width="3" style="2" customWidth="1"/>
-    <col min="13319" max="13319" width="3.59765625" style="2" customWidth="1"/>
+    <col min="13319" max="13319" width="3.5703125" style="2" customWidth="1"/>
     <col min="13320" max="13320" width="4" style="2" customWidth="1"/>
     <col min="13321" max="13321" width="3" style="2" customWidth="1"/>
     <col min="13322" max="13322" width="4" style="2" customWidth="1"/>
-    <col min="13323" max="13323" width="3.3984375" style="2" customWidth="1"/>
-    <col min="13324" max="13324" width="3.73046875" style="2" customWidth="1"/>
-    <col min="13325" max="13325" width="2.86328125" style="2" customWidth="1"/>
-    <col min="13326" max="13326" width="3.1328125" style="2" customWidth="1"/>
-    <col min="13327" max="13327" width="12.265625" style="2" customWidth="1"/>
-    <col min="13328" max="13328" width="9.1328125" style="2"/>
-    <col min="13329" max="13329" width="42.1328125" style="2" customWidth="1"/>
-    <col min="13330" max="13568" width="9.1328125" style="2"/>
-    <col min="13569" max="13569" width="30.1328125" style="2" customWidth="1"/>
-    <col min="13570" max="13570" width="3.265625" style="2" customWidth="1"/>
-    <col min="13571" max="13571" width="3.59765625" style="2" customWidth="1"/>
-    <col min="13572" max="13572" width="3.73046875" style="2" customWidth="1"/>
-    <col min="13573" max="13573" width="3.86328125" style="2" customWidth="1"/>
+    <col min="13323" max="13323" width="3.42578125" style="2" customWidth="1"/>
+    <col min="13324" max="13324" width="3.7109375" style="2" customWidth="1"/>
+    <col min="13325" max="13325" width="2.85546875" style="2" customWidth="1"/>
+    <col min="13326" max="13326" width="3.140625" style="2" customWidth="1"/>
+    <col min="13327" max="13327" width="12.28515625" style="2" customWidth="1"/>
+    <col min="13328" max="13328" width="9.140625" style="2"/>
+    <col min="13329" max="13329" width="42.140625" style="2" customWidth="1"/>
+    <col min="13330" max="13568" width="9.140625" style="2"/>
+    <col min="13569" max="13569" width="30.140625" style="2" customWidth="1"/>
+    <col min="13570" max="13570" width="3.28515625" style="2" customWidth="1"/>
+    <col min="13571" max="13571" width="3.5703125" style="2" customWidth="1"/>
+    <col min="13572" max="13572" width="3.7109375" style="2" customWidth="1"/>
+    <col min="13573" max="13573" width="3.85546875" style="2" customWidth="1"/>
     <col min="13574" max="13574" width="3" style="2" customWidth="1"/>
-    <col min="13575" max="13575" width="3.59765625" style="2" customWidth="1"/>
+    <col min="13575" max="13575" width="3.5703125" style="2" customWidth="1"/>
     <col min="13576" max="13576" width="4" style="2" customWidth="1"/>
     <col min="13577" max="13577" width="3" style="2" customWidth="1"/>
     <col min="13578" max="13578" width="4" style="2" customWidth="1"/>
-    <col min="13579" max="13579" width="3.3984375" style="2" customWidth="1"/>
-    <col min="13580" max="13580" width="3.73046875" style="2" customWidth="1"/>
-    <col min="13581" max="13581" width="2.86328125" style="2" customWidth="1"/>
-    <col min="13582" max="13582" width="3.1328125" style="2" customWidth="1"/>
-    <col min="13583" max="13583" width="12.265625" style="2" customWidth="1"/>
-    <col min="13584" max="13584" width="9.1328125" style="2"/>
-    <col min="13585" max="13585" width="42.1328125" style="2" customWidth="1"/>
-    <col min="13586" max="13824" width="9.1328125" style="2"/>
-    <col min="13825" max="13825" width="30.1328125" style="2" customWidth="1"/>
-    <col min="13826" max="13826" width="3.265625" style="2" customWidth="1"/>
-    <col min="13827" max="13827" width="3.59765625" style="2" customWidth="1"/>
-    <col min="13828" max="13828" width="3.73046875" style="2" customWidth="1"/>
-    <col min="13829" max="13829" width="3.86328125" style="2" customWidth="1"/>
+    <col min="13579" max="13579" width="3.42578125" style="2" customWidth="1"/>
+    <col min="13580" max="13580" width="3.7109375" style="2" customWidth="1"/>
+    <col min="13581" max="13581" width="2.85546875" style="2" customWidth="1"/>
+    <col min="13582" max="13582" width="3.140625" style="2" customWidth="1"/>
+    <col min="13583" max="13583" width="12.28515625" style="2" customWidth="1"/>
+    <col min="13584" max="13584" width="9.140625" style="2"/>
+    <col min="13585" max="13585" width="42.140625" style="2" customWidth="1"/>
+    <col min="13586" max="13824" width="9.140625" style="2"/>
+    <col min="13825" max="13825" width="30.140625" style="2" customWidth="1"/>
+    <col min="13826" max="13826" width="3.28515625" style="2" customWidth="1"/>
+    <col min="13827" max="13827" width="3.5703125" style="2" customWidth="1"/>
+    <col min="13828" max="13828" width="3.7109375" style="2" customWidth="1"/>
+    <col min="13829" max="13829" width="3.85546875" style="2" customWidth="1"/>
     <col min="13830" max="13830" width="3" style="2" customWidth="1"/>
-    <col min="13831" max="13831" width="3.59765625" style="2" customWidth="1"/>
+    <col min="13831" max="13831" width="3.5703125" style="2" customWidth="1"/>
     <col min="13832" max="13832" width="4" style="2" customWidth="1"/>
     <col min="13833" max="13833" width="3" style="2" customWidth="1"/>
     <col min="13834" max="13834" width="4" style="2" customWidth="1"/>
-    <col min="13835" max="13835" width="3.3984375" style="2" customWidth="1"/>
-    <col min="13836" max="13836" width="3.73046875" style="2" customWidth="1"/>
-    <col min="13837" max="13837" width="2.86328125" style="2" customWidth="1"/>
-    <col min="13838" max="13838" width="3.1328125" style="2" customWidth="1"/>
-    <col min="13839" max="13839" width="12.265625" style="2" customWidth="1"/>
-    <col min="13840" max="13840" width="9.1328125" style="2"/>
-    <col min="13841" max="13841" width="42.1328125" style="2" customWidth="1"/>
-    <col min="13842" max="14080" width="9.1328125" style="2"/>
-    <col min="14081" max="14081" width="30.1328125" style="2" customWidth="1"/>
-    <col min="14082" max="14082" width="3.265625" style="2" customWidth="1"/>
-    <col min="14083" max="14083" width="3.59765625" style="2" customWidth="1"/>
-    <col min="14084" max="14084" width="3.73046875" style="2" customWidth="1"/>
-    <col min="14085" max="14085" width="3.86328125" style="2" customWidth="1"/>
+    <col min="13835" max="13835" width="3.42578125" style="2" customWidth="1"/>
+    <col min="13836" max="13836" width="3.7109375" style="2" customWidth="1"/>
+    <col min="13837" max="13837" width="2.85546875" style="2" customWidth="1"/>
+    <col min="13838" max="13838" width="3.140625" style="2" customWidth="1"/>
+    <col min="13839" max="13839" width="12.28515625" style="2" customWidth="1"/>
+    <col min="13840" max="13840" width="9.140625" style="2"/>
+    <col min="13841" max="13841" width="42.140625" style="2" customWidth="1"/>
+    <col min="13842" max="14080" width="9.140625" style="2"/>
+    <col min="14081" max="14081" width="30.140625" style="2" customWidth="1"/>
+    <col min="14082" max="14082" width="3.28515625" style="2" customWidth="1"/>
+    <col min="14083" max="14083" width="3.5703125" style="2" customWidth="1"/>
+    <col min="14084" max="14084" width="3.7109375" style="2" customWidth="1"/>
+    <col min="14085" max="14085" width="3.85546875" style="2" customWidth="1"/>
     <col min="14086" max="14086" width="3" style="2" customWidth="1"/>
-    <col min="14087" max="14087" width="3.59765625" style="2" customWidth="1"/>
+    <col min="14087" max="14087" width="3.5703125" style="2" customWidth="1"/>
     <col min="14088" max="14088" width="4" style="2" customWidth="1"/>
     <col min="14089" max="14089" width="3" style="2" customWidth="1"/>
     <col min="14090" max="14090" width="4" style="2" customWidth="1"/>
-    <col min="14091" max="14091" width="3.3984375" style="2" customWidth="1"/>
-    <col min="14092" max="14092" width="3.73046875" style="2" customWidth="1"/>
-    <col min="14093" max="14093" width="2.86328125" style="2" customWidth="1"/>
-    <col min="14094" max="14094" width="3.1328125" style="2" customWidth="1"/>
-    <col min="14095" max="14095" width="12.265625" style="2" customWidth="1"/>
-    <col min="14096" max="14096" width="9.1328125" style="2"/>
-    <col min="14097" max="14097" width="42.1328125" style="2" customWidth="1"/>
-    <col min="14098" max="14336" width="9.1328125" style="2"/>
-    <col min="14337" max="14337" width="30.1328125" style="2" customWidth="1"/>
-    <col min="14338" max="14338" width="3.265625" style="2" customWidth="1"/>
-    <col min="14339" max="14339" width="3.59765625" style="2" customWidth="1"/>
-    <col min="14340" max="14340" width="3.73046875" style="2" customWidth="1"/>
-    <col min="14341" max="14341" width="3.86328125" style="2" customWidth="1"/>
+    <col min="14091" max="14091" width="3.42578125" style="2" customWidth="1"/>
+    <col min="14092" max="14092" width="3.7109375" style="2" customWidth="1"/>
+    <col min="14093" max="14093" width="2.85546875" style="2" customWidth="1"/>
+    <col min="14094" max="14094" width="3.140625" style="2" customWidth="1"/>
+    <col min="14095" max="14095" width="12.28515625" style="2" customWidth="1"/>
+    <col min="14096" max="14096" width="9.140625" style="2"/>
+    <col min="14097" max="14097" width="42.140625" style="2" customWidth="1"/>
+    <col min="14098" max="14336" width="9.140625" style="2"/>
+    <col min="14337" max="14337" width="30.140625" style="2" customWidth="1"/>
+    <col min="14338" max="14338" width="3.28515625" style="2" customWidth="1"/>
+    <col min="14339" max="14339" width="3.5703125" style="2" customWidth="1"/>
+    <col min="14340" max="14340" width="3.7109375" style="2" customWidth="1"/>
+    <col min="14341" max="14341" width="3.85546875" style="2" customWidth="1"/>
     <col min="14342" max="14342" width="3" style="2" customWidth="1"/>
-    <col min="14343" max="14343" width="3.59765625" style="2" customWidth="1"/>
+    <col min="14343" max="14343" width="3.5703125" style="2" customWidth="1"/>
     <col min="14344" max="14344" width="4" style="2" customWidth="1"/>
     <col min="14345" max="14345" width="3" style="2" customWidth="1"/>
     <col min="14346" max="14346" width="4" style="2" customWidth="1"/>
-    <col min="14347" max="14347" width="3.3984375" style="2" customWidth="1"/>
-    <col min="14348" max="14348" width="3.73046875" style="2" customWidth="1"/>
-    <col min="14349" max="14349" width="2.86328125" style="2" customWidth="1"/>
-    <col min="14350" max="14350" width="3.1328125" style="2" customWidth="1"/>
-    <col min="14351" max="14351" width="12.265625" style="2" customWidth="1"/>
-    <col min="14352" max="14352" width="9.1328125" style="2"/>
-    <col min="14353" max="14353" width="42.1328125" style="2" customWidth="1"/>
-    <col min="14354" max="14592" width="9.1328125" style="2"/>
-    <col min="14593" max="14593" width="30.1328125" style="2" customWidth="1"/>
-    <col min="14594" max="14594" width="3.265625" style="2" customWidth="1"/>
-    <col min="14595" max="14595" width="3.59765625" style="2" customWidth="1"/>
-    <col min="14596" max="14596" width="3.73046875" style="2" customWidth="1"/>
-    <col min="14597" max="14597" width="3.86328125" style="2" customWidth="1"/>
+    <col min="14347" max="14347" width="3.42578125" style="2" customWidth="1"/>
+    <col min="14348" max="14348" width="3.7109375" style="2" customWidth="1"/>
+    <col min="14349" max="14349" width="2.85546875" style="2" customWidth="1"/>
+    <col min="14350" max="14350" width="3.140625" style="2" customWidth="1"/>
+    <col min="14351" max="14351" width="12.28515625" style="2" customWidth="1"/>
+    <col min="14352" max="14352" width="9.140625" style="2"/>
+    <col min="14353" max="14353" width="42.140625" style="2" customWidth="1"/>
+    <col min="14354" max="14592" width="9.140625" style="2"/>
+    <col min="14593" max="14593" width="30.140625" style="2" customWidth="1"/>
+    <col min="14594" max="14594" width="3.28515625" style="2" customWidth="1"/>
+    <col min="14595" max="14595" width="3.5703125" style="2" customWidth="1"/>
+    <col min="14596" max="14596" width="3.7109375" style="2" customWidth="1"/>
+    <col min="14597" max="14597" width="3.85546875" style="2" customWidth="1"/>
     <col min="14598" max="14598" width="3" style="2" customWidth="1"/>
-    <col min="14599" max="14599" width="3.59765625" style="2" customWidth="1"/>
+    <col min="14599" max="14599" width="3.5703125" style="2" customWidth="1"/>
     <col min="14600" max="14600" width="4" style="2" customWidth="1"/>
     <col min="14601" max="14601" width="3" style="2" customWidth="1"/>
     <col min="14602" max="14602" width="4" style="2" customWidth="1"/>
-    <col min="14603" max="14603" width="3.3984375" style="2" customWidth="1"/>
-    <col min="14604" max="14604" width="3.73046875" style="2" customWidth="1"/>
-    <col min="14605" max="14605" width="2.86328125" style="2" customWidth="1"/>
-    <col min="14606" max="14606" width="3.1328125" style="2" customWidth="1"/>
-    <col min="14607" max="14607" width="12.265625" style="2" customWidth="1"/>
-    <col min="14608" max="14608" width="9.1328125" style="2"/>
-    <col min="14609" max="14609" width="42.1328125" style="2" customWidth="1"/>
-    <col min="14610" max="14848" width="9.1328125" style="2"/>
-    <col min="14849" max="14849" width="30.1328125" style="2" customWidth="1"/>
-    <col min="14850" max="14850" width="3.265625" style="2" customWidth="1"/>
-    <col min="14851" max="14851" width="3.59765625" style="2" customWidth="1"/>
-    <col min="14852" max="14852" width="3.73046875" style="2" customWidth="1"/>
-    <col min="14853" max="14853" width="3.86328125" style="2" customWidth="1"/>
+    <col min="14603" max="14603" width="3.42578125" style="2" customWidth="1"/>
+    <col min="14604" max="14604" width="3.7109375" style="2" customWidth="1"/>
+    <col min="14605" max="14605" width="2.85546875" style="2" customWidth="1"/>
+    <col min="14606" max="14606" width="3.140625" style="2" customWidth="1"/>
+    <col min="14607" max="14607" width="12.28515625" style="2" customWidth="1"/>
+    <col min="14608" max="14608" width="9.140625" style="2"/>
+    <col min="14609" max="14609" width="42.140625" style="2" customWidth="1"/>
+    <col min="14610" max="14848" width="9.140625" style="2"/>
+    <col min="14849" max="14849" width="30.140625" style="2" customWidth="1"/>
+    <col min="14850" max="14850" width="3.28515625" style="2" customWidth="1"/>
+    <col min="14851" max="14851" width="3.5703125" style="2" customWidth="1"/>
+    <col min="14852" max="14852" width="3.7109375" style="2" customWidth="1"/>
+    <col min="14853" max="14853" width="3.85546875" style="2" customWidth="1"/>
     <col min="14854" max="14854" width="3" style="2" customWidth="1"/>
-    <col min="14855" max="14855" width="3.59765625" style="2" customWidth="1"/>
+    <col min="14855" max="14855" width="3.5703125" style="2" customWidth="1"/>
     <col min="14856" max="14856" width="4" style="2" customWidth="1"/>
     <col min="14857" max="14857" width="3" style="2" customWidth="1"/>
     <col min="14858" max="14858" width="4" style="2" customWidth="1"/>
-    <col min="14859" max="14859" width="3.3984375" style="2" customWidth="1"/>
-    <col min="14860" max="14860" width="3.73046875" style="2" customWidth="1"/>
-    <col min="14861" max="14861" width="2.86328125" style="2" customWidth="1"/>
-    <col min="14862" max="14862" width="3.1328125" style="2" customWidth="1"/>
-    <col min="14863" max="14863" width="12.265625" style="2" customWidth="1"/>
-    <col min="14864" max="14864" width="9.1328125" style="2"/>
-    <col min="14865" max="14865" width="42.1328125" style="2" customWidth="1"/>
-    <col min="14866" max="15104" width="9.1328125" style="2"/>
-    <col min="15105" max="15105" width="30.1328125" style="2" customWidth="1"/>
-    <col min="15106" max="15106" width="3.265625" style="2" customWidth="1"/>
-    <col min="15107" max="15107" width="3.59765625" style="2" customWidth="1"/>
-    <col min="15108" max="15108" width="3.73046875" style="2" customWidth="1"/>
-    <col min="15109" max="15109" width="3.86328125" style="2" customWidth="1"/>
+    <col min="14859" max="14859" width="3.42578125" style="2" customWidth="1"/>
+    <col min="14860" max="14860" width="3.7109375" style="2" customWidth="1"/>
+    <col min="14861" max="14861" width="2.85546875" style="2" customWidth="1"/>
+    <col min="14862" max="14862" width="3.140625" style="2" customWidth="1"/>
+    <col min="14863" max="14863" width="12.28515625" style="2" customWidth="1"/>
+    <col min="14864" max="14864" width="9.140625" style="2"/>
+    <col min="14865" max="14865" width="42.140625" style="2" customWidth="1"/>
+    <col min="14866" max="15104" width="9.140625" style="2"/>
+    <col min="15105" max="15105" width="30.140625" style="2" customWidth="1"/>
+    <col min="15106" max="15106" width="3.28515625" style="2" customWidth="1"/>
+    <col min="15107" max="15107" width="3.5703125" style="2" customWidth="1"/>
+    <col min="15108" max="15108" width="3.7109375" style="2" customWidth="1"/>
+    <col min="15109" max="15109" width="3.85546875" style="2" customWidth="1"/>
     <col min="15110" max="15110" width="3" style="2" customWidth="1"/>
-    <col min="15111" max="15111" width="3.59765625" style="2" customWidth="1"/>
+    <col min="15111" max="15111" width="3.5703125" style="2" customWidth="1"/>
     <col min="15112" max="15112" width="4" style="2" customWidth="1"/>
     <col min="15113" max="15113" width="3" style="2" customWidth="1"/>
     <col min="15114" max="15114" width="4" style="2" customWidth="1"/>
-    <col min="15115" max="15115" width="3.3984375" style="2" customWidth="1"/>
-    <col min="15116" max="15116" width="3.73046875" style="2" customWidth="1"/>
-    <col min="15117" max="15117" width="2.86328125" style="2" customWidth="1"/>
-    <col min="15118" max="15118" width="3.1328125" style="2" customWidth="1"/>
-    <col min="15119" max="15119" width="12.265625" style="2" customWidth="1"/>
-    <col min="15120" max="15120" width="9.1328125" style="2"/>
-    <col min="15121" max="15121" width="42.1328125" style="2" customWidth="1"/>
-    <col min="15122" max="15360" width="9.1328125" style="2"/>
-    <col min="15361" max="15361" width="30.1328125" style="2" customWidth="1"/>
-    <col min="15362" max="15362" width="3.265625" style="2" customWidth="1"/>
-    <col min="15363" max="15363" width="3.59765625" style="2" customWidth="1"/>
-    <col min="15364" max="15364" width="3.73046875" style="2" customWidth="1"/>
-    <col min="15365" max="15365" width="3.86328125" style="2" customWidth="1"/>
+    <col min="15115" max="15115" width="3.42578125" style="2" customWidth="1"/>
+    <col min="15116" max="15116" width="3.7109375" style="2" customWidth="1"/>
+    <col min="15117" max="15117" width="2.85546875" style="2" customWidth="1"/>
+    <col min="15118" max="15118" width="3.140625" style="2" customWidth="1"/>
+    <col min="15119" max="15119" width="12.28515625" style="2" customWidth="1"/>
+    <col min="15120" max="15120" width="9.140625" style="2"/>
+    <col min="15121" max="15121" width="42.140625" style="2" customWidth="1"/>
+    <col min="15122" max="15360" width="9.140625" style="2"/>
+    <col min="15361" max="15361" width="30.140625" style="2" customWidth="1"/>
+    <col min="15362" max="15362" width="3.28515625" style="2" customWidth="1"/>
+    <col min="15363" max="15363" width="3.5703125" style="2" customWidth="1"/>
+    <col min="15364" max="15364" width="3.7109375" style="2" customWidth="1"/>
+    <col min="15365" max="15365" width="3.85546875" style="2" customWidth="1"/>
     <col min="15366" max="15366" width="3" style="2" customWidth="1"/>
-    <col min="15367" max="15367" width="3.59765625" style="2" customWidth="1"/>
+    <col min="15367" max="15367" width="3.5703125" style="2" customWidth="1"/>
     <col min="15368" max="15368" width="4" style="2" customWidth="1"/>
     <col min="15369" max="15369" width="3" style="2" customWidth="1"/>
     <col min="15370" max="15370" width="4" style="2" customWidth="1"/>
-    <col min="15371" max="15371" width="3.3984375" style="2" customWidth="1"/>
-    <col min="15372" max="15372" width="3.73046875" style="2" customWidth="1"/>
-    <col min="15373" max="15373" width="2.86328125" style="2" customWidth="1"/>
-    <col min="15374" max="15374" width="3.1328125" style="2" customWidth="1"/>
-    <col min="15375" max="15375" width="12.265625" style="2" customWidth="1"/>
-    <col min="15376" max="15376" width="9.1328125" style="2"/>
-    <col min="15377" max="15377" width="42.1328125" style="2" customWidth="1"/>
-    <col min="15378" max="15616" width="9.1328125" style="2"/>
-    <col min="15617" max="15617" width="30.1328125" style="2" customWidth="1"/>
-    <col min="15618" max="15618" width="3.265625" style="2" customWidth="1"/>
-    <col min="15619" max="15619" width="3.59765625" style="2" customWidth="1"/>
-    <col min="15620" max="15620" width="3.73046875" style="2" customWidth="1"/>
-    <col min="15621" max="15621" width="3.86328125" style="2" customWidth="1"/>
+    <col min="15371" max="15371" width="3.42578125" style="2" customWidth="1"/>
+    <col min="15372" max="15372" width="3.7109375" style="2" customWidth="1"/>
+    <col min="15373" max="15373" width="2.85546875" style="2" customWidth="1"/>
+    <col min="15374" max="15374" width="3.140625" style="2" customWidth="1"/>
+    <col min="15375" max="15375" width="12.28515625" style="2" customWidth="1"/>
+    <col min="15376" max="15376" width="9.140625" style="2"/>
+    <col min="15377" max="15377" width="42.140625" style="2" customWidth="1"/>
+    <col min="15378" max="15616" width="9.140625" style="2"/>
+    <col min="15617" max="15617" width="30.140625" style="2" customWidth="1"/>
+    <col min="15618" max="15618" width="3.28515625" style="2" customWidth="1"/>
+    <col min="15619" max="15619" width="3.5703125" style="2" customWidth="1"/>
+    <col min="15620" max="15620" width="3.7109375" style="2" customWidth="1"/>
+    <col min="15621" max="15621" width="3.85546875" style="2" customWidth="1"/>
     <col min="15622" max="15622" width="3" style="2" customWidth="1"/>
-    <col min="15623" max="15623" width="3.59765625" style="2" customWidth="1"/>
+    <col min="15623" max="15623" width="3.5703125" style="2" customWidth="1"/>
     <col min="15624" max="15624" width="4" style="2" customWidth="1"/>
     <col min="15625" max="15625" width="3" style="2" customWidth="1"/>
     <col min="15626" max="15626" width="4" style="2" customWidth="1"/>
-    <col min="15627" max="15627" width="3.3984375" style="2" customWidth="1"/>
-    <col min="15628" max="15628" width="3.73046875" style="2" customWidth="1"/>
-    <col min="15629" max="15629" width="2.86328125" style="2" customWidth="1"/>
-    <col min="15630" max="15630" width="3.1328125" style="2" customWidth="1"/>
-    <col min="15631" max="15631" width="12.265625" style="2" customWidth="1"/>
-    <col min="15632" max="15632" width="9.1328125" style="2"/>
-    <col min="15633" max="15633" width="42.1328125" style="2" customWidth="1"/>
-    <col min="15634" max="15872" width="9.1328125" style="2"/>
-    <col min="15873" max="15873" width="30.1328125" style="2" customWidth="1"/>
-    <col min="15874" max="15874" width="3.265625" style="2" customWidth="1"/>
-    <col min="15875" max="15875" width="3.59765625" style="2" customWidth="1"/>
-    <col min="15876" max="15876" width="3.73046875" style="2" customWidth="1"/>
-    <col min="15877" max="15877" width="3.86328125" style="2" customWidth="1"/>
+    <col min="15627" max="15627" width="3.42578125" style="2" customWidth="1"/>
+    <col min="15628" max="15628" width="3.7109375" style="2" customWidth="1"/>
+    <col min="15629" max="15629" width="2.85546875" style="2" customWidth="1"/>
+    <col min="15630" max="15630" width="3.140625" style="2" customWidth="1"/>
+    <col min="15631" max="15631" width="12.28515625" style="2" customWidth="1"/>
+    <col min="15632" max="15632" width="9.140625" style="2"/>
+    <col min="15633" max="15633" width="42.140625" style="2" customWidth="1"/>
+    <col min="15634" max="15872" width="9.140625" style="2"/>
+    <col min="15873" max="15873" width="30.140625" style="2" customWidth="1"/>
+    <col min="15874" max="15874" width="3.28515625" style="2" customWidth="1"/>
+    <col min="15875" max="15875" width="3.5703125" style="2" customWidth="1"/>
+    <col min="15876" max="15876" width="3.7109375" style="2" customWidth="1"/>
+    <col min="15877" max="15877" width="3.85546875" style="2" customWidth="1"/>
     <col min="15878" max="15878" width="3" style="2" customWidth="1"/>
-    <col min="15879" max="15879" width="3.59765625" style="2" customWidth="1"/>
+    <col min="15879" max="15879" width="3.5703125" style="2" customWidth="1"/>
     <col min="15880" max="15880" width="4" style="2" customWidth="1"/>
     <col min="15881" max="15881" width="3" style="2" customWidth="1"/>
     <col min="15882" max="15882" width="4" style="2" customWidth="1"/>
-    <col min="15883" max="15883" width="3.3984375" style="2" customWidth="1"/>
-    <col min="15884" max="15884" width="3.73046875" style="2" customWidth="1"/>
-    <col min="15885" max="15885" width="2.86328125" style="2" customWidth="1"/>
-    <col min="15886" max="15886" width="3.1328125" style="2" customWidth="1"/>
-    <col min="15887" max="15887" width="12.265625" style="2" customWidth="1"/>
-    <col min="15888" max="15888" width="9.1328125" style="2"/>
-    <col min="15889" max="15889" width="42.1328125" style="2" customWidth="1"/>
-    <col min="15890" max="16128" width="9.1328125" style="2"/>
-    <col min="16129" max="16129" width="30.1328125" style="2" customWidth="1"/>
-    <col min="16130" max="16130" width="3.265625" style="2" customWidth="1"/>
-    <col min="16131" max="16131" width="3.59765625" style="2" customWidth="1"/>
-    <col min="16132" max="16132" width="3.73046875" style="2" customWidth="1"/>
-    <col min="16133" max="16133" width="3.86328125" style="2" customWidth="1"/>
+    <col min="15883" max="15883" width="3.42578125" style="2" customWidth="1"/>
+    <col min="15884" max="15884" width="3.7109375" style="2" customWidth="1"/>
+    <col min="15885" max="15885" width="2.85546875" style="2" customWidth="1"/>
+    <col min="15886" max="15886" width="3.140625" style="2" customWidth="1"/>
+    <col min="15887" max="15887" width="12.28515625" style="2" customWidth="1"/>
+    <col min="15888" max="15888" width="9.140625" style="2"/>
+    <col min="15889" max="15889" width="42.140625" style="2" customWidth="1"/>
+    <col min="15890" max="16128" width="9.140625" style="2"/>
+    <col min="16129" max="16129" width="30.140625" style="2" customWidth="1"/>
+    <col min="16130" max="16130" width="3.28515625" style="2" customWidth="1"/>
+    <col min="16131" max="16131" width="3.5703125" style="2" customWidth="1"/>
+    <col min="16132" max="16132" width="3.7109375" style="2" customWidth="1"/>
+    <col min="16133" max="16133" width="3.85546875" style="2" customWidth="1"/>
     <col min="16134" max="16134" width="3" style="2" customWidth="1"/>
-    <col min="16135" max="16135" width="3.59765625" style="2" customWidth="1"/>
+    <col min="16135" max="16135" width="3.5703125" style="2" customWidth="1"/>
     <col min="16136" max="16136" width="4" style="2" customWidth="1"/>
     <col min="16137" max="16137" width="3" style="2" customWidth="1"/>
     <col min="16138" max="16138" width="4" style="2" customWidth="1"/>
-    <col min="16139" max="16139" width="3.3984375" style="2" customWidth="1"/>
-    <col min="16140" max="16140" width="3.73046875" style="2" customWidth="1"/>
-    <col min="16141" max="16141" width="2.86328125" style="2" customWidth="1"/>
-    <col min="16142" max="16142" width="3.1328125" style="2" customWidth="1"/>
-    <col min="16143" max="16143" width="12.265625" style="2" customWidth="1"/>
-    <col min="16144" max="16144" width="9.1328125" style="2"/>
-    <col min="16145" max="16145" width="42.1328125" style="2" customWidth="1"/>
-    <col min="16146" max="16384" width="9.1328125" style="2"/>
+    <col min="16139" max="16139" width="3.42578125" style="2" customWidth="1"/>
+    <col min="16140" max="16140" width="3.7109375" style="2" customWidth="1"/>
+    <col min="16141" max="16141" width="2.85546875" style="2" customWidth="1"/>
+    <col min="16142" max="16142" width="3.140625" style="2" customWidth="1"/>
+    <col min="16143" max="16143" width="12.28515625" style="2" customWidth="1"/>
+    <col min="16144" max="16144" width="9.140625" style="2"/>
+    <col min="16145" max="16145" width="42.140625" style="2" customWidth="1"/>
+    <col min="16146" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="73" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A1" s="70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="71">
         <v>1</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="70">
         <v>2</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="70">
         <v>3</v>
@@ -4517,19 +4562,19 @@
         <v>4</v>
       </c>
       <c r="H1" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="70">
         <v>5</v>
       </c>
       <c r="J1" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="70">
         <v>6</v>
       </c>
       <c r="L1" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M1" s="70">
         <v>7</v>
@@ -4541,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="43"/>
       <c r="C2" s="6"/>
@@ -4561,24 +4606,24 @@
     </row>
     <row r="3" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="44">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="9">
         <v>3</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="10">
         <v>5</v>
@@ -4588,7 +4633,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="62">
@@ -4596,26 +4641,26 @@
       </c>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="45">
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="13">
         <v>3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="4">
         <v>5</v>
@@ -4623,7 +4668,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="14"/>
       <c r="L4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="63">
@@ -4631,30 +4676,30 @@
       </c>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="45">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="13">
         <v>3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="4">
         <v>6</v>
@@ -4670,51 +4715,51 @@
     </row>
     <row r="6" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="44">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="9">
         <v>3</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="62">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="46">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
@@ -4723,7 +4768,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="14"/>
@@ -4732,19 +4777,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="46">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5">
         <v>3</v>
@@ -4753,18 +4798,18 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="63">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="47"/>
       <c r="C9" s="4"/>
@@ -4780,30 +4825,30 @@
       <c r="M9" s="4"/>
       <c r="N9" s="63"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="45">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13">
         <v>4</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" s="14">
         <v>6</v>
@@ -4816,28 +4861,28 @@
     </row>
     <row r="11" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="48">
         <v>1</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17">
         <v>4</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
@@ -4848,29 +4893,29 @@
         <v>8</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A12" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="44">
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9">
         <v>4</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -4883,29 +4928,29 @@
         <v>8</v>
       </c>
       <c r="O12" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="B13" s="45">
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13">
         <v>4</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -4913,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="14">
         <v>7</v>
@@ -4924,17 +4969,17 @@
     </row>
     <row r="14" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A14" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="49">
         <v>1</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22">
@@ -4954,19 +4999,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="46">
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
@@ -4988,19 +5033,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="45">
         <v>1</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13">
@@ -5018,19 +5063,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="45">
         <v>1</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13">
@@ -5050,7 +5095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="47"/>
       <c r="C18" s="4"/>
@@ -5066,28 +5111,28 @@
       <c r="M18" s="4"/>
       <c r="N18" s="63"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="45">
         <v>1</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="14"/>
@@ -5098,58 +5143,58 @@
     </row>
     <row r="20" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A20" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="50">
         <v>1</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" s="23"/>
       <c r="L20" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20" s="24"/>
       <c r="N20" s="65">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="45">
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="14"/>
@@ -5162,28 +5207,28 @@
     </row>
     <row r="22" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="51">
         <v>1</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="62">
@@ -5208,13 +5253,13 @@
     </row>
     <row r="24" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A24" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="51">
         <v>1</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -5227,7 +5272,7 @@
       <c r="H24" s="26"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="10">
         <v>6</v>
@@ -5240,13 +5285,13 @@
     </row>
     <row r="25" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A25" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="48">
         <v>1</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -5255,7 +5300,7 @@
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I25" s="17">
         <v>5</v>
@@ -5265,25 +5310,25 @@
         <v>6</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="64">
         <v>8</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A26" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="45">
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -5292,7 +5337,7 @@
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I26" s="13">
         <v>5</v>
@@ -5300,7 +5345,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="63">
@@ -5308,15 +5353,15 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="45">
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -5325,7 +5370,7 @@
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="13">
         <v>5</v>
@@ -5333,7 +5378,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="14">
         <v>7</v>
@@ -5344,13 +5389,13 @@
     </row>
     <row r="28" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="49">
         <v>1</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -5359,11 +5404,11 @@
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -5372,7 +5417,7 @@
         <v>8</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
@@ -5383,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -5392,15 +5437,15 @@
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="24"/>
       <c r="N29" s="65">
@@ -5410,13 +5455,13 @@
     </row>
     <row r="30" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="53">
         <v>1</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -5425,11 +5470,11 @@
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="11"/>
@@ -5440,18 +5485,18 @@
         <v>8</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A31" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="50">
         <v>1</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -5460,13 +5505,13 @@
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="24"/>
       <c r="K31" s="23"/>
       <c r="L31" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="30"/>
       <c r="N31" s="65">
@@ -5474,15 +5519,15 @@
       </c>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="45">
         <v>1</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -5495,7 +5540,7 @@
         <v>5</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="6"/>
@@ -5508,13 +5553,13 @@
     </row>
     <row r="33" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A33" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="44">
         <v>1</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -5536,18 +5581,18 @@
         <v>8</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="45">
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -5558,7 +5603,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="14"/>
@@ -5568,15 +5613,15 @@
       </c>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="45">
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -5587,18 +5632,18 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="63">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B36" s="47"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -5615,13 +5660,13 @@
     </row>
     <row r="37" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A37" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="50">
         <v>1</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -5643,13 +5688,13 @@
     </row>
     <row r="38" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A38" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="50">
         <v>1</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -5707,7 +5752,7 @@
     </row>
     <row r="42" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A42" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="44">
         <v>1</v>
@@ -5717,18 +5762,18 @@
         <v>2</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9">
         <v>4</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I42" s="26"/>
       <c r="J42" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42" s="11">
         <v>6</v>
@@ -5741,12 +5786,12 @@
         <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="44">
         <v>1</v>
@@ -5756,34 +5801,34 @@
         <v>2</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9">
         <v>4</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K43" s="34"/>
       <c r="L43" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M43" s="34"/>
       <c r="N43" s="63">
         <v>8</v>
       </c>
       <c r="Q43" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="B44" s="45">
         <v>1</v>
@@ -5793,7 +5838,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13">
@@ -5815,9 +5860,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="46">
         <v>1</v>
@@ -5827,16 +5872,16 @@
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
@@ -5845,9 +5890,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="46">
         <v>1</v>
@@ -5857,16 +5902,16 @@
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K46" s="14">
         <v>6</v>
@@ -5877,9 +5922,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="49">
         <v>1</v>
@@ -5889,29 +5934,29 @@
         <v>2</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K47" s="24"/>
       <c r="L47" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M47" s="24"/>
       <c r="N47" s="65">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="53">
         <v>1</v>
@@ -5921,16 +5966,16 @@
         <v>2</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
       <c r="H48" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I48" s="28"/>
       <c r="J48" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -5941,12 +5986,12 @@
         <v>8</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="57">
         <v>1</v>
@@ -5956,7 +6001,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
@@ -5976,9 +6021,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51" s="45">
         <v>1</v>
@@ -5993,7 +6038,7 @@
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I51" s="13">
         <v>5</v>
@@ -6003,16 +6048,16 @@
         <v>6</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M51" s="14"/>
       <c r="N51" s="63">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" s="45">
         <v>1</v>
@@ -6027,7 +6072,7 @@
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I52" s="13">
         <v>5</v>
@@ -6035,7 +6080,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="14"/>
       <c r="L52" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M52" s="14">
         <v>7</v>
@@ -6044,9 +6089,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B53" s="46">
         <v>1</v>
@@ -6061,11 +6106,11 @@
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K53" s="5">
         <v>6</v>
@@ -6076,9 +6121,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="49">
         <v>1</v>
@@ -6093,11 +6138,11 @@
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I54" s="22"/>
       <c r="J54" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K54" s="22">
         <v>6</v>
@@ -6110,9 +6155,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B55" s="49">
         <v>1</v>
@@ -6129,7 +6174,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="22"/>
       <c r="J55" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55" s="22">
         <v>6</v>
@@ -6140,9 +6185,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" s="50">
         <v>1</v>
@@ -6157,24 +6202,24 @@
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K56" s="23"/>
       <c r="L56" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M56" s="24"/>
       <c r="N56" s="65">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" s="45">
         <v>1</v>
@@ -6189,11 +6234,11 @@
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="14"/>
@@ -6204,9 +6249,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="46">
         <v>1</v>
@@ -6221,7 +6266,7 @@
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -6234,7 +6279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>2</v>
       </c>
@@ -6251,7 +6296,7 @@
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
@@ -6266,9 +6311,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="44">
         <v>1</v>
@@ -6287,7 +6332,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="11"/>
@@ -6296,9 +6341,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="50">
         <v>1</v>
@@ -6317,20 +6362,20 @@
         <v>5</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61" s="23"/>
       <c r="L61" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M61" s="23"/>
       <c r="N61" s="65">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="45">
         <v>1</v>
@@ -6358,9 +6403,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" s="45">
         <v>1</v>
@@ -6383,16 +6428,16 @@
         <v>6</v>
       </c>
       <c r="L63" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="63">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="57">
         <v>1</v>
@@ -6407,20 +6452,20 @@
         <v>4</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M64" s="23"/>
       <c r="N64" s="65">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>3</v>
       </c>
@@ -6441,20 +6486,20 @@
         <v>5</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K65" s="23"/>
       <c r="L65" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M65" s="23"/>
       <c r="N65" s="65">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B66" s="45">
         <v>1</v>
@@ -6482,9 +6527,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" s="45">
         <v>1</v>
@@ -6505,16 +6550,16 @@
       <c r="J67" s="4"/>
       <c r="K67" s="14"/>
       <c r="L67" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="63">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B68" s="49">
         <v>1</v>
@@ -6531,7 +6576,7 @@
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
       <c r="J68" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K68" s="23"/>
       <c r="L68" s="24"/>
@@ -6540,9 +6585,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" s="49">
         <v>1</v>
@@ -6559,18 +6604,18 @@
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
       <c r="J69" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K69" s="23"/>
       <c r="L69" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M69" s="23"/>
       <c r="N69" s="65">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
       <c r="B70" s="54"/>
       <c r="C70" s="23"/>
@@ -6586,9 +6631,9 @@
       <c r="M70" s="23"/>
       <c r="N70" s="65"/>
     </row>
-    <row r="71" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" s="48">
         <v>1</v>
@@ -6601,7 +6646,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I71" s="17">
         <v>5</v>
@@ -6611,19 +6656,19 @@
         <v>6</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M71" s="18"/>
       <c r="N71" s="64">
         <v>8</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" s="45">
         <v>1</v>
@@ -6636,7 +6681,7 @@
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I72" s="13">
         <v>5</v>
@@ -6644,7 +6689,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="14"/>
       <c r="L72" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="63">
@@ -6652,9 +6697,9 @@
       </c>
       <c r="O72" s="16"/>
     </row>
-    <row r="73" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" s="49">
         <v>1</v>
@@ -6667,11 +6712,11 @@
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K73" s="24">
         <v>6</v>
@@ -6682,9 +6727,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" s="46">
         <v>1</v>
@@ -6697,11 +6742,11 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
@@ -6712,9 +6757,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="46">
         <v>1</v>
@@ -6727,11 +6772,11 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K75" s="24">
         <v>6</v>
@@ -6745,9 +6790,9 @@
       </c>
       <c r="O75" s="16"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B76" s="45">
         <v>1</v>
@@ -6755,18 +6800,18 @@
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F76" s="13">
         <v>3</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K76" s="13">
         <v>6</v>
@@ -6777,9 +6822,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" s="45">
         <v>1</v>
@@ -6787,18 +6832,18 @@
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F77" s="13">
         <v>3</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K77" s="13">
         <v>6</v>
@@ -6811,9 +6856,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" s="46">
         <v>1</v>
@@ -6821,31 +6866,31 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F78" s="5">
         <v>3</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M78" s="14"/>
       <c r="N78" s="63">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79" s="58">
         <v>1</v>
@@ -6853,18 +6898,18 @@
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
       <c r="E79" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F79" s="37">
         <v>3</v>
       </c>
       <c r="G79" s="37"/>
       <c r="H79" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I79" s="37"/>
       <c r="J79" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K79" s="18"/>
       <c r="L79" s="19"/>
@@ -6875,10 +6920,10 @@
         <v>8</v>
       </c>
       <c r="O79" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="13.9" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="59"/>
       <c r="C80" s="18"/>
@@ -6895,9 +6940,9 @@
       <c r="N80" s="64"/>
       <c r="O80" s="16"/>
     </row>
-    <row r="81" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="45">
         <v>1</v>
@@ -6905,7 +6950,7 @@
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F81" s="13">
         <v>3</v>
@@ -6916,7 +6961,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -6926,9 +6971,9 @@
       </c>
       <c r="O81" s="16"/>
     </row>
-    <row r="82" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" s="44">
         <v>1</v>
@@ -6936,7 +6981,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F82" s="9">
         <v>3</v>
@@ -6947,7 +6992,7 @@
         <v>5</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -6959,7 +7004,7 @@
       </c>
       <c r="O82" s="16"/>
     </row>
-    <row r="83" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="60"/>
       <c r="C83" s="11"/>
@@ -6977,9 +7022,9 @@
       <c r="O83" s="33"/>
       <c r="P83" s="34"/>
     </row>
-    <row r="84" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B84" s="44">
         <v>1</v>
@@ -6987,7 +7032,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F84" s="9">
         <v>3</v>
@@ -6996,7 +7041,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
@@ -7005,15 +7050,15 @@
         <v>8</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P84" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A85" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="B85" s="45">
         <v>1</v>
@@ -7021,7 +7066,7 @@
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F85" s="13">
         <v>3</v>
@@ -7030,7 +7075,7 @@
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
       <c r="J85" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K85" s="4">
         <v>6</v>
@@ -7044,9 +7089,9 @@
       </c>
       <c r="O85" s="16"/>
     </row>
-    <row r="86" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86" s="50">
         <v>1</v>
@@ -7054,7 +7099,7 @@
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
       <c r="E86" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F86" s="25">
         <v>3</v>
@@ -7063,23 +7108,23 @@
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
       <c r="J86" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K86" s="23"/>
       <c r="L86" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M86" s="24"/>
       <c r="N86" s="65">
         <v>8</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87" s="45">
         <v>1</v>
@@ -7087,7 +7132,7 @@
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F87" s="13">
         <v>3</v>
@@ -7096,11 +7141,11 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M87" s="14">
         <v>7</v>
@@ -7110,9 +7155,9 @@
       </c>
       <c r="O87" s="16"/>
     </row>
-    <row r="88" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88" s="45">
         <v>1</v>
@@ -7120,7 +7165,7 @@
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F88" s="13">
         <v>3</v>
@@ -7129,7 +7174,7 @@
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="14"/>
@@ -7141,7 +7186,7 @@
       </c>
       <c r="O88" s="16"/>
     </row>
-    <row r="89" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B89" s="47"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -7157,9 +7202,9 @@
       <c r="N89" s="63"/>
       <c r="O89" s="16"/>
     </row>
-    <row r="90" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B90" s="45">
         <v>1</v>
@@ -7167,7 +7212,7 @@
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="13">
@@ -7178,11 +7223,11 @@
         <v>5</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="63">
@@ -7190,9 +7235,9 @@
       </c>
       <c r="O90" s="16"/>
     </row>
-    <row r="91" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B91" s="50">
         <v>1</v>
@@ -7200,7 +7245,7 @@
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
       <c r="E91" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F91" s="25"/>
       <c r="G91" s="25">
@@ -7221,9 +7266,9 @@
       </c>
       <c r="O91" s="16"/>
     </row>
-    <row r="92" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B92" s="50">
         <v>1</v>
@@ -7231,7 +7276,7 @@
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
       <c r="E92" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F92" s="25"/>
       <c r="G92" s="25">
@@ -7253,9 +7298,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B93" s="45">
         <v>1</v>
@@ -7263,7 +7308,7 @@
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="13">
@@ -7276,16 +7321,16 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="63">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B94" s="45">
         <v>1</v>
@@ -7293,7 +7338,7 @@
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F94" s="13"/>
       <c r="G94" s="13">
@@ -7313,9 +7358,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95" s="45">
         <v>1</v>
@@ -7323,7 +7368,7 @@
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F95" s="13"/>
       <c r="G95" s="13">
@@ -7332,20 +7377,20 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K95" s="14"/>
       <c r="L95" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M95" s="14"/>
       <c r="N95" s="63">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" s="45">
         <v>1</v>
@@ -7353,7 +7398,7 @@
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13">
@@ -7373,7 +7418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="27"/>
       <c r="B97" s="54"/>
       <c r="C97" s="23"/>
@@ -7389,9 +7434,9 @@
       <c r="M97" s="23"/>
       <c r="N97" s="65"/>
     </row>
-    <row r="98" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98" s="57">
         <v>1</v>
@@ -7404,15 +7449,15 @@
       </c>
       <c r="G98" s="30"/>
       <c r="H98" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I98" s="30"/>
       <c r="J98" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K98" s="30"/>
       <c r="L98" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M98" s="30"/>
       <c r="N98" s="69">
@@ -7420,9 +7465,9 @@
       </c>
       <c r="O98" s="7"/>
     </row>
-    <row r="99" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99" s="50">
         <v>1</v>
@@ -7430,29 +7475,29 @@
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
       <c r="E99" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F99" s="24"/>
       <c r="G99" s="25"/>
       <c r="H99" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I99" s="23"/>
       <c r="J99" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K99" s="23"/>
       <c r="L99" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M99" s="23"/>
       <c r="N99" s="65">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100" s="45">
         <v>1</v>
@@ -7460,25 +7505,25 @@
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="14"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="63">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="27"/>
       <c r="B101" s="54"/>
       <c r="C101" s="23"/>
@@ -7494,9 +7539,9 @@
       <c r="M101" s="23"/>
       <c r="N101" s="65"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" s="45">
         <v>1</v>
@@ -7509,7 +7554,7 @@
       </c>
       <c r="G102" s="13"/>
       <c r="H102" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I102" s="14">
         <v>5</v>
@@ -7517,16 +7562,16 @@
       <c r="J102" s="14"/>
       <c r="K102" s="6"/>
       <c r="L102" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M102" s="14"/>
       <c r="N102" s="63">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B103" s="50">
         <v>1</v>
@@ -7541,7 +7586,7 @@
       <c r="H103" s="24"/>
       <c r="I103" s="24"/>
       <c r="J103" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103" s="30"/>
       <c r="L103" s="24"/>
@@ -7550,9 +7595,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B104" s="50">
         <v>1</v>
@@ -7565,11 +7610,11 @@
       </c>
       <c r="G104" s="25"/>
       <c r="H104" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I104" s="24"/>
       <c r="J104" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104" s="30"/>
       <c r="L104" s="24"/>
@@ -7580,10 +7625,10 @@
         <v>8</v>
       </c>
       <c r="O104" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="27"/>
       <c r="B105" s="54"/>
       <c r="C105" s="23"/>
@@ -7602,9 +7647,9 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
     </row>
-    <row r="106" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="52">
         <v>1</v>
@@ -7621,7 +7666,7 @@
         <v>5</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
@@ -7630,10 +7675,10 @@
         <v>8</v>
       </c>
       <c r="O106" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="52"/>
       <c r="C107" s="10"/>
@@ -7650,9 +7695,9 @@
       <c r="N107" s="62"/>
       <c r="O107" s="20"/>
     </row>
-    <row r="108" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B108" s="52">
         <v>1</v>
@@ -7667,7 +7712,7 @@
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
       <c r="J108" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108" s="10"/>
       <c r="L108" s="11"/>
@@ -7678,12 +7723,12 @@
         <v>8</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="13.9" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B109" s="52">
         <v>1</v>
@@ -7700,11 +7745,11 @@
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K109" s="7"/>
       <c r="L109" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M109" s="34"/>
       <c r="N109" s="62">
@@ -7712,7 +7757,7 @@
       </c>
       <c r="O109" s="7"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B110" s="47"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -7727,37 +7772,108 @@
       <c r="M110" s="4"/>
       <c r="N110" s="63"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B112" s="47"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="63"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B113" s="47"/>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="55">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2">
+        <v>2</v>
+      </c>
+      <c r="F111" s="2">
+        <v>3</v>
+      </c>
+      <c r="G111" s="2">
+        <v>4</v>
+      </c>
+      <c r="I111" s="2">
+        <v>5</v>
+      </c>
+      <c r="K111" s="2">
+        <v>6</v>
+      </c>
+      <c r="M111" s="2">
+        <v>7</v>
+      </c>
+      <c r="N111" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="47">
+        <v>1</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="4">
+        <v>2</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F112" s="4">
+        <v>3</v>
+      </c>
+      <c r="G112" s="4">
+        <v>4</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I112" s="4">
+        <v>5</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K112" s="4">
+        <v>6</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M112" s="4">
+        <v>7</v>
+      </c>
+      <c r="N112" s="63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113" s="47">
+        <v>1</v>
+      </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
+      <c r="E113" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
+      <c r="H113" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
+      <c r="K113" s="4">
+        <v>6</v>
+      </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
-      <c r="N113" s="63"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N113" s="63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B114" s="47"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -7772,7 +7888,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="63"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B115" s="47"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -7787,7 +7903,7 @@
       <c r="M115" s="4"/>
       <c r="N115" s="63"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B116" s="47"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -7802,7 +7918,7 @@
       <c r="M116" s="4"/>
       <c r="N116" s="63"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B117" s="47"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -7817,7 +7933,7 @@
       <c r="M117" s="4"/>
       <c r="N117" s="63"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B118" s="47"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -7832,7 +7948,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="63"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B119" s="47"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -7847,7 +7963,7 @@
       <c r="M119" s="4"/>
       <c r="N119" s="63"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B120" s="47"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -7862,7 +7978,7 @@
       <c r="M120" s="4"/>
       <c r="N120" s="63"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B121" s="47"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -7877,7 +7993,7 @@
       <c r="M121" s="4"/>
       <c r="N121" s="63"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B122" s="47"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -7892,7 +8008,7 @@
       <c r="M122" s="4"/>
       <c r="N122" s="63"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B123" s="47"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -7907,7 +8023,7 @@
       <c r="M123" s="4"/>
       <c r="N123" s="63"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B124" s="47"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -7922,7 +8038,7 @@
       <c r="M124" s="4"/>
       <c r="N124" s="63"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B125" s="47"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -7937,7 +8053,7 @@
       <c r="M125" s="4"/>
       <c r="N125" s="63"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B126" s="47"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -7952,7 +8068,7 @@
       <c r="M126" s="4"/>
       <c r="N126" s="63"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B127" s="47"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -7967,7 +8083,7 @@
       <c r="M127" s="4"/>
       <c r="N127" s="63"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B128" s="47"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -7982,7 +8098,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="63"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="47"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -7997,7 +8113,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="63"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="47"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -8012,31 +8128,31 @@
       <c r="M130" s="4"/>
       <c r="N130" s="63"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F139" s="4"/>
     </row>
   </sheetData>
@@ -8049,135 +8165,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" customWidth="1"/>
-    <col min="2" max="2" width="93.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="87" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:2" s="86" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B3" s="85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B4" s="85" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="86" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="86" t="s">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="85" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="86" t="s">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="85" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="86" t="s">
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B7" s="85" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="86" t="s">
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B8" s="85"/>
+    </row>
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B9" s="85" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="86"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="86" t="s">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B11" s="85"/>
+    </row>
+    <row r="12" spans="1:2" s="86" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="87"/>
+    </row>
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B13" s="85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B14" s="85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B16" s="85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B17" s="85"/>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B18" s="85"/>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B19" s="85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B21" s="85"/>
+    </row>
+    <row r="22" spans="1:2" s="86" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="86" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="86" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="86"/>
-    </row>
-    <row r="12" spans="1:2" s="87" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="88"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="86" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" s="86" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="86"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="86"/>
-    </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="86" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B20" s="86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B21" s="86"/>
-    </row>
-    <row r="22" spans="1:2" s="87" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="87" t="s">
+      <c r="B22" s="87"/>
+    </row>
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B23" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="88"/>
-    </row>
-    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B23" s="86" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="86"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="86"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="86"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B27" s="86"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B28" s="86"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B29" s="86"/>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B24" s="85"/>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B25" s="85"/>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B26" s="85"/>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B27" s="85"/>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B28" s="85"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
